--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -184,11 +184,6 @@
   </si>
   <si>
     <t>SH – P – 022</t>
-  </si>
-  <si>
-    <t>SH – P – 023
-SH – P – 024
-SH – P – 025</t>
   </si>
   <si>
     <t>KB – P – 026
@@ -405,10 +400,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>커뮤니티</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>자유게시판 및 토론</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -422,6 +413,70 @@
   </si>
   <si>
     <t>Q&amp;A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 상담</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 상담</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 제작 회원</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 투자 회원</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청 프로젝트 검토 및 승인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩하는 방법</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판관련</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -471,67 +526,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>실시간 상담</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 상담</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 제작 회원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 투자 회원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>법인 투자회원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 신청 프로젝트 검토 및 승인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩하는 방법</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 채팅 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계 관리</t>
+    <t>예치금 충전</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1039,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1101,36 +1096,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,9 +1106,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,6 +1237,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,15 +1295,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1303,12 +1307,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1587,22 +1585,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1624,20 +1622,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1698,7 +1696,7 @@
         <v>43860</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1767,44 +1765,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="75" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1826,32 +1824,32 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="37">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="26">
         <v>43854</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="26">
         <v>43858</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="26">
         <v>43859</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="26">
         <v>43860</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="26">
         <v>43861</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1871,25 +1869,25 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="33" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="53"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="5">
         <v>1</v>
       </c>
@@ -1918,20 +1916,20 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="54"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="43"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="42"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="13"/>
       <c r="N10" s="8">
         <v>2</v>
@@ -1961,21 +1959,21 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="54"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="43"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="8">
         <v>1</v>
       </c>
@@ -2004,32 +2002,24 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="54"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="43"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8">
-        <v>2</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2049,29 +2039,31 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="54"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="43"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="13"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2092,31 +2084,29 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="54"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="43"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="8">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2137,29 +2127,31 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="33" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="42"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2180,29 +2172,29 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="33" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="54"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="43"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2223,29 +2215,29 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="33" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="54"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="43"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2266,29 +2258,29 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="56"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="43"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="42"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8">
         <v>2</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2309,29 +2301,29 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="58"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2352,28 +2344,30 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="8"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="8">
-        <v>3</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2393,30 +2387,28 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="33" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="54"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="43"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="13"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2436,29 +2428,29 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="59"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="43"/>
       <c r="E22" s="11"/>
       <c r="F22" s="15"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="8"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="8">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2479,29 +2471,29 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="54"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="48"/>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="13"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2521,32 +2513,30 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="33" customHeight="1" thickBot="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="47"/>
+    <row r="24" spans="1:33" ht="33" customHeight="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="13"/>
       <c r="N24" s="8">
-        <v>2</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2566,33 +2556,33 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="33" customHeight="1" thickTop="1">
-      <c r="A25" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
+    <row r="25" spans="1:33" ht="33" customHeight="1" thickBot="1">
+      <c r="A25" s="66"/>
+      <c r="B25" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="8">
-        <v>3</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2611,29 +2601,33 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="33" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="56"/>
+    <row r="26" spans="1:33" ht="33" customHeight="1" thickTop="1">
+      <c r="A26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
       <c r="N26" s="8">
         <v>3</v>
       </c>
-      <c r="O26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="8"/>
+      <c r="O26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="5"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2653,28 +2647,28 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="33" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="54"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="48"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="56"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="8">
         <v>3</v>
       </c>
-      <c r="O27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="3"/>
+      <c r="O27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="8"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2694,28 +2688,28 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="33" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="66"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="55"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="56"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="8">
         <v>3</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="1"/>
@@ -2737,26 +2731,26 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="56"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="45"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="56"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="45"/>
       <c r="N29" s="8">
         <v>3</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="1"/>
@@ -2778,23 +2772,23 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="67"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="56"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="67"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="8">
         <v>3</v>
       </c>
@@ -2819,23 +2813,23 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="33" customHeight="1">
-      <c r="A31" s="69"/>
-      <c r="B31" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
@@ -2858,21 +2852,21 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -2895,21 +2889,21 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
@@ -2932,21 +2926,21 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="32"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
@@ -2969,21 +2963,21 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="31"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="21"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3006,21 +3000,21 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="31"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3211,7 +3205,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="2" t="s">
@@ -3250,7 +3244,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="2" t="s">
@@ -3289,7 +3283,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="2" t="s">
@@ -3328,7 +3322,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="2" t="s">
@@ -3367,7 +3361,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="2" t="s">
@@ -10891,11 +10885,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -10928,7 +10922,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -10936,7 +10930,7 @@
     </row>
     <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -10944,7 +10938,7 @@
     </row>
     <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -10952,7 +10946,7 @@
     </row>
     <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -10960,7 +10954,7 @@
     </row>
     <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -11,7 +11,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$31</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -184,11 +184,6 @@
   </si>
   <si>
     <t>SH – P – 022</t>
-  </si>
-  <si>
-    <t>SH – P – 023
-SH – P – 024
-SH – P – 025</t>
   </si>
   <si>
     <t>KB – P – 026
@@ -491,10 +486,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>법인 투자회원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>등록 신청 프로젝트 검토 및 승인</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -532,6 +523,14 @@
   </si>
   <si>
     <t>통계 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치금 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1035,11 +1034,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1101,36 +1113,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,9 +1123,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,6 +1254,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,15 +1309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1305,10 +1323,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG999"/>
+  <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1587,22 +1617,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1624,20 +1654,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1698,7 +1728,7 @@
         <v>43860</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1767,44 +1797,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35" t="s">
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="73" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1826,32 +1856,32 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="37">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="26">
         <v>43854</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="26">
         <v>43858</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="26">
         <v>43859</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="26">
         <v>43860</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="26">
         <v>43861</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1871,25 +1901,23 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="33" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="92"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="53"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="5">
         <v>1</v>
       </c>
@@ -1918,29 +1946,31 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="8">
-        <v>2</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>22</v>
+      <c r="A10" s="23"/>
+      <c r="B10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1961,29 +1991,29 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="54"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="43"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2004,31 +2034,29 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="54"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="43"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2049,30 +2077,24 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="54"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="43"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2092,31 +2114,31 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="85" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="42"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2137,29 +2159,29 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="33" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="54"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="43"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2180,29 +2202,31 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="33" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="54"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="43"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2223,29 +2247,29 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="33" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="54"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="43"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8">
         <v>2</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2266,29 +2290,29 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="42"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2309,29 +2333,29 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="58"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2352,28 +2376,30 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="42"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8">
-        <v>3</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2393,29 +2419,29 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="33" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="13"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="8">
         <v>1</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>42</v>
+      <c r="O21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2436,30 +2462,28 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="59"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="43"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="43"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2479,29 +2503,29 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="54"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="43"/>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="43"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="13"/>
       <c r="N23" s="8">
         <v>1</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2521,32 +2545,30 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="33" customHeight="1" thickBot="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="47"/>
+    <row r="24" spans="1:33" ht="33" customHeight="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="8">
         <v>2</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>47</v>
+      <c r="O24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2566,33 +2588,31 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="33" customHeight="1" thickTop="1">
-      <c r="A25" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
+    <row r="25" spans="1:33" ht="33" customHeight="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2611,29 +2631,33 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="33" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="56"/>
+    <row r="26" spans="1:33" ht="33" customHeight="1" thickBot="1">
+      <c r="A26" s="66"/>
+      <c r="B26" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="8">
-        <v>3</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2652,29 +2676,33 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="33" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="56"/>
+    <row r="27" spans="1:33" ht="33" customHeight="1" thickTop="1">
+      <c r="A27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
       <c r="N27" s="8">
         <v>3</v>
       </c>
-      <c r="O27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="3"/>
+      <c r="O27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="5"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2694,30 +2722,28 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="33" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="66"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="48"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="56"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="8">
         <v>3</v>
       </c>
-      <c r="O28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="3"/>
+      <c r="O28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="8"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2737,26 +2763,28 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="56"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="55"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="56"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="45"/>
       <c r="N29" s="8">
         <v>3</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="1"/>
@@ -2778,27 +2806,27 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="67"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="8">
         <v>3</v>
       </c>
-      <c r="O30" s="3"/>
+      <c r="O30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2819,26 +2847,28 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="33" customHeight="1">
-      <c r="A31" s="69"/>
-      <c r="B31" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="8">
+        <v>3</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2858,21 +2888,23 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -2895,21 +2927,21 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
@@ -2932,21 +2964,21 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="32"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
@@ -2969,24 +3001,24 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="94"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -3006,21 +3038,21 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="31"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="96"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3042,14 +3074,22 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="M37" s="2"/>
+    <row r="37" spans="1:33" ht="33" customHeight="1">
+      <c r="A37" s="60"/>
+      <c r="B37" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="96"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="21"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3103,14 +3143,11 @@
     <row r="39" spans="1:33" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="M39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3142,9 +3179,6 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3177,7 +3211,9 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="L41" s="14"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3210,13 +3246,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L42" s="14"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3250,12 +3280,10 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -3292,9 +3320,7 @@
         <v>55</v>
       </c>
       <c r="K44" s="1"/>
-      <c r="L44" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3328,12 +3354,10 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K45" s="1"/>
-      <c r="L45" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3367,12 +3391,10 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K46" s="1"/>
-      <c r="L46" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="L46" s="2"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3405,9 +3427,11 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -10115,7 +10139,41 @@
       <c r="AF238" s="1"/>
       <c r="AG238" s="1"/>
     </row>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A239" s="1"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
+    </row>
     <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
@@ -10876,31 +10934,36 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P30">
+  <autoFilter ref="A7:P31">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="18">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B33"/>
+  <mergeCells count="22">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10928,7 +10991,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -10936,7 +10999,7 @@
     </row>
     <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -10944,7 +11007,7 @@
     </row>
     <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -10952,7 +11015,7 @@
     </row>
     <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -10960,7 +11023,7 @@
     </row>
     <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -308,70 +308,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>펀딩</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>투자 펀딩 프로젝트</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -397,14 +333,6 @@
   </si>
   <si>
     <t>지나간 프로젝트 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 및 토론</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -531,6 +459,174 @@
   </si>
   <si>
     <t>예치금 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메이커</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">펀딩
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서포터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관련</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관련 자유게시판 및 토론 게시판</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1254,6 +1350,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,9 +1404,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,9 +1417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,17 +1434,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1617,22 +1713,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="77"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1654,20 +1750,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1797,13 +1893,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1812,29 +1908,29 @@
       <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="73" t="s">
+      <c r="O7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="73" t="s">
+      <c r="P7" s="78" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1856,12 +1952,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="81"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="26">
         <v>43854</v>
       </c>
@@ -1877,11 +1973,11 @@
       <c r="K8" s="26">
         <v>43861</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1904,10 +2000,10 @@
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="92"/>
+      <c r="B9" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="95"/>
       <c r="D9" s="40"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -1947,7 +2043,7 @@
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="75" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -1992,7 +2088,7 @@
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
       <c r="A11" s="62"/>
-      <c r="B11" s="71"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
@@ -2035,7 +2131,7 @@
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
       <c r="A12" s="62"/>
-      <c r="B12" s="71"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="21" t="s">
         <v>62</v>
       </c>
@@ -2078,9 +2174,9 @@
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="72"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="7"/>
@@ -2115,11 +2211,11 @@
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
       <c r="A14" s="62"/>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="7"/>
@@ -2160,9 +2256,9 @@
     </row>
     <row r="15" spans="1:33" ht="33" customHeight="1">
       <c r="A15" s="62"/>
-      <c r="B15" s="88"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="7"/>
@@ -2203,11 +2299,11 @@
     </row>
     <row r="16" spans="1:33" ht="33" customHeight="1">
       <c r="A16" s="62"/>
-      <c r="B16" s="87" t="s">
-        <v>64</v>
+      <c r="B16" s="96" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="7"/>
@@ -2248,9 +2344,9 @@
     </row>
     <row r="17" spans="1:33" ht="33" customHeight="1">
       <c r="A17" s="62"/>
-      <c r="B17" s="89"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="7"/>
@@ -2291,9 +2387,9 @@
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="89"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="7"/>
@@ -2334,9 +2430,9 @@
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
       <c r="A19" s="62"/>
-      <c r="B19" s="89"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="7"/>
@@ -2377,9 +2473,9 @@
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
       <c r="A20" s="62"/>
-      <c r="B20" s="89"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="7"/>
@@ -2420,9 +2516,9 @@
     </row>
     <row r="21" spans="1:33" ht="33" customHeight="1">
       <c r="A21" s="62"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="64"/>
@@ -2463,11 +2559,11 @@
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
       <c r="A22" s="62"/>
-      <c r="B22" s="84" t="s">
-        <v>72</v>
+      <c r="B22" s="88" t="s">
+        <v>93</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="11"/>
@@ -2504,9 +2600,9 @@
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
       <c r="A23" s="62"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="11"/>
@@ -2547,9 +2643,9 @@
     </row>
     <row r="24" spans="1:33" ht="33" customHeight="1">
       <c r="A24" s="62"/>
-      <c r="B24" s="85"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="11"/>
@@ -2590,9 +2686,9 @@
     </row>
     <row r="25" spans="1:33" ht="33" customHeight="1">
       <c r="A25" s="62"/>
-      <c r="B25" s="86"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="65" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="11"/>
@@ -2634,10 +2730,10 @@
     <row r="26" spans="1:33" ht="33" customHeight="1" thickBot="1">
       <c r="A26" s="66"/>
       <c r="B26" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="36"/>
@@ -2680,11 +2776,11 @@
       <c r="A27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="90" t="s">
-        <v>80</v>
+      <c r="B27" s="93" t="s">
+        <v>76</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="34"/>
@@ -2723,9 +2819,9 @@
     </row>
     <row r="28" spans="1:33" ht="33" customHeight="1">
       <c r="A28" s="62"/>
-      <c r="B28" s="71"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="7"/>
@@ -2764,11 +2860,11 @@
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="68" t="s">
-        <v>85</v>
+      <c r="B29" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="7"/>
@@ -2807,9 +2903,9 @@
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="69"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="7"/>
@@ -2849,10 +2945,10 @@
     <row r="31" spans="1:33" ht="33" customHeight="1">
       <c r="A31" s="67"/>
       <c r="B31" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="10"/>
@@ -2889,11 +2985,11 @@
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="70" t="s">
-        <v>87</v>
+      <c r="B32" s="75" t="s">
+        <v>83</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -2928,9 +3024,9 @@
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="71"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -2965,9 +3061,9 @@
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="72"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="63"/>
@@ -3002,10 +3098,10 @@
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="94"/>
+      <c r="B35" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="69"/>
       <c r="D35" s="22"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
@@ -3039,10 +3135,10 @@
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
       <c r="A36" s="59"/>
-      <c r="B36" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="96"/>
+      <c r="B36" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="71"/>
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
@@ -3076,10 +3172,10 @@
     </row>
     <row r="37" spans="1:33" ht="33" customHeight="1">
       <c r="A37" s="60"/>
-      <c r="B37" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="96"/>
+      <c r="B37" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="71"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="63"/>
@@ -10942,28 +11038,28 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="22">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -406,14 +406,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 제작 회원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 투자 회원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>등록 신청 프로젝트 검토 및 승인</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -627,6 +619,14 @@
   </si>
   <si>
     <t>프로젝트 관련 자유게시판 및 토론 게시판</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 제작 회원 (메이커)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 투자 회원 (서포터)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1350,42 +1350,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,10 +1368,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,6 +1406,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,8 +1425,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1713,22 +1713,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1750,20 +1750,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1893,13 +1893,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1908,29 +1908,29 @@
       <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="78" t="s">
+      <c r="P7" s="77" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1952,12 +1952,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="72"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="26">
         <v>43854</v>
       </c>
@@ -1973,11 +1973,11 @@
       <c r="K8" s="26">
         <v>43861</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2000,10 +2000,10 @@
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="95"/>
+      <c r="B9" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="92"/>
       <c r="D9" s="40"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="81" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -2088,7 +2088,7 @@
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
       <c r="A11" s="62"/>
-      <c r="B11" s="76"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
       <c r="A12" s="62"/>
-      <c r="B12" s="76"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="21" t="s">
         <v>62</v>
       </c>
@@ -2174,9 +2174,9 @@
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="7"/>
@@ -2211,8 +2211,8 @@
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
       <c r="A14" s="62"/>
-      <c r="B14" s="96" t="s">
-        <v>91</v>
+      <c r="B14" s="87" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>63</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="15" spans="1:33" ht="33" customHeight="1">
       <c r="A15" s="62"/>
-      <c r="B15" s="91"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="22" t="s">
         <v>64</v>
       </c>
@@ -2299,8 +2299,8 @@
     </row>
     <row r="16" spans="1:33" ht="33" customHeight="1">
       <c r="A16" s="62"/>
-      <c r="B16" s="96" t="s">
-        <v>92</v>
+      <c r="B16" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>66</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="17" spans="1:33" ht="33" customHeight="1">
       <c r="A17" s="62"/>
-      <c r="B17" s="92"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="21" t="s">
         <v>65</v>
       </c>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="92"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="21" t="s">
         <v>69</v>
       </c>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
       <c r="A19" s="62"/>
-      <c r="B19" s="92"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="21" t="s">
         <v>67</v>
       </c>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
       <c r="A20" s="62"/>
-      <c r="B20" s="92"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="21" t="s">
         <v>68</v>
       </c>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="21" spans="1:33" ht="33" customHeight="1">
       <c r="A21" s="62"/>
-      <c r="B21" s="91"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="22" t="s">
         <v>70</v>
       </c>
@@ -2559,11 +2559,11 @@
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
       <c r="A22" s="62"/>
-      <c r="B22" s="88" t="s">
-        <v>93</v>
+      <c r="B22" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="11"/>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
       <c r="A23" s="62"/>
-      <c r="B23" s="89"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="22" t="s">
         <v>71</v>
       </c>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="24" spans="1:33" ht="33" customHeight="1">
       <c r="A24" s="62"/>
-      <c r="B24" s="89"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="22" t="s">
         <v>72</v>
       </c>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="25" spans="1:33" ht="33" customHeight="1">
       <c r="A25" s="62"/>
-      <c r="B25" s="90"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="65" t="s">
         <v>73</v>
       </c>
@@ -2776,11 +2776,11 @@
       <c r="A27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="90" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="34"/>
@@ -2819,9 +2819,9 @@
     </row>
     <row r="28" spans="1:33" ht="33" customHeight="1">
       <c r="A28" s="62"/>
-      <c r="B28" s="76"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="7"/>
@@ -2860,11 +2860,11 @@
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="73" t="s">
-        <v>81</v>
+      <c r="B29" s="79" t="s">
+        <v>79</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="7"/>
@@ -2903,9 +2903,9 @@
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="74"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="7"/>
@@ -2945,10 +2945,10 @@
     <row r="31" spans="1:33" ht="33" customHeight="1">
       <c r="A31" s="67"/>
       <c r="B31" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="10"/>
@@ -2985,8 +2985,8 @@
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="75" t="s">
-        <v>83</v>
+      <c r="B32" s="81" t="s">
+        <v>81</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>71</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="76"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="22" t="s">
         <v>72</v>
       </c>
@@ -3061,9 +3061,9 @@
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="77"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="63"/>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="69"/>
+      <c r="B35" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="94"/>
       <c r="D35" s="22"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
       <c r="A36" s="59"/>
-      <c r="B36" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="71"/>
+      <c r="B36" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="96"/>
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
@@ -3172,10 +3172,10 @@
     </row>
     <row r="37" spans="1:33" ht="33" customHeight="1">
       <c r="A37" s="60"/>
-      <c r="B37" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="71"/>
+      <c r="B37" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="96"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="63"/>
@@ -11038,13 +11038,12 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="22">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="P7:P8"/>
@@ -11054,12 +11053,13 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -305,10 +305,6 @@
   </si>
   <si>
     <t>마이페이지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자 펀딩 프로젝트</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -627,6 +623,10 @@
   </si>
   <si>
     <t>프로젝트 투자 회원 (서포터)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 펀딩 프로젝트 등록</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1350,37 +1350,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,6 +1378,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,16 +1413,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1713,22 +1713,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1750,20 +1750,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1893,13 +1893,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1908,29 +1908,29 @@
       <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="O7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="78" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1952,12 +1952,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="74"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="26">
         <v>43854</v>
       </c>
@@ -1973,11 +1973,11 @@
       <c r="K8" s="26">
         <v>43861</v>
       </c>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2000,10 +2000,10 @@
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="92"/>
+      <c r="B9" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="88"/>
       <c r="D9" s="40"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="75" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -2088,7 +2088,7 @@
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
       <c r="A11" s="62"/>
-      <c r="B11" s="82"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
       <c r="A12" s="62"/>
-      <c r="B12" s="82"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="21" t="s">
         <v>62</v>
       </c>
@@ -2174,9 +2174,9 @@
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="83"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="7"/>
@@ -2211,11 +2211,11 @@
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
       <c r="A14" s="62"/>
-      <c r="B14" s="87" t="s">
-        <v>89</v>
+      <c r="B14" s="83" t="s">
+        <v>88</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="7"/>
@@ -2256,9 +2256,9 @@
     </row>
     <row r="15" spans="1:33" ht="33" customHeight="1">
       <c r="A15" s="62"/>
-      <c r="B15" s="88"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="7"/>
@@ -2299,11 +2299,11 @@
     </row>
     <row r="16" spans="1:33" ht="33" customHeight="1">
       <c r="A16" s="62"/>
-      <c r="B16" s="87" t="s">
-        <v>90</v>
+      <c r="B16" s="83" t="s">
+        <v>89</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="7"/>
@@ -2344,9 +2344,9 @@
     </row>
     <row r="17" spans="1:33" ht="33" customHeight="1">
       <c r="A17" s="62"/>
-      <c r="B17" s="89"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="7"/>
@@ -2387,9 +2387,9 @@
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="89"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="7"/>
@@ -2430,9 +2430,9 @@
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
       <c r="A19" s="62"/>
-      <c r="B19" s="89"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="7"/>
@@ -2473,9 +2473,9 @@
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
       <c r="A20" s="62"/>
-      <c r="B20" s="89"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="7"/>
@@ -2516,9 +2516,9 @@
     </row>
     <row r="21" spans="1:33" ht="33" customHeight="1">
       <c r="A21" s="62"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="64"/>
@@ -2559,11 +2559,11 @@
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
       <c r="A22" s="62"/>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="11"/>
@@ -2600,9 +2600,9 @@
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
       <c r="A23" s="62"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="11"/>
@@ -2643,9 +2643,9 @@
     </row>
     <row r="24" spans="1:33" ht="33" customHeight="1">
       <c r="A24" s="62"/>
-      <c r="B24" s="85"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="11"/>
@@ -2686,9 +2686,9 @@
     </row>
     <row r="25" spans="1:33" ht="33" customHeight="1">
       <c r="A25" s="62"/>
-      <c r="B25" s="86"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="11"/>
@@ -2730,10 +2730,10 @@
     <row r="26" spans="1:33" ht="33" customHeight="1" thickBot="1">
       <c r="A26" s="66"/>
       <c r="B26" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>75</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="36"/>
@@ -2776,11 +2776,11 @@
       <c r="A27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="90" t="s">
-        <v>76</v>
+      <c r="B27" s="86" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="34"/>
@@ -2819,9 +2819,9 @@
     </row>
     <row r="28" spans="1:33" ht="33" customHeight="1">
       <c r="A28" s="62"/>
-      <c r="B28" s="82"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="7"/>
@@ -2860,11 +2860,11 @@
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="79" t="s">
-        <v>79</v>
+      <c r="B29" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="7"/>
@@ -2903,9 +2903,9 @@
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="80"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="7"/>
@@ -2945,10 +2945,10 @@
     <row r="31" spans="1:33" ht="33" customHeight="1">
       <c r="A31" s="67"/>
       <c r="B31" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="10"/>
@@ -2985,11 +2985,11 @@
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="81" t="s">
-        <v>81</v>
+      <c r="B32" s="75" t="s">
+        <v>80</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -3024,9 +3024,9 @@
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="82"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -3061,9 +3061,9 @@
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="83"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="63"/>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="94"/>
+      <c r="B35" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="69"/>
       <c r="D35" s="22"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
       <c r="A36" s="59"/>
-      <c r="B36" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="96"/>
+      <c r="B36" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="71"/>
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
@@ -3172,10 +3172,10 @@
     </row>
     <row r="37" spans="1:33" ht="33" customHeight="1">
       <c r="A37" s="60"/>
-      <c r="B37" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="96"/>
+      <c r="B37" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="71"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="63"/>
@@ -11038,6 +11038,20 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="22">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
@@ -11046,20 +11060,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -627,6 +627,66 @@
   </si>
   <si>
     <t>프로젝트 투자 회원 (서포터)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지로서 로그인, 메이커 관련, 서포터 관련 기능으로 이동할 수 있는 메뉴 제공</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 또는 서포터로 로그인하여 상품 등록, 상품 펀딩이 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 또는 서포터로 로그인하기 위한 회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 이후 개인정보 수정이나 펀딩, 상품등록 정보를 열람 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 펀딩을 받기 위한 상품을 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 페이지에서 다양한 주제에 대한 상품을 묶어서 제공</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉽게 목표 도달에 실패한 프로젝트 목록 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 30일 이내 가장 많은 펀딩 금액을 받은 프로젝트 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실현 가능성을 염두에 두지 않고 장난으로 올린 프로젝트에 대해서 신고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 프로젝트를 관심 프로젝트로 등록하면 마이페이지 내에서 확인 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 프로젝트에 관련된 문의사항이나 의견을 공유</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이 아닌 해당 서비스에 대한 공지사항 열람</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 관련 문의사항을 질문하는 메뉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 내용 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자가 게시한 Q&amp;A에 대한 답변 등록</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1350,37 +1410,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,6 +1438,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,16 +1473,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1713,22 +1773,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1750,20 +1810,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1893,13 +1953,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1908,29 +1968,29 @@
       <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="O7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="78" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1952,12 +2012,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="74"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="26">
         <v>43854</v>
       </c>
@@ -1973,11 +2033,11 @@
       <c r="K8" s="26">
         <v>43861</v>
       </c>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2000,11 +2060,13 @@
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="40"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="20"/>
@@ -2043,13 +2105,15 @@
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="75" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="20"/>
@@ -2088,11 +2152,13 @@
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
       <c r="A11" s="62"/>
-      <c r="B11" s="82"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>97</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
@@ -2131,11 +2197,13 @@
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
       <c r="A12" s="62"/>
-      <c r="B12" s="82"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
@@ -2174,7 +2242,7 @@
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="83"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="21" t="s">
         <v>88</v>
       </c>
@@ -2211,7 +2279,7 @@
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
       <c r="A14" s="62"/>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="83" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -2256,11 +2324,13 @@
     </row>
     <row r="15" spans="1:33" ht="33" customHeight="1">
       <c r="A15" s="62"/>
-      <c r="B15" s="88"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
@@ -2299,13 +2369,15 @@
     </row>
     <row r="16" spans="1:33" ht="33" customHeight="1">
       <c r="A16" s="62"/>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="83" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
@@ -2344,11 +2416,13 @@
     </row>
     <row r="17" spans="1:33" ht="33" customHeight="1">
       <c r="A17" s="62"/>
-      <c r="B17" s="89"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
@@ -2387,11 +2461,13 @@
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="89"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="43" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
@@ -2430,7 +2506,7 @@
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
       <c r="A19" s="62"/>
-      <c r="B19" s="89"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="21" t="s">
         <v>67</v>
       </c>
@@ -2473,11 +2549,13 @@
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
       <c r="A20" s="62"/>
-      <c r="B20" s="89"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4"/>
@@ -2516,11 +2594,13 @@
     </row>
     <row r="21" spans="1:33" ht="33" customHeight="1">
       <c r="A21" s="62"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="46" t="s">
+        <v>104</v>
+      </c>
       <c r="E21" s="64"/>
       <c r="F21" s="16"/>
       <c r="G21" s="4"/>
@@ -2559,13 +2639,15 @@
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
       <c r="A22" s="62"/>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="80" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>105</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="4"/>
@@ -2600,11 +2682,13 @@
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
       <c r="A23" s="62"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>106</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
       <c r="G23" s="4"/>
@@ -2643,11 +2727,13 @@
     </row>
     <row r="24" spans="1:33" ht="33" customHeight="1">
       <c r="A24" s="62"/>
-      <c r="B24" s="85"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="48" t="s">
+        <v>107</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="15"/>
       <c r="G24" s="4"/>
@@ -2686,7 +2772,7 @@
     </row>
     <row r="25" spans="1:33" ht="33" customHeight="1">
       <c r="A25" s="62"/>
-      <c r="B25" s="86"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="65" t="s">
         <v>73</v>
       </c>
@@ -2776,7 +2862,7 @@
       <c r="A27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="86" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="33" t="s">
@@ -2819,7 +2905,7 @@
     </row>
     <row r="28" spans="1:33" ht="33" customHeight="1">
       <c r="A28" s="62"/>
-      <c r="B28" s="82"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="22" t="s">
         <v>94</v>
       </c>
@@ -2860,7 +2946,7 @@
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="73" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="22" t="s">
@@ -2903,7 +2989,7 @@
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="80"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="22" t="s">
         <v>78</v>
       </c>
@@ -2985,13 +3071,15 @@
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="75" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -3024,11 +3112,13 @@
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="82"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -3061,7 +3151,7 @@
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="83"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="22" t="s">
         <v>82</v>
       </c>
@@ -3098,10 +3188,10 @@
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="94"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="22"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
@@ -3135,10 +3225,10 @@
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
       <c r="A36" s="59"/>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="96"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
@@ -3172,10 +3262,10 @@
     </row>
     <row r="37" spans="1:33" ht="33" customHeight="1">
       <c r="A37" s="60"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="96"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="63"/>
@@ -11038,6 +11128,20 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="22">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
@@ -11046,20 +11150,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -23,24 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
-  <si>
-    <t>로그인 및 계정관련</t>
-  </si>
-  <si>
-    <t>게시판 관련</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
   <si>
     <t>요구사항정의서</t>
-  </si>
-  <si>
-    <t>여행 정보 관련</t>
-  </si>
-  <si>
-    <t>메인 컨텐츠 관련</t>
-  </si>
-  <si>
-    <t>메인 화면</t>
   </si>
   <si>
     <t>구분</t>
@@ -73,51 +58,48 @@
     <t>우선순위</t>
   </si>
   <si>
-    <t>사용자</t>
-  </si>
-  <si>
     <t>현태</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>용승</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>서희</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>기범</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>형준</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>계정관련</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>실시간 상담</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>회원관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>통계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>커뮤니티 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -197,7 +179,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -277,125 +259,495 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>게시판 관련</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 로그인 - 아이디 비밀번호 입력
-소셜 로그인 - 다음, 카카오, 구글</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작 프로젝트 관리 페이지
-펀딩 한 프로젝트 관리 페이지
-관심 등록 프로젝트 관리 페이지
-회원 정보 변경 페이지 연결
-예치금 관리 페이지 (예치금 충전, 조회)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터 회원으로서 펀딩 하는데 사용될 금액 충전 및 조회 - 마이페이지 내에 구현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">펀딩 받은 프로젝트에서 발생한 수익률 대비 수익금으로 돌려주는 프로젝트
-- 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별로 프로젝트를 조회
-- IT, 가전, 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물
-- 프로젝트 상세페이지로 연결</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>현재 가장 이슈가 되는 프로젝트 확인
 - 조회수순, 투자 금액순
 - 프로젝트 상세페이지로 연결</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거 프로젝트 조회
-- 근소한 차이로 목표금액 달성하지 못한 프로젝트 노출</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 프로젝트 신고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>런칭 예정 프로젝트 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일 사업자 등록번호 입력, 관심 카테고리 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>최근 이슈 및 회사 운영 관련 공지사항</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 메인 컨셉 소개 및 펀딩 방법 소개</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지 연결, 베스트 프로젝트 노출, 다가올 펀딩 미리보기 노출, 펀딩 하는 방법 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식
-- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>궁금한 사항을 질문하고 관리자로부터 답변을 받는 게시판
 - 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>관리자 로그인
 - 관리자 ID, 관리자 PASSWORD 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 신청한 프로젝트를 검토한 후 승인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 카테고리 등록, 수정 및 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>키워드, 카테고리별 조회수 및 투자 금액, 프로젝트별 조회수 및 투자 금액 등을 조회하여 향후 웹 운영에 필요한 정보 수집</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 등록, 수정 및 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Q&amp;A 게시글 답변 등록, 수정 및 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>펀딩 방법 등록, 수정 및 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>예치금 몰수, 부여 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의사항에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>응답</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">펀딩 받은 프로젝트에서 상품으로 돌려주는 프로젝트
+- 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 리워드 세부내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자와의 실시간 채팅을 통한 상담 (로그인 필수)
+- 모든 페이지 오른쪽 하단 플로팅 배너</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 및 실시간 채팅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 회원 프로젝트 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터 회원 프로젝트 펀딩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 관리
+메인화면 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 (5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치금 관리 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면) (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 펀딩 프로젝트 등록 (3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 펀딩 프로젝트 등록 (3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면) (1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트 프로젝트 확인 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나간 프로젝트 확인 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가올 펀딩 미리 보기 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트 등록 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펀딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 상담 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 제작 회원 (메이커) (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 투자 회원 (서포터) (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청 프로젝트 검토 및 승인 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩하는 방법 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 프로젝트 확인 (1+1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면코드(WEB)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면코드(MOBILE)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_ht_</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 연결, 회원 가입 연결, 펀딩 하는 방법 확인
+실시간 베스트 프로젝트(모금액 기준) 노출, 다가올 펀딩 미리보기 노출, 신규 펀딩
+프로젝트 홍보를 위한 스크롤링 배너
+프로젝트 검색</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 로그인 - 아이디 비밀번호 입력
+소셜 로그인 - 네이버, 카카오, 구글, 페이스북</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화)
+펀딩 한 프로젝트 관리 페이지
+관심 등록 프로젝트 관리 페이지
+회원 정보 변경 페이지 연결
+예치금 관리 페이지 (예치금 충전, 조회)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일 사업자 등록번호 입력, 관심 카테고리 등록, 계좌 정보
+소셜 로그인을 위한 회원 가입 창으로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">펀딩 받은 프로젝트에서 발생한 수익률 대비 수익금으로 돌려주는 프로젝트
+- 업체명, 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 카테고리, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별로 프로젝트를 조회
+- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정
+관심프로젝트로 등록한 프로젝트에는 프로젝트 제목 옆에 별표 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
+- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 메인 컨셉 소개 및 펀딩 방법 소개 (투자하는 방법, 펀딩 반는 방법, 회원 자격, 투자후 수익/리워드 프로세스)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 관리 - 기본 입력 사항 관리 (아이디, 연락처 등등)
+프로젝트 소개 페이지 연결
+입출금 관리
+사업자 번호 관리
+강제 탈퇴 - 탈퇴한 회원 회색 음영 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 관리 - 기본 입력 사항 관리
+예치금 - 몰수, 부여, 사용제한
+투자 제한 - 간단한 사유 포함
+입출금 및 투자 관리
+강제 탈퇴 - 탈퇴한 회원 회색 음영 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청한 프로젝트를 검토한 후 승인 여부 지정
+프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
+승인/보류/승인거절 버튼
+알림 보내기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지어 설정, 이용제한 계정 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 카테고리 등록, 수정 및 삭제, 금지어 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치금 몰수, 부여 관리
+프로젝트 별 결제 현황, 결제 진행 현황 확인
+(펀딩성공-결제대기/펀딩성공-결제완료/펀딩실패-락업해제대기/펀딩실패-락업해제완료)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -596,20 +948,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실시간</t>
+      <t>관리
+추천</t>
     </r>
     <r>
       <rPr>
@@ -628,7 +968,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>채팅을</t>
+      <t>펀딩</t>
     </r>
     <r>
       <rPr>
@@ -647,7 +987,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>통한</t>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크롤링</t>
     </r>
     <r>
       <rPr>
@@ -666,7 +1025,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>문의사항에</t>
+      <t>배너</t>
     </r>
     <r>
       <rPr>
@@ -685,12 +1044,86 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>대한</t>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
+근소한 차이로 목표금액 달성하지 못한 프로젝트 노출</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 프로젝트 신고 (제목과 신고 내용, 증거자료), 장난식으로 등록된 프로젝트 포함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>용승</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>용승</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터 회원으로서 펀딩 하는데 사용될 금액 충전 및 입,출금 등 거래내역 조회</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 내에 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능으로서</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -699,173 +1132,18 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>응답</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 관리 - 기본 입력 사항 관리
-예치금 - 몰수, 부여
-입출금 및 투자 관리
-회원 탈퇴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 관리 - 기본 입력 사항 관리
-입출금 관리
-사업자 번호 관리
-회원 탈퇴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">펀딩 받은 프로젝트에서 상품으로 돌려주는 프로젝트
-- 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 리워드 세부내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자와의 실시간 채팅을 통한 상담 (로그인 필수)
-- 모든 페이지 오른쪽 하단 플로팅 배너</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 및 실시간 채팅</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 관련</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이커 회원 프로젝트 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터 회원 프로젝트 펀딩</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 관련</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 채팅 관리
-메인화면 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 (5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>예치금 관리 (-)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 (진입 화면) (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자 펀딩 프로젝트 등록 (3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>리워드 펀딩 프로젝트 등록 (3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 (진입 화면) (1+1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스트 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나간 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가올 펀딩 미리 보기 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 신고 (-)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심 프로젝트 등록 (-)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>펀딩</t>
+      <t>필요
+웹페이지는</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -874,15 +1152,17 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>하는</t>
+      <t>마이페이지에</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -891,105 +1171,39 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>방법</t>
+      <t>구현</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>채팅 상담 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 제작 회원 (메이커) (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 투자 회원 (서포터) (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 신청 프로젝트 검토 및 승인 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 관리 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계 관리 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩하는 방법 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 관리 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 채팅 관리 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 관리 (1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 프로젝트 확인 (1+1+1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면코드(WEB)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면코드(MOBILE)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>팝업창으로 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>user_w_ht_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_m_ht_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>프로젝트 신고 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>admin_ht_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>user_w_sh_</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -999,7 +1213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1034,11 +1248,6 @@
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1110,7 +1319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1183,17 +1392,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1599,18 +1797,115 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1618,9 +1913,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,347 +1931,386 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2197,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1001"/>
+  <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2208,16 +2539,13 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="135.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="44" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="92.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="44" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2258,22 +2586,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="B2" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="110"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2295,20 +2623,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2434,45 +2762,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="G7" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="M7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="N7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>110</v>
+      <c r="O7" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="98" t="s">
+        <v>77</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2493,32 +2821,24 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="23">
-        <v>43854</v>
-      </c>
-      <c r="H8" s="23">
-        <v>43858</v>
-      </c>
-      <c r="I8" s="23">
-        <v>43859</v>
-      </c>
-      <c r="J8" s="23">
-        <v>43860</v>
-      </c>
-      <c r="K8" s="23">
-        <v>43861</v>
-      </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="18">
+        <v>43866</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2537,33 +2857,33 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A9" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>112</v>
-      </c>
+    <row r="9" spans="1:33" ht="48">
+      <c r="A9" s="92"/>
+      <c r="B9" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="107"/>
+      <c r="D9" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2582,31 +2902,33 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A10" s="111"/>
-      <c r="B10" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="6"/>
+    <row r="10" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2625,27 +2947,31 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="5"/>
+    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2665,26 +2991,30 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="111"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2703,27 +3033,33 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A13" s="111"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+    <row r="13" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2742,29 +3078,33 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="36">
-      <c r="A14" s="111"/>
-      <c r="B14" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+    <row r="14" spans="1:33" ht="48">
+      <c r="A14" s="93"/>
+      <c r="B14" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2783,27 +3123,31 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="36">
-      <c r="A15" s="111"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+    <row r="15" spans="1:33" ht="48">
+      <c r="A15" s="93"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2822,29 +3166,37 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="36">
-      <c r="A16" s="111"/>
-      <c r="B16" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+    <row r="16" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2863,27 +3215,35 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="36">
-      <c r="A17" s="111"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+    <row r="17" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A17" s="93"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2902,27 +3262,35 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+    <row r="18" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2941,27 +3309,35 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+    <row r="19" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A19" s="93"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2980,27 +3356,37 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+    <row r="20" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A20" s="93"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -3019,27 +3405,33 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="20" t="s">
+    <row r="21" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="E21" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3058,29 +3450,33 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A22" s="93"/>
+      <c r="B22" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3099,27 +3495,31 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+    <row r="23" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3138,27 +3538,31 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A24" s="111"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+    <row r="24" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A24" s="93"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="5"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3177,27 +3581,31 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A25" s="111"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+    <row r="25" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A25" s="93"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3216,29 +3624,35 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="27" customHeight="1" thickBot="1">
-      <c r="A26" s="112"/>
-      <c r="B26" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
+    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="79"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3257,29 +3671,33 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="27.75" customHeight="1" thickTop="1">
-      <c r="A27" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
+    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
+      <c r="A27" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="132"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3298,29 +3716,33 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="48">
-      <c r="A28" s="114"/>
-      <c r="B28" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="5"/>
+    <row r="28" spans="1:33" ht="60">
+      <c r="A28" s="96"/>
+      <c r="B28" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="133"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3339,27 +3761,31 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="48">
-      <c r="A29" s="114"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
+    <row r="29" spans="1:33" ht="60">
+      <c r="A29" s="96"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="133"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3378,29 +3804,33 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="3"/>
+    <row r="30" spans="1:33" ht="48">
+      <c r="A30" s="96"/>
+      <c r="B30" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="133"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3419,27 +3849,31 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A31" s="114"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="20" t="s">
+    <row r="31" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A31" s="96"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="119"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="133"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3458,29 +3892,35 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A32" s="114"/>
-      <c r="B32" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
+    <row r="32" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A32" s="96"/>
+      <c r="B32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="133"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3499,29 +3939,33 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
+    <row r="33" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A33" s="96"/>
+      <c r="B33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="133"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3540,27 +3984,31 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A34" s="114"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
+    <row r="34" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A34" s="96"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="133"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -3579,27 +4027,31 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A35" s="114"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
+    <row r="35" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A35" s="96"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="133"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -3618,27 +4070,31 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A36" s="114"/>
-      <c r="B36" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
+    <row r="36" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A36" s="96"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="133"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -3657,27 +4113,33 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A37" s="114"/>
-      <c r="B37" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
+    <row r="37" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A37" s="96"/>
+      <c r="B37" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" s="133"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3696,27 +4158,31 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
+    <row r="38" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="83"/>
+      <c r="D38" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="133"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3735,17 +4201,31 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+    <row r="39" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="D39" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="134"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -3793,20 +4273,14 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75">
+    <row r="41" spans="1:33" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="53"/>
-      <c r="M41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3828,26 +4302,19 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="24">
+    <row r="42" spans="1:33" ht="12.75">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="F42" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="1"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="46"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3870,22 +4337,26 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1">
+    <row r="43" spans="1:33" ht="24">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="F43" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="77"/>
-      <c r="L43" s="14"/>
+      <c r="F43" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -3913,18 +4384,17 @@
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="77"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2"/>
+      <c r="F44" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="68"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3952,18 +4422,16 @@
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="I45" s="77" t="s">
-        <v>74</v>
-      </c>
+      <c r="F45" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="68"/>
       <c r="K45" s="1"/>
       <c r="L45" s="2"/>
       <c r="M45" s="1"/>
@@ -3993,16 +4461,18 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="I46" s="77"/>
+      <c r="F46" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1"/>
@@ -4032,11 +4502,16 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="F47" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="68"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4105,9 +4580,8 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="2"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -4135,6 +4609,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4204,9 +4679,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -4241,7 +4714,7 @@
       <c r="D53" s="1"/>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -4277,7 +4750,7 @@
       <c r="D54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4311,10 +4784,9 @@
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4351,7 +4823,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -4387,7 +4859,9 @@
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -10820,22 +11294,56 @@
       <c r="AF240" s="1"/>
       <c r="AG240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="241" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
+      <c r="AD241" s="1"/>
+      <c r="AE241" s="1"/>
+      <c r="AF241" s="1"/>
+      <c r="AG241" s="1"/>
+    </row>
+    <row r="242" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="247" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="248" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="249" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="250" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -11581,24 +12089,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A7:P32">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="25">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A38"/>
+  <mergeCells count="28">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -11606,15 +12113,20 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P27:P39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11625,58 +12137,93 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:C1000"/>
+  <dimension ref="B2:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="12.75">
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="12.75">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="127"/>
+      <c r="C2" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="12.75">
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="12.75">
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="68"/>
+    </row>
+    <row r="6" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="12.75">
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E7" s="68"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -12659,7 +13206,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -2142,6 +2142,135 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2154,24 +2283,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,123 +2311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2530,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2586,22 +2586,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="110"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2762,44 +2762,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="114" t="s">
+      <c r="N7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="105" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2821,24 +2821,24 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="84"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="18">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2858,11 +2858,11 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="92"/>
-      <c r="B9" s="106" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="107"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="58" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +2903,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="132"/>
+      <c r="B10" s="118" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2948,8 +2948,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
@@ -2991,8 +2991,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="93"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
@@ -3034,8 +3034,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
@@ -3058,8 +3058,8 @@
       <c r="L13" s="23"/>
       <c r="M13" s="34"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3079,8 +3079,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="93"/>
-      <c r="B14" s="103" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3124,8 +3124,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="93"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
@@ -3167,8 +3167,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="103" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3216,8 +3216,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
@@ -3310,8 +3310,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
@@ -3357,15 +3357,15 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="15" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="93" t="s">
         <v>116</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3406,15 +3406,15 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="93"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="92" t="s">
         <v>115</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -3430,8 +3430,8 @@
       <c r="L21" s="23"/>
       <c r="M21" s="36"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3451,8 +3451,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="93"/>
-      <c r="B22" s="100" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="109" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3496,8 +3496,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
@@ -3582,8 +3582,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="93"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="44" t="s">
         <v>64</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="94"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
@@ -3672,13 +3672,13 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="91"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="59" t="s">
         <v>29</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="M27" s="52"/>
       <c r="N27" s="36"/>
       <c r="O27" s="77"/>
-      <c r="P27" s="132"/>
+      <c r="P27" s="120"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3717,8 +3717,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="96"/>
-      <c r="B28" s="88" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="115" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3742,7 +3742,7 @@
       <c r="M28" s="40"/>
       <c r="N28" s="7"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="133"/>
+      <c r="P28" s="121"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3762,8 +3762,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="96"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="16" t="s">
         <v>67</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="M29" s="35"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="133"/>
+      <c r="P29" s="121"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3805,8 +3805,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="96"/>
-      <c r="B30" s="85" t="s">
+      <c r="A30" s="135"/>
+      <c r="B30" s="127" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -3830,7 +3830,7 @@
       <c r="M30" s="35"/>
       <c r="N30" s="7"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="133"/>
+      <c r="P30" s="121"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3850,8 +3850,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="96"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="M31" s="35"/>
       <c r="N31" s="73"/>
       <c r="O31" s="74"/>
-      <c r="P31" s="133"/>
+      <c r="P31" s="121"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3893,34 +3893,34 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="96"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117" t="s">
+      <c r="E32" s="81"/>
+      <c r="F32" s="81" t="s">
         <v>110</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="119"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
       <c r="K32" s="32"/>
       <c r="L32" s="41"/>
-      <c r="M32" s="120"/>
+      <c r="M32" s="84"/>
       <c r="N32" s="16"/>
       <c r="O32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P32" s="133"/>
+      <c r="P32" s="121"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3940,8 +3940,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="87" t="s">
+      <c r="A33" s="135"/>
+      <c r="B33" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -3961,11 +3961,11 @@
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
-      <c r="L33" s="124"/>
+      <c r="L33" s="88"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="75"/>
-      <c r="P33" s="133"/>
+      <c r="P33" s="121"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3985,8 +3985,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="96"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="M34" s="61"/>
       <c r="N34" s="75"/>
       <c r="O34" s="75"/>
-      <c r="P34" s="133"/>
+      <c r="P34" s="121"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4028,8 +4028,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="96"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="16" t="s">
         <v>63</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="M35" s="61"/>
       <c r="N35" s="75"/>
       <c r="O35" s="75"/>
-      <c r="P35" s="133"/>
+      <c r="P35" s="121"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4071,8 +4071,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="16" t="s">
         <v>71</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="43"/>
-      <c r="F36" s="123" t="s">
+      <c r="F36" s="87" t="s">
         <v>112</v>
       </c>
       <c r="G36" s="14" t="s">
@@ -4094,7 +4094,7 @@
       <c r="M36" s="61"/>
       <c r="N36" s="75"/>
       <c r="O36" s="75"/>
-      <c r="P36" s="133"/>
+      <c r="P36" s="121"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4114,16 +4114,16 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="135"/>
+      <c r="B37" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="121" t="s">
+      <c r="C37" s="124"/>
+      <c r="D37" s="85" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="43"/>
-      <c r="F37" s="123" t="s">
+      <c r="F37" s="87" t="s">
         <v>110</v>
       </c>
       <c r="G37" s="14" t="s">
@@ -4139,7 +4139,7 @@
       <c r="O37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P37" s="133"/>
+      <c r="P37" s="121"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4159,16 +4159,16 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="82" t="s">
+      <c r="A38" s="135"/>
+      <c r="B38" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="83"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="60" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="43"/>
-      <c r="F38" s="123" t="s">
+      <c r="F38" s="87" t="s">
         <v>107</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -4182,7 +4182,7 @@
       <c r="M38" s="62"/>
       <c r="N38" s="76"/>
       <c r="O38" s="76"/>
-      <c r="P38" s="133"/>
+      <c r="P38" s="121"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4202,16 +4202,16 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="136"/>
+      <c r="B39" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="122" t="s">
+      <c r="C39" s="126"/>
+      <c r="D39" s="86" t="s">
         <v>99</v>
       </c>
       <c r="E39" s="43"/>
-      <c r="F39" s="123" t="s">
+      <c r="F39" s="87" t="s">
         <v>107</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -4225,7 +4225,7 @@
       <c r="M39" s="62"/>
       <c r="N39" s="76"/>
       <c r="O39" s="76"/>
-      <c r="P39" s="134"/>
+      <c r="P39" s="122"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -12097,15 +12097,14 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12117,14 +12116,15 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12151,8 +12151,8 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="127"/>
+    <row r="2" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="89"/>
       <c r="C2" s="65" t="s">
         <v>42</v>
       </c>
@@ -12161,8 +12161,8 @@
       </c>
       <c r="E2" s="72"/>
     </row>
-    <row r="3" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="129" t="s">
+    <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="91" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="66" t="s">
@@ -12175,8 +12175,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="129" t="s">
+    <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="91" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -12187,8 +12187,8 @@
       </c>
       <c r="E4" s="68"/>
     </row>
-    <row r="5" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="129" t="s">
+    <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="91" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="66" t="s">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E5" s="68"/>
     </row>
-    <row r="6" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
+    <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="71" t="s">
         <v>103</v>
       </c>
@@ -12213,8 +12213,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="128" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="129" t="s">
+    <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="91" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="66" t="s">

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -11,7 +11,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -639,18 +639,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_ht_</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_ht_</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 페이지 연결, 회원 가입 연결, 펀딩 하는 방법 확인
 실시간 베스트 프로젝트(모금액 기준) 노출, 다가올 펀딩 미리보기 노출, 신규 펀딩
 프로젝트 홍보를 위한 스크롤링 배너
@@ -1185,10 +1173,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_ht_</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 신고 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1203,6 +1187,58 @@
   </si>
   <si>
     <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_best_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_category_menu
+user_w_ht_category_main
+user_w_ht_projects_detail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_previous_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_upcoming_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_ht_statistics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_ht_payment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_category_menu
+user_m_ht_category_main
+user_m_ht_projects_detail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_best_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_previous_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_upcoming_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_report</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2190,6 +2226,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2208,109 +2337,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2528,10 +2564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2540,13 +2577,14 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="92.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="16.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="16" width="20" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
@@ -2586,22 +2624,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2623,20 +2661,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2762,44 +2800,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="105" t="s">
+      <c r="P7" s="110" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2820,13 +2858,13 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+    <row r="8" spans="1:33" ht="27.75" hidden="1" customHeight="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2834,11 +2872,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2857,21 +2895,21 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="131"/>
-      <c r="B9" s="116" t="s">
+    <row r="9" spans="1:33" ht="48" hidden="1">
+      <c r="A9" s="101"/>
+      <c r="B9" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -2881,7 +2919,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
@@ -2902,23 +2940,23 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
+    <row r="10" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A10" s="102"/>
+      <c r="B10" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2947,21 +2985,21 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+    <row r="11" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2990,21 +3028,21 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+    <row r="12" spans="1:33" ht="60" hidden="1">
+      <c r="A12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3033,23 +3071,23 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+    <row r="13" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A13" s="102"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -3078,23 +3116,23 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
+    <row r="14" spans="1:33" ht="48" hidden="1">
+      <c r="A14" s="102"/>
+      <c r="B14" s="115" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3123,9 +3161,9 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+    <row r="15" spans="1:33" ht="48" hidden="1">
+      <c r="A15" s="102"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
@@ -3134,10 +3172,10 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -3167,22 +3205,22 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="115" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3192,10 +3230,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3216,8 +3254,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3226,10 +3264,10 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="43"/>
@@ -3239,10 +3277,10 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="5" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3263,20 +3301,20 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="43"/>
@@ -3286,10 +3324,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3310,20 +3348,20 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="43"/>
@@ -3333,10 +3371,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3357,22 +3395,22 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3382,10 +3420,10 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3406,22 +3444,22 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3450,23 +3488,23 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
+    <row r="22" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A22" s="102"/>
+      <c r="B22" s="112" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3495,9 +3533,9 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+    <row r="23" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A23" s="102"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
@@ -3506,10 +3544,10 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -3538,9 +3576,9 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
+    <row r="24" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A24" s="102"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
@@ -3549,10 +3587,10 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3581,21 +3619,21 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="111"/>
+    <row r="25" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A25" s="102"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="44" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -3624,8 +3662,8 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
+    <row r="26" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickBot="1">
+      <c r="A26" s="103"/>
       <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
@@ -3637,10 +3675,10 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -3650,7 +3688,7 @@
       <c r="M26" s="28"/>
       <c r="N26" s="78"/>
       <c r="O26" s="79" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P26" s="79"/>
       <c r="Q26" s="1"/>
@@ -3671,23 +3709,23 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
+    <row r="27" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickTop="1">
+      <c r="A27" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="130"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
@@ -3716,23 +3754,23 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
+    <row r="28" spans="1:33" ht="60" hidden="1">
+      <c r="A28" s="105"/>
+      <c r="B28" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -3761,21 +3799,21 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
+    <row r="29" spans="1:33" ht="60" hidden="1">
+      <c r="A29" s="105"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3804,23 +3842,23 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
+    <row r="30" spans="1:33" ht="48" hidden="1">
+      <c r="A30" s="105"/>
+      <c r="B30" s="97" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3849,21 +3887,21 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+    <row r="31" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A31" s="105"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3893,7 +3931,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="19" t="s">
         <v>20</v>
       </c>
@@ -3905,10 +3943,10 @@
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
@@ -3918,7 +3956,7 @@
       <c r="M32" s="84"/>
       <c r="N32" s="16"/>
       <c r="O32" s="5" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="P32" s="121"/>
       <c r="Q32" s="1"/>
@@ -3939,23 +3977,23 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
+    <row r="33" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A33" s="105"/>
+      <c r="B33" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -3984,9 +4022,9 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+    <row r="34" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A34" s="105"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
@@ -3995,10 +4033,10 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -4027,9 +4065,9 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
+    <row r="35" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A35" s="105"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="16" t="s">
         <v>63</v>
       </c>
@@ -4038,10 +4076,10 @@
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -4070,9 +4108,9 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A36" s="105"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="16" t="s">
         <v>71</v>
       </c>
@@ -4081,10 +4119,10 @@
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="87" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
@@ -4114,20 +4152,20 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="123" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="124"/>
       <c r="D37" s="85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
@@ -4137,7 +4175,7 @@
       <c r="M37" s="61"/>
       <c r="N37" s="75"/>
       <c r="O37" s="5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="P37" s="121"/>
       <c r="Q37" s="1"/>
@@ -4158,8 +4196,8 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="135"/>
+    <row r="38" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A38" s="105"/>
       <c r="B38" s="125" t="s">
         <v>73</v>
       </c>
@@ -4169,10 +4207,10 @@
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="87" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -4201,21 +4239,21 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="136"/>
+    <row r="39" spans="1:33" ht="42.75" hidden="1" customHeight="1">
+      <c r="A39" s="106"/>
       <c r="B39" s="125" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="126"/>
       <c r="D39" s="86" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="87" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -4343,7 +4381,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G43" s="66" t="s">
         <v>37</v>
@@ -4385,7 +4423,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G44" s="66" t="s">
         <v>38</v>
@@ -4423,7 +4461,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G45" s="66" t="s">
         <v>39</v>
@@ -4462,13 +4500,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G46" s="66" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I46" s="68" t="s">
         <v>48</v>
@@ -4503,7 +4541,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G47" s="66" t="s">
         <v>41</v>
@@ -12091,20 +12129,26 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P32">
+  <autoFilter ref="A7:P39">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="현태"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12116,15 +12160,14 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12163,7 +12206,7 @@
     </row>
     <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>37</v>
@@ -12177,7 +12220,7 @@
     </row>
     <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B4" s="91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>38</v>
@@ -12189,7 +12232,7 @@
     </row>
     <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B5" s="91" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>39</v>
@@ -12201,13 +12244,13 @@
     </row>
     <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>20</v>
@@ -12215,7 +12258,7 @@
     </row>
     <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B7" s="91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="66" t="s">
         <v>24</v>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -669,12 +669,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리별로 프로젝트를 조회
-- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
-- 프로젝트 상세페이지로 연결</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1190,13 +1184,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>user_w_ht_category_menu
+user_w_ht_category_main
+user_w_ht_projects_detail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_category_menu
+user_m_ht_category_main
+user_m_ht_projects_detail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>user_w_ht_best_projects</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_ht_category_menu
-user_w_ht_category_main
-user_w_ht_projects_detail</t>
+    <t>user_m_ht_best_projects</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1204,11 +1208,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>user_m_ht_previous_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>user_w_ht_upcoming_projects</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>user_m_ht_upcoming_projects</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>user_w_ht_report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_report</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1220,25 +1236,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_m_ht_category_menu
-user_m_ht_category_main
-user_m_ht_projects_detail</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_best_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_previous_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_upcoming_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_report</t>
+    <t>카테고리별로 프로젝트를 조회
+- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
+- 프로젝트 상세페이지로 연결</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2226,9 +2226,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2257,96 +2347,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2567,8 +2567,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2584,7 +2584,7 @@
     <col min="13" max="13" width="44" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
@@ -2624,22 +2624,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2661,20 +2661,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="132"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2800,44 +2800,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="133" t="s">
+      <c r="N7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="105" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2859,12 +2859,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" hidden="1" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="96"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2872,11 +2872,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2896,20 +2896,20 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48" hidden="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="118" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="58" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -2919,7 +2919,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
@@ -2941,8 +2941,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="132"/>
+      <c r="B10" s="118" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2953,10 +2953,10 @@
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2986,8 +2986,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
@@ -2996,10 +2996,10 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3029,8 +3029,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60" hidden="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
@@ -3039,10 +3039,10 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3072,22 +3072,22 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -3117,8 +3117,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48" hidden="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="115" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3129,10 +3129,10 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3162,8 +3162,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48" hidden="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
@@ -3172,10 +3172,10 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -3205,22 +3205,22 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="115" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3230,10 +3230,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3254,8 +3254,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="117"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3264,10 +3264,10 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="43"/>
@@ -3277,10 +3277,10 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3301,20 +3301,20 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="117"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="43"/>
@@ -3324,10 +3324,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3348,20 +3348,20 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="43"/>
@@ -3371,10 +3371,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3395,22 +3395,22 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3420,10 +3420,10 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3444,22 +3444,22 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3489,22 +3489,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="112" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="109" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3534,8 +3534,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="113"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
@@ -3544,10 +3544,10 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -3577,8 +3577,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
@@ -3587,10 +3587,10 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3620,20 +3620,20 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="114"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="44" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -3663,7 +3663,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A26" s="103"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
@@ -3675,10 +3675,10 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -3688,7 +3688,7 @@
       <c r="M26" s="28"/>
       <c r="N26" s="78"/>
       <c r="O26" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P26" s="79"/>
       <c r="Q26" s="1"/>
@@ -3710,22 +3710,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickTop="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="100"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
@@ -3755,22 +3755,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="60" hidden="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="108" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="115" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -3800,20 +3800,20 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60" hidden="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3843,22 +3843,22 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="48" hidden="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="97" t="s">
+      <c r="A30" s="135"/>
+      <c r="B30" s="127" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3888,20 +3888,20 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3931,7 +3931,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="105"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="19" t="s">
         <v>20</v>
       </c>
@@ -3943,10 +3943,10 @@
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
@@ -3956,7 +3956,7 @@
       <c r="M32" s="84"/>
       <c r="N32" s="16"/>
       <c r="O32" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P32" s="121"/>
       <c r="Q32" s="1"/>
@@ -3978,22 +3978,22 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="135"/>
+      <c r="B33" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>92</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>93</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -4023,8 +4023,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
@@ -4033,10 +4033,10 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -4066,8 +4066,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="16" t="s">
         <v>63</v>
       </c>
@@ -4076,10 +4076,10 @@
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -4109,8 +4109,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="109"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="16" t="s">
         <v>71</v>
       </c>
@@ -4119,10 +4119,10 @@
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
@@ -4152,20 +4152,20 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="105"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="123" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="124"/>
       <c r="D37" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
@@ -4175,7 +4175,7 @@
       <c r="M37" s="61"/>
       <c r="N37" s="75"/>
       <c r="O37" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P37" s="121"/>
       <c r="Q37" s="1"/>
@@ -4197,7 +4197,7 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A38" s="105"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="125" t="s">
         <v>73</v>
       </c>
@@ -4207,10 +4207,10 @@
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -4240,20 +4240,20 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A39" s="106"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="125" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="126"/>
       <c r="D39" s="86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -4381,7 +4381,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="66" t="s">
         <v>37</v>
@@ -4423,7 +4423,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="66" t="s">
         <v>38</v>
@@ -4461,7 +4461,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" s="66" t="s">
         <v>39</v>
@@ -4500,13 +4500,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G46" s="66" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I46" s="68" t="s">
         <v>48</v>
@@ -4541,7 +4541,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G47" s="66" t="s">
         <v>41</v>
@@ -12140,15 +12140,14 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12160,14 +12159,15 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12206,7 +12206,7 @@
     </row>
     <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>37</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B4" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>38</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B5" s="91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>39</v>
@@ -12244,13 +12244,13 @@
     </row>
     <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>20</v>
@@ -12258,7 +12258,7 @@
     </row>
     <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B7" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="66" t="s">
         <v>24</v>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -2226,6 +2226,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,109 +2337,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2567,8 +2567,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:P39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2624,22 +2624,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2661,20 +2661,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2800,44 +2800,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="105" t="s">
+      <c r="P7" s="110" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2859,12 +2859,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" hidden="1" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2872,11 +2872,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2896,11 +2896,11 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48" hidden="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="58" t="s">
         <v>78</v>
       </c>
@@ -2941,8 +2941,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2986,8 +2986,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
@@ -3029,8 +3029,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60" hidden="1">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
@@ -3072,8 +3072,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
@@ -3117,8 +3117,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48" hidden="1">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="115" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3162,8 +3162,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48" hidden="1">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
@@ -3205,8 +3205,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="115" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3254,8 +3254,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3301,8 +3301,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
@@ -3395,8 +3395,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="15" t="s">
         <v>113</v>
       </c>
@@ -3444,8 +3444,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
@@ -3489,8 +3489,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="112" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3534,8 +3534,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
@@ -3577,8 +3577,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
@@ -3620,8 +3620,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="44" t="s">
         <v>64</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
@@ -3710,13 +3710,13 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="130"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="59" t="s">
         <v>29</v>
       </c>
@@ -3755,8 +3755,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="60" hidden="1">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
+      <c r="A28" s="105"/>
+      <c r="B28" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3800,8 +3800,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60" hidden="1">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="16" t="s">
         <v>67</v>
       </c>
@@ -3843,8 +3843,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="48" hidden="1">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="97" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -3888,8 +3888,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="19" t="s">
         <v>20</v>
       </c>
@@ -3978,8 +3978,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
+      <c r="A33" s="105"/>
+      <c r="B33" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -4023,8 +4023,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
@@ -4066,8 +4066,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="16" t="s">
         <v>63</v>
       </c>
@@ -4109,8 +4109,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="16" t="s">
         <v>71</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="123" t="s">
         <v>72</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A38" s="135"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="125" t="s">
         <v>73</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A39" s="136"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="125" t="s">
         <v>74</v>
       </c>
@@ -12140,14 +12140,15 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12159,15 +12160,14 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -2226,9 +2226,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2257,96 +2347,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2564,12 +2564,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2577,9 +2574,9 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="92.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
@@ -2624,22 +2621,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2661,20 +2658,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="132"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2800,44 +2797,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="133" t="s">
+      <c r="N7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="105" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2858,13 +2855,13 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" hidden="1" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="96"/>
+    <row r="8" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2872,11 +2869,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2895,12 +2892,12 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="48" hidden="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="118" t="s">
+    <row r="9" spans="1:33" ht="48">
+      <c r="A9" s="131"/>
+      <c r="B9" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="58" t="s">
         <v>78</v>
       </c>
@@ -2940,9 +2937,9 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="107" t="s">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A10" s="132"/>
+      <c r="B10" s="118" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2985,9 +2982,9 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="108"/>
+    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A11" s="132"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
@@ -3028,9 +3025,9 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="60" hidden="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="108"/>
+    <row r="12" spans="1:33" ht="60">
+      <c r="A12" s="132"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
@@ -3071,9 +3068,9 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="109"/>
+    <row r="13" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A13" s="132"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
@@ -3116,9 +3113,9 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="48" hidden="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="1:33" ht="48">
+      <c r="A14" s="132"/>
+      <c r="B14" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3161,9 +3158,9 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="48" hidden="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="116"/>
+    <row r="15" spans="1:33" ht="48">
+      <c r="A15" s="132"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
@@ -3205,8 +3202,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="115" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3254,8 +3251,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="117"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3301,8 +3298,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="117"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
@@ -3348,8 +3345,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
@@ -3395,8 +3392,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="15" t="s">
         <v>113</v>
       </c>
@@ -3444,8 +3441,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
@@ -3488,9 +3485,9 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="112" t="s">
+    <row r="22" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A22" s="132"/>
+      <c r="B22" s="109" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3533,9 +3530,9 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="113"/>
+    <row r="23" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A23" s="132"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
@@ -3576,9 +3573,9 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="113"/>
+    <row r="24" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A24" s="132"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
@@ -3619,9 +3616,9 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="114"/>
+    <row r="25" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A25" s="132"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="44" t="s">
         <v>64</v>
       </c>
@@ -3662,8 +3659,8 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A26" s="103"/>
+    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A26" s="133"/>
       <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
@@ -3709,14 +3706,14 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickTop="1">
-      <c r="A27" s="104" t="s">
+    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
+      <c r="A27" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="100"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="59" t="s">
         <v>29</v>
       </c>
@@ -3754,9 +3751,9 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="60" hidden="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="108" t="s">
+    <row r="28" spans="1:33" ht="60">
+      <c r="A28" s="135"/>
+      <c r="B28" s="115" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3799,9 +3796,9 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="60" hidden="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="108"/>
+    <row r="29" spans="1:33" ht="60">
+      <c r="A29" s="135"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="16" t="s">
         <v>67</v>
       </c>
@@ -3842,9 +3839,9 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48" hidden="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="97" t="s">
+    <row r="30" spans="1:33" ht="48">
+      <c r="A30" s="135"/>
+      <c r="B30" s="127" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -3887,9 +3884,9 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="98"/>
+    <row r="31" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A31" s="135"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
@@ -3931,7 +3928,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="105"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="19" t="s">
         <v>20</v>
       </c>
@@ -3977,9 +3974,9 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="107" t="s">
+    <row r="33" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A33" s="135"/>
+      <c r="B33" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -4022,9 +4019,9 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="108"/>
+    <row r="34" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A34" s="135"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
@@ -4065,9 +4062,9 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="108"/>
+    <row r="35" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A35" s="135"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="16" t="s">
         <v>63</v>
       </c>
@@ -4108,9 +4105,9 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="109"/>
+    <row r="36" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A36" s="135"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="16" t="s">
         <v>71</v>
       </c>
@@ -4152,7 +4149,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="105"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="123" t="s">
         <v>72</v>
       </c>
@@ -4196,8 +4193,8 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A38" s="105"/>
+    <row r="38" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A38" s="135"/>
       <c r="B38" s="125" t="s">
         <v>73</v>
       </c>
@@ -4239,8 +4236,8 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A39" s="106"/>
+    <row r="39" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A39" s="136"/>
       <c r="B39" s="125" t="s">
         <v>74</v>
       </c>
@@ -12130,25 +12127,19 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A7:P39">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="현태"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12160,14 +12151,15 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -11,9 +11,9 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$41</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mi6DiWTCXz4A8VU66IOZAmpu+7wtg=="/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="137">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -509,18 +509,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>베스트 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나간 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가올 펀딩 미리 보기 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 프로젝트 등록 (-)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -627,10 +615,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리별 프로젝트 확인 (1+1+1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>화면코드(WEB)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -651,14 +635,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화)
-펀딩 한 프로젝트 관리 페이지
-관심 등록 프로젝트 관리 페이지
-회원 정보 변경 페이지 연결
-예치금 관리 페이지 (예치금 충전, 조회)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일 사업자 등록번호 입력, 관심 카테고리 등록, 계좌 정보
 소셜 로그인을 위한 회원 가입 창으로 연결</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -669,17 +645,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정
 관심프로젝트로 등록한 프로젝트에는 프로젝트 제목 옆에 별표 표시</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
-- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -707,10 +674,6 @@
 프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
 승인/보류/승인거절 버튼
 알림 보내기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1031,11 +994,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
-근소한 차이로 목표금액 달성하지 못한 프로젝트 노출</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>불량 프로젝트 신고 (제목과 신고 내용, 증거자료), 장난식으로 등록된 프로젝트 포함</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1241,6 +1199,123 @@
 - 프로젝트 상세페이지로 연결</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>베스트 프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나간 프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가올 펀딩 미리 보기 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 프로젝트 관리(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 접수 된 프로젝트의 신고내용 확인
+신고 처리를 위한 버튼 - 반려처리, 프로젝트 삭제, 프로젝트 제제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
+근소한 차이로 목표금액 달성하지 못한 프로젝트 노출
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세 메인 화면 (1+1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별로 프로젝트를 조회
+- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
+- 카테고리별 베스트 프로젝트, 진행중인 프로젝트, 지나간 프로젝트, 다가올 프로젝트
+프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
+- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 수정(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 중 현재 진행 중인 프로젝트, 다가올 프로젝트 내용 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>제작 프로젝트 관리 페이지 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트 등록 승인시 메이커 회원 자격 획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 자격 획득 전 카테고리 비활성화, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+펀딩 한 프로젝트 관리 페이지
+관심 등록 프로젝트 관리 페이지
+회원 정보 변경 페이지 연결
+예치금 관리 페이지 (예치금 충전, 조회)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1249,7 +1324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1334,8 +1409,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,8 +1436,20 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1937,11 +2031,26 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2015,9 +2124,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2226,6 +2332,90 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,110 +2434,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2564,9 +2697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1002"/>
+  <dimension ref="A1:AG1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2621,22 +2756,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2658,20 +2793,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="128"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2797,45 +2932,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="105" t="s">
-        <v>77</v>
+      <c r="O7" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="109" t="s">
+        <v>73</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2856,12 +2991,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2869,11 +3004,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2893,30 +3028,30 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="131"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="58" t="s">
-        <v>78</v>
+      <c r="C9" s="115"/>
+      <c r="D9" s="57" t="s">
+        <v>74</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="33"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
@@ -2938,29 +3073,29 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="58" t="s">
-        <v>79</v>
+      <c r="D10" s="57" t="s">
+        <v>75</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="33"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -2983,25 +3118,25 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>81</v>
+      <c r="D11" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="23"/>
       <c r="M11" s="10"/>
       <c r="N11" s="7"/>
@@ -3025,28 +3160,28 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+    <row r="12" spans="1:33" ht="72">
+      <c r="A12" s="101"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>80</v>
+      <c r="D12" s="52" t="s">
+        <v>136</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -3069,32 +3204,32 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>109</v>
+      <c r="D13" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3114,27 +3249,27 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="113" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="53" t="s">
-        <v>82</v>
+      <c r="D14" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="23"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -3159,25 +3294,25 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="23"/>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
@@ -3202,36 +3337,30 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>129</v>
+      <c r="A16" s="101"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="138" t="s">
+        <v>135</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3250,35 +3379,33 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>26</v>
+    <row r="17" spans="1:33" ht="60">
+      <c r="A17" s="101"/>
+      <c r="B17" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="138" t="s">
+        <v>132</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -3298,33 +3425,33 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>96</v>
+      <c r="A18" s="101"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="138" t="s">
+        <v>120</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="23"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3345,33 +3472,33 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>83</v>
+      <c r="A19" s="101"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="138" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="23"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3392,35 +3519,33 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="G20" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="23"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3441,32 +3566,34 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>106</v>
+      <c r="A21" s="101"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
+      <c r="O21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3486,32 +3613,36 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>90</v>
+      <c r="A22" s="101"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12" t="s">
-        <v>108</v>
+        <v>88</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="32"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="23"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="O22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3531,30 +3662,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="10"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3574,30 +3707,30 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="32"/>
+      <c r="K24" s="31"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3617,30 +3750,30 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="132"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="111"/>
-      <c r="C25" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>86</v>
+      <c r="C25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3659,35 +3792,31 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
-      <c r="B26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28" t="s">
-        <v>103</v>
+    <row r="26" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A26" s="101"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="79"/>
+        <v>107</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3706,33 +3835,35 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="129" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="120"/>
+    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A27" s="102"/>
+      <c r="B27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" s="78"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3751,33 +3882,33 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>66</v>
-      </c>
+    <row r="28" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
+      <c r="A28" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="99"/>
       <c r="D28" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46" t="s">
+        <v>94</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="121"/>
+        <v>107</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="116"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3797,30 +3928,32 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>104</v>
+      <c r="A29" s="104"/>
+      <c r="B29" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="121"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="117"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3839,33 +3972,31 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>89</v>
+    <row r="30" spans="1:33" ht="60">
+      <c r="A30" s="104"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="144" t="s">
+        <v>81</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="35"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="121"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="117"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3884,31 +4015,33 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+    <row r="31" spans="1:33" ht="48">
+      <c r="A31" s="104"/>
+      <c r="B31" s="96" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>93</v>
+        <v>65</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="121"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="117"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3928,34 +4061,30 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
-      <c r="B32" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81" t="s">
-        <v>106</v>
+      <c r="A32" s="104"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="140" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P32" s="121"/>
+        <v>126</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="117"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3975,32 +4104,30 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
-        <v>108</v>
+      <c r="A33" s="104"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="121"/>
+        <v>107</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="117"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4020,30 +4147,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="C34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
-        <v>108</v>
+        <v>67</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80" t="s">
+        <v>97</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="121"/>
+        <v>107</v>
+      </c>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P34" s="117"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4063,30 +4194,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>108</v>
+      <c r="A35" s="104"/>
+      <c r="B35" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="121"/>
+        <v>107</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="117"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4106,30 +4239,30 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="87" t="s">
-        <v>108</v>
+        <v>59</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
+        <v>107</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="121"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="117"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4149,32 +4282,30 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
-      <c r="B37" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="87" t="s">
-        <v>106</v>
+      <c r="A37" s="104"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P37" s="121"/>
+        <v>107</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="117"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4194,30 +4325,30 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="135"/>
-      <c r="B38" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="87" t="s">
-        <v>103</v>
+      <c r="A38" s="104"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="86" t="s">
+        <v>99</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="121"/>
+        <v>107</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="117"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4237,30 +4368,32 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="136"/>
-      <c r="B39" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="87" t="s">
-        <v>103</v>
+      <c r="A39" s="104"/>
+      <c r="B39" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="86" t="s">
+        <v>97</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="122"/>
+        <v>107</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" s="117"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4279,17 +4412,31 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+    <row r="40" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A40" s="104"/>
+      <c r="B40" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="122"/>
+      <c r="D40" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="117"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4308,17 +4455,31 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+    <row r="41" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A41" s="105"/>
+      <c r="B41" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="122"/>
+      <c r="D41" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="118"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4337,20 +4498,14 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="46"/>
-      <c r="M42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4372,27 +4527,14 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="24">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4414,22 +4556,19 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
+    <row r="44" spans="1:33" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="68"/>
-      <c r="L44" s="11"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="45"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4452,23 +4591,26 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    <row r="45" spans="1:33" ht="24">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
+      <c r="F45" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4496,20 +4638,17 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
+      <c r="F46" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="67"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4537,16 +4676,16 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" s="68"/>
+      <c r="F47" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="67"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4576,11 +4715,18 @@
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="F48" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="67" t="s">
+        <v>48</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1"/>
@@ -4610,11 +4756,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="F49" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="67"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4649,9 +4800,8 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -4679,13 +4829,13 @@
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -4713,6 +4863,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4748,9 +4899,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4784,9 +4933,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -4821,7 +4968,7 @@
       <c r="D55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4855,10 +5002,9 @@
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -4892,10 +5038,9 @@
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -4931,7 +5076,9 @@
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -4966,7 +5113,9 @@
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -11364,8 +11513,76 @@
       <c r="AF241" s="1"/>
       <c r="AG241" s="1"/>
     </row>
-    <row r="242" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="242" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
     <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
@@ -12125,32 +12342,15 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P39">
+  <autoFilter ref="A7:P41">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="P27:P39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -12160,6 +12360,25 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="P28:P41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12186,79 +12405,79 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="89"/>
-      <c r="C2" s="65" t="s">
+    <row r="2" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="88"/>
+      <c r="C2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="91" t="s">
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="68"/>
-    </row>
-    <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B6" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="66" t="s">
+    <row r="7" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>담당자</t>
-  </si>
-  <si>
-    <t>일정계획</t>
   </si>
   <si>
     <t>진행상황</t>
@@ -1239,6 +1236,34 @@
     <t>카테고리별로 프로젝트를 조회
 - IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
 - 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 화면설계완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt화면설계완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정계획</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_make_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_make_invest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_hj_admit_project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_hj_edit_category</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2226,6 +2251,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,109 +2362,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2566,7 +2591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2621,22 +2648,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2658,20 +2685,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2797,45 +2824,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="M7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="N7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="110" t="s">
         <v>76</v>
-      </c>
-      <c r="P7" s="105" t="s">
-        <v>77</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2856,12 +2883,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2869,11 +2896,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2893,20 +2920,20 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="131"/>
-      <c r="B9" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="117"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="119"/>
       <c r="D9" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -2916,7 +2943,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
@@ -2938,22 +2965,22 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
-        <v>16</v>
+      <c r="A10" s="102"/>
+      <c r="B10" s="107" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2983,20 +3010,20 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3026,20 +3053,20 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3069,22 +3096,22 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -3114,31 +3141,35 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
-        <v>22</v>
+      <c r="A14" s="102"/>
+      <c r="B14" s="115" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="21"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="23"/>
+      <c r="L14" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3159,29 +3190,33 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="21"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="23"/>
+      <c r="L15" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3202,22 +3237,22 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
-        <v>23</v>
+      <c r="A16" s="102"/>
+      <c r="B16" s="115" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3227,10 +3262,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3251,20 +3286,20 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="43"/>
@@ -3274,10 +3309,10 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3298,20 +3333,20 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="43"/>
@@ -3321,10 +3356,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3345,20 +3380,20 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="43"/>
@@ -3368,10 +3403,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3392,22 +3427,22 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3417,10 +3452,10 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3441,22 +3476,22 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3486,22 +3521,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
-        <v>24</v>
+      <c r="A22" s="102"/>
+      <c r="B22" s="112" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3531,20 +3566,20 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -3574,20 +3609,20 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3617,20 +3652,20 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -3660,22 +3695,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -3685,7 +3720,7 @@
       <c r="M26" s="28"/>
       <c r="N26" s="78"/>
       <c r="O26" s="79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P26" s="79"/>
       <c r="Q26" s="1"/>
@@ -3707,22 +3742,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="129" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="130"/>
+      <c r="A27" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="100"/>
       <c r="D27" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
@@ -3752,22 +3787,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
-        <v>18</v>
+      <c r="A28" s="105"/>
+      <c r="B28" s="108" t="s">
+        <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -3797,20 +3832,20 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3840,31 +3875,35 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
-        <v>19</v>
+      <c r="A30" s="105"/>
+      <c r="B30" s="97" t="s">
+        <v>18</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="21"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="41"/>
+      <c r="L30" s="41" t="s">
+        <v>130</v>
+      </c>
       <c r="M30" s="35"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="P30" s="121"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3885,29 +3924,33 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="21"/>
       <c r="K31" s="32"/>
-      <c r="L31" s="41"/>
+      <c r="L31" s="41" t="s">
+        <v>130</v>
+      </c>
       <c r="M31" s="35"/>
       <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
+      <c r="O31" s="74" t="s">
+        <v>135</v>
+      </c>
       <c r="P31" s="121"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3928,22 +3971,22 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
@@ -3953,7 +3996,7 @@
       <c r="M32" s="84"/>
       <c r="N32" s="16"/>
       <c r="O32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P32" s="121"/>
       <c r="Q32" s="1"/>
@@ -3975,22 +4018,22 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
-        <v>21</v>
+      <c r="A33" s="105"/>
+      <c r="B33" s="107" t="s">
+        <v>20</v>
       </c>
       <c r="C33" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>91</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>92</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -4020,20 +4063,20 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -4063,20 +4106,20 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -4106,20 +4149,20 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
@@ -4149,20 +4192,20 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="124"/>
       <c r="D37" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
@@ -4172,7 +4215,7 @@
       <c r="M37" s="61"/>
       <c r="N37" s="75"/>
       <c r="O37" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P37" s="121"/>
       <c r="Q37" s="1"/>
@@ -4194,20 +4237,20 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="135"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="126"/>
       <c r="D38" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -4237,20 +4280,20 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="136"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="126"/>
       <c r="D39" s="86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -4344,10 +4387,10 @@
       <c r="D42" s="1"/>
       <c r="F42" s="64"/>
       <c r="G42" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="65" t="s">
         <v>42</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>43</v>
       </c>
       <c r="I42" s="46"/>
       <c r="M42" s="1"/>
@@ -4378,16 +4421,16 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4420,13 +4463,13 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I44" s="68"/>
       <c r="L44" s="11"/>
@@ -4458,13 +4501,13 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" s="68"/>
       <c r="K45" s="1"/>
@@ -4497,16 +4540,16 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I46" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
@@ -4538,13 +4581,13 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" s="68"/>
       <c r="K47" s="1"/>
@@ -4749,7 +4792,7 @@
       <c r="D53" s="1"/>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -4785,7 +4828,7 @@
       <c r="D54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4821,7 +4864,7 @@
       <c r="D55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4858,7 +4901,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -4895,7 +4938,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -12132,14 +12175,15 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12151,15 +12195,14 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12189,74 +12232,74 @@
     <row r="2" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B2" s="89"/>
       <c r="C2" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="72"/>
     </row>
     <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B4" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="68"/>
     </row>
     <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B5" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="68"/>
     </row>
     <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
       <c r="B7" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="68"/>
     </row>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -50,9 +55,6 @@
   </si>
   <si>
     <t>진행상황</t>
-  </si>
-  <si>
-    <t>현재 이슈?</t>
   </si>
   <si>
     <t>우선순위</t>
@@ -1129,15 +1131,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_sh_</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 설계 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1314,6 +1307,65 @@
 회원 정보 변경 페이지 연결
 예치금 관리 페이지 (예치금 충전, 조회)</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_a_sh_main_1
+user_a_sh_main_2
+user_a_sh_main_3
+user_a_sh_main_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_login
+admin_w_sh_main</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_umain_silde
+admin_w_sh_umain_popup
+admin_w_sh_umain_recommend
+admin_w_sh_umain_security
+admin_w_sh_umain_reward
+admin_w_sh_usermain_new</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 이슈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_sh_main_1
+user_w_sh_main_2
+user_w_sh_main_3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1449,7 +1501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1878,17 +1930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -2050,7 +2091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2139,9 +2180,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2199,12 +2237,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2232,112 +2264,223 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2347,15 +2490,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2365,122 +2508,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2699,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2756,22 +2788,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="125"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2793,20 +2825,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="128"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2932,45 +2964,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="129" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="109" t="s">
+      <c r="O7" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="108" t="s">
         <v>72</v>
-      </c>
-      <c r="P7" s="109" t="s">
-        <v>73</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2991,24 +3023,26 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="95"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18">
+        <v>43868</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3027,33 +3061,43 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="100"/>
-      <c r="B9" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="57" t="s">
-        <v>74</v>
+    <row r="9" spans="1:33" ht="54" customHeight="1">
+      <c r="A9" s="134"/>
+      <c r="B9" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="4"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
       <c r="O9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P9" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -3073,29 +3117,29 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>75</v>
+      <c r="A10" s="135"/>
+      <c r="B10" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -3118,25 +3162,25 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="107"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>76</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="23"/>
       <c r="M11" s="10"/>
       <c r="N11" s="7"/>
@@ -3161,27 +3205,27 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="72">
-      <c r="A12" s="101"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>136</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="33"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="7"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -3204,32 +3248,32 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="33"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3249,27 +3293,27 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="101"/>
-      <c r="B14" s="113" t="s">
-        <v>22</v>
+      <c r="A14" s="135"/>
+      <c r="B14" s="126" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="23"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -3294,25 +3338,25 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="101"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="23"/>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
@@ -3337,25 +3381,25 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="138" t="s">
-        <v>135</v>
+      <c r="A16" s="135"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>132</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="23"/>
       <c r="M16" s="10"/>
       <c r="N16" s="7"/>
@@ -3380,27 +3424,27 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="60">
-      <c r="A17" s="101"/>
-      <c r="B17" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="138" t="s">
-        <v>132</v>
+      <c r="A17" s="135"/>
+      <c r="B17" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>129</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="23"/>
       <c r="M17" s="10"/>
       <c r="N17" s="7"/>
@@ -3425,33 +3469,33 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="138" t="s">
-        <v>120</v>
+      <c r="A18" s="135"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>117</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="23"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3472,33 +3516,33 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="139" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="138" t="s">
-        <v>26</v>
+      <c r="A19" s="135"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="42"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="23"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3519,33 +3563,33 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="138" t="s">
-        <v>128</v>
+      <c r="A20" s="135"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>125</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="42"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="23"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3566,33 +3610,33 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="139" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="138" t="s">
-        <v>129</v>
+      <c r="A21" s="135"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>126</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="42"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="23"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3613,35 +3657,35 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="23"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3662,32 +3706,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="101"/>
-      <c r="B23" s="135"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>102</v>
+        <v>57</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>101</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="35"/>
+      <c r="M23" s="34"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3707,25 +3751,25 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="24"/>
       <c r="M24" s="10"/>
       <c r="N24" s="7"/>
@@ -3750,25 +3794,25 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="24"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -3793,25 +3837,25 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A26" s="101"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>79</v>
+      <c r="A26" s="135"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="30"/>
       <c r="L26" s="24"/>
       <c r="M26" s="10"/>
       <c r="N26" s="7"/>
@@ -3836,34 +3880,40 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A27" s="102"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="G27" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="I27" s="28"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" s="78"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" s="72">
+        <v>3</v>
+      </c>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3882,33 +3932,43 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A28" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46" t="s">
-        <v>94</v>
+    <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
+      <c r="A28" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="133"/>
+      <c r="D28" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
+        <v>93</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="116"/>
+        <v>104</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" s="34">
+        <v>1</v>
+      </c>
+      <c r="O28" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="119"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3928,32 +3988,32 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="104"/>
-      <c r="B29" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="142" t="s">
-        <v>80</v>
+      <c r="A29" s="138"/>
+      <c r="B29" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>79</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="117"/>
+      <c r="P29" s="120"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3973,30 +4033,30 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="60">
-      <c r="A30" s="104"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="143" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="144" t="s">
-        <v>81</v>
+      <c r="A30" s="138"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>80</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="34"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="117"/>
+      <c r="P30" s="120"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4016,32 +4076,32 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="48">
-      <c r="A31" s="104"/>
-      <c r="B31" s="96" t="s">
-        <v>19</v>
+      <c r="A31" s="138"/>
+      <c r="B31" s="129" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="34"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="33"/>
       <c r="N31" s="7"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="117"/>
+      <c r="P31" s="120"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4061,30 +4121,30 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="137" t="s">
+      <c r="A32" s="138"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="94" t="s">
         <v>124</v>
-      </c>
-      <c r="D32" s="140" t="s">
-        <v>127</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="117"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="120"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4104,30 +4164,30 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="97"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="21"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="117"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="120"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4147,34 +4207,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="104"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75" t="s">
+        <v>96</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="83"/>
+        <v>104</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="78"/>
       <c r="N34" s="16"/>
       <c r="O34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="P34" s="117"/>
+        <v>115</v>
+      </c>
+      <c r="P34" s="120"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4194,32 +4254,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="69" t="s">
+      <c r="A35" s="138"/>
+      <c r="B35" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="53" t="s">
         <v>83</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>84</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="87"/>
+        <v>104</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="117"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="120"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4239,30 +4299,30 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="107"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>30</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="117"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="120"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4282,30 +4342,30 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="104"/>
-      <c r="B37" s="107"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>31</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="117"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="120"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4325,30 +4385,30 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="108"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="86" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="81" t="s">
+        <v>98</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
+        <v>104</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="117"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="120"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4368,32 +4428,32 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="104"/>
-      <c r="B39" s="119" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="86" t="s">
-        <v>97</v>
+      <c r="A39" s="138"/>
+      <c r="B39" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="123"/>
+      <c r="D39" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="74"/>
+        <v>104</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="70"/>
       <c r="O39" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="P39" s="117"/>
+        <v>116</v>
+      </c>
+      <c r="P39" s="120"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4413,30 +4473,38 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="86" t="s">
-        <v>94</v>
+      <c r="A40" s="138"/>
+      <c r="B40" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="125"/>
+      <c r="D40" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="81" t="s">
+        <v>93</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="I40" s="15"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="117"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N40" s="15">
+        <v>4</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="120"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4455,31 +4523,41 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="86" t="s">
-        <v>94</v>
+    <row r="41" spans="1:33" ht="83.25" customHeight="1">
+      <c r="A41" s="139"/>
+      <c r="B41" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="125"/>
+      <c r="D41" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="81" t="s">
+        <v>93</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="I41" s="15"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="118"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41" s="15">
+        <v>3</v>
+      </c>
+      <c r="O41" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="P41" s="121"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4561,14 +4639,14 @@
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64" t="s">
+      <c r="F44" s="59"/>
+      <c r="G44" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="45"/>
+      <c r="I44" s="44"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4596,17 +4674,17 @@
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="G45" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="66" t="s">
-        <v>49</v>
+      <c r="F45" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>48</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4638,16 +4716,16 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" s="67"/>
+      <c r="F46" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="63"/>
       <c r="L46" s="11"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -4676,16 +4754,16 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="67"/>
+      <c r="F47" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="63"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4715,17 +4793,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="F48" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="I48" s="67" t="s">
-        <v>48</v>
+      <c r="F48" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>47</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
@@ -4756,16 +4834,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="F49" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" s="67"/>
+      <c r="F49" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="63"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4968,7 +5046,7 @@
       <c r="D55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -5004,7 +5082,7 @@
       <c r="D56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -5040,7 +5118,7 @@
       <c r="D57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5077,7 +5155,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -5114,7 +5192,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -12351,15 +12429,14 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B29:B30"/>
@@ -12371,14 +12448,15 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12405,79 +12483,79 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="88"/>
-      <c r="C2" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="71"/>
-    </row>
-    <row r="3" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="90" t="s">
+    <row r="2" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="83"/>
+      <c r="C2" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="65" t="s">
+      <c r="C6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D6" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="67"/>
-    </row>
-    <row r="6" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B6" s="70" t="s">
+    </row>
+    <row r="7" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="67" t="s">
+      <c r="C7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" s="89" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="67"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EzenCrowdFunding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -678,11 +683,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
-- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>회사 메인 컨셉 소개 및 펀딩 방법 소개 (투자하는 방법, 펀딩 반는 방법, 회원 자격, 투자후 수익/리워드 프로세스)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -707,18 +707,6 @@
 프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
 승인/보류/승인거절 버튼
 알림 보내기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>금지어 설정, 이용제한 계정 설정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1941,7 +1929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2148,84 +2136,171 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,109 +2319,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2564,9 +2546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1002"/>
+  <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2621,22 +2605,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="127"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2658,20 +2642,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2797,44 +2781,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="105" t="s">
+      <c r="P7" s="108" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2856,12 +2840,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2869,11 +2853,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2893,7 +2877,9 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="131"/>
+      <c r="A9" s="99" t="s">
+        <v>42</v>
+      </c>
       <c r="B9" s="116" t="s">
         <v>57</v>
       </c>
@@ -2903,10 +2889,10 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -2916,7 +2902,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
@@ -2938,8 +2924,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="105" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2950,10 +2936,10 @@
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2983,8 +2969,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
@@ -2993,10 +2979,10 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3026,8 +3012,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
@@ -3036,10 +3022,10 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3069,22 +3055,22 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -3093,8 +3079,8 @@
       <c r="L13" s="23"/>
       <c r="M13" s="34"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3114,8 +3100,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="113" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3126,10 +3112,10 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3159,8 +3145,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
@@ -3169,10 +3155,10 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -3202,22 +3188,22 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="113" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3227,10 +3213,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3251,8 +3237,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3261,10 +3247,10 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="43"/>
@@ -3274,10 +3260,10 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3298,20 +3284,20 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="43"/>
@@ -3321,10 +3307,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3345,8 +3331,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
@@ -3355,10 +3341,10 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="43"/>
@@ -3368,10 +3354,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3392,22 +3378,22 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3417,10 +3403,10 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3441,22 +3427,22 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="92" t="s">
-        <v>111</v>
+      <c r="E21" s="90" t="s">
+        <v>107</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3465,8 +3451,8 @@
       <c r="L21" s="23"/>
       <c r="M21" s="36"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3486,32 +3472,32 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="110" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3531,30 +3517,30 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="21"/>
       <c r="K23" s="32"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3574,30 +3560,30 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>28</v>
+      <c r="A24" s="100"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="21"/>
       <c r="K24" s="32"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3616,31 +3602,35 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12" t="s">
-        <v>108</v>
+    <row r="25" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A25" s="101"/>
+      <c r="B25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="78"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3659,35 +3649,33 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
-      <c r="B26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28" t="s">
-        <v>103</v>
+    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
+      <c r="A26" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="79"/>
+        <v>112</v>
+      </c>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="118"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3706,33 +3694,33 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="129" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47" t="s">
-        <v>103</v>
+    <row r="27" spans="1:33" ht="60">
+      <c r="A27" s="103"/>
+      <c r="B27" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="120"/>
+        <v>112</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="119"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3752,32 +3740,30 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="58" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
-        <v>104</v>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
+        <v>112</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="121"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="119"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3796,21 +3782,23 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
+    <row r="29" spans="1:33" ht="48">
+      <c r="A29" s="103"/>
+      <c r="B29" s="95" t="s">
+        <v>19</v>
+      </c>
       <c r="C29" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="56" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3819,8 +3807,8 @@
       <c r="L29" s="41"/>
       <c r="M29" s="35"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="121"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="119"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3839,23 +3827,21 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
-        <v>19</v>
-      </c>
+    <row r="30" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A30" s="103"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="54" t="s">
         <v>89</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3863,9 +3849,9 @@
       <c r="K30" s="32"/>
       <c r="L30" s="41"/>
       <c r="M30" s="35"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="121"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="119"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3885,30 +3871,34 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="C31" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>70</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80" t="s">
+        <v>102</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="82"/>
       <c r="K31" s="32"/>
       <c r="L31" s="41"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="121"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" s="119"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3928,34 +3918,32 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
-      <c r="B32" s="19" t="s">
-        <v>20</v>
+      <c r="A32" s="103"/>
+      <c r="B32" s="105" t="s">
+        <v>21</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81" t="s">
-        <v>106</v>
+        <v>62</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P32" s="121"/>
+        <v>112</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="119"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3975,32 +3963,30 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>91</v>
+      <c r="A33" s="103"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="121"/>
+        <v>112</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="119"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4020,30 +4006,30 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
-        <v>108</v>
+        <v>33</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="86" t="s">
+        <v>104</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+        <v>112</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="16"/>
       <c r="M34" s="61"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="121"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="119"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4063,30 +4049,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>108</v>
+      <c r="A35" s="103"/>
+      <c r="B35" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="122"/>
+      <c r="D35" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="86" t="s">
+        <v>102</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+        <v>112</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
       <c r="M35" s="61"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="121"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="119"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4106,30 +4094,30 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>33</v>
+      <c r="A36" s="103"/>
+      <c r="B36" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="124"/>
+      <c r="D36" s="60" t="s">
+        <v>34</v>
       </c>
       <c r="E36" s="43"/>
-      <c r="F36" s="87" t="s">
-        <v>108</v>
+      <c r="F36" s="86" t="s">
+        <v>99</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+        <v>112</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="61"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="62"/>
       <c r="N36" s="75"/>
       <c r="O36" s="75"/>
-      <c r="P36" s="121"/>
+      <c r="P36" s="119"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4149,32 +4137,30 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="123" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="124"/>
       <c r="D37" s="85" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E37" s="43"/>
-      <c r="F37" s="87" t="s">
-        <v>106</v>
+      <c r="F37" s="86" t="s">
+        <v>99</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
+        <v>112</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
       <c r="L37" s="43"/>
-      <c r="M37" s="61"/>
+      <c r="M37" s="62"/>
       <c r="N37" s="75"/>
-      <c r="O37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P37" s="121"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="120"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4193,31 +4179,17 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="135"/>
-      <c r="B38" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="121"/>
+    <row r="38" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4236,31 +4208,17 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="136"/>
-      <c r="B39" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="122"/>
+    <row r="39" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4279,14 +4237,20 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
+    <row r="40" spans="1:33" ht="12.75">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="M40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4308,14 +4272,27 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
+    <row r="41" spans="1:33" ht="24">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="M41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4337,19 +4314,22 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="46"/>
+      <c r="F42" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="68"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -4372,7 +4352,7 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="24">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -4381,17 +4361,14 @@
         <v>98</v>
       </c>
       <c r="G43" s="66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="I43" s="68"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -4419,17 +4396,20 @@
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="69" t="s">
-        <v>101</v>
+      <c r="F44" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="G44" s="66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="68"/>
-      <c r="L44" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="I44" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4458,13 +4438,13 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="69" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" s="68"/>
       <c r="K45" s="1"/>
@@ -4496,18 +4476,11 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="68" t="s">
-        <v>48</v>
-      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1"/>
@@ -4537,16 +4510,11 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" s="68"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4581,8 +4549,9 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4610,13 +4579,13 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -4644,7 +4613,6 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4680,7 +4648,9 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -4714,7 +4684,9 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -4749,7 +4721,7 @@
       <c r="D53" s="1"/>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -4783,9 +4755,10 @@
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4819,9 +4792,10 @@
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4857,9 +4831,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -4894,9 +4866,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -11294,91 +11264,23 @@
       <c r="AF239" s="1"/>
       <c r="AG239" s="1"/>
     </row>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A240" s="1"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
-      <c r="S240" s="1"/>
-      <c r="T240" s="1"/>
-      <c r="U240" s="1"/>
-      <c r="V240" s="1"/>
-      <c r="W240" s="1"/>
-      <c r="X240" s="1"/>
-      <c r="Y240" s="1"/>
-      <c r="Z240" s="1"/>
-      <c r="AA240" s="1"/>
-      <c r="AB240" s="1"/>
-      <c r="AC240" s="1"/>
-      <c r="AD240" s="1"/>
-      <c r="AE240" s="1"/>
-      <c r="AF240" s="1"/>
-      <c r="AG240" s="1"/>
-    </row>
-    <row r="241" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A241" s="1"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="1"/>
-      <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
-      <c r="R241" s="1"/>
-      <c r="S241" s="1"/>
-      <c r="T241" s="1"/>
-      <c r="U241" s="1"/>
-      <c r="V241" s="1"/>
-      <c r="W241" s="1"/>
-      <c r="X241" s="1"/>
-      <c r="Y241" s="1"/>
-      <c r="Z241" s="1"/>
-      <c r="AA241" s="1"/>
-      <c r="AB241" s="1"/>
-      <c r="AC241" s="1"/>
-      <c r="AD241" s="1"/>
-      <c r="AE241" s="1"/>
-      <c r="AF241" s="1"/>
-      <c r="AG241" s="1"/>
-    </row>
-    <row r="242" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="247" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="248" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="249" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="250" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="251" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="252" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="253" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="254" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="255" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="256" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -12123,34 +12025,13 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P39">
+  <autoFilter ref="A7:P37">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="P27:P39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -12160,6 +12041,25 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="P26:P37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:A25"/>
+    <mergeCell ref="A26:A37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12186,19 +12086,19 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="89"/>
+    <row r="2" spans="2:5" s="88" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="87"/>
       <c r="C2" s="65" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="91" t="s">
-        <v>98</v>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="2:5" s="88" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="89" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>37</v>
@@ -12210,9 +12110,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="91" t="s">
-        <v>101</v>
+    <row r="4" spans="2:5" s="88" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="89" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>38</v>
@@ -12222,9 +12122,9 @@
       </c>
       <c r="E4" s="68"/>
     </row>
-    <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="91" t="s">
-        <v>102</v>
+    <row r="5" spans="2:5" s="88" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="89" t="s">
+        <v>98</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>39</v>
@@ -12234,23 +12134,23 @@
       </c>
       <c r="E5" s="68"/>
     </row>
-    <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B6" s="71" t="s">
-        <v>99</v>
+    <row r="6" spans="2:5" s="88" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="70" t="s">
+        <v>95</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="91" t="s">
-        <v>100</v>
+    <row r="7" spans="2:5" s="88" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="89" t="s">
+        <v>96</v>
       </c>
       <c r="C7" s="66" t="s">
         <v>24</v>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -2251,9 +2251,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2282,96 +2372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2648,22 +2648,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2685,20 +2685,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="132"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2824,44 +2824,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="133" t="s">
+      <c r="N7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="105" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2883,12 +2883,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="96"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2896,11 +2896,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2920,11 +2920,11 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="101"/>
-      <c r="B9" s="118" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="58" t="s">
         <v>77</v>
       </c>
@@ -2965,8 +2965,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="132"/>
+      <c r="B10" s="118" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -3010,8 +3010,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3053,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="102"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
@@ -3096,8 +3096,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
@@ -3141,8 +3141,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="102"/>
-      <c r="B14" s="115" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="112" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3190,8 +3190,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="102"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="16" t="s">
         <v>55</v>
       </c>
@@ -3237,8 +3237,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="115" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3286,8 +3286,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="117"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
@@ -3333,8 +3333,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="117"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="15" t="s">
         <v>58</v>
       </c>
@@ -3380,8 +3380,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="15" t="s">
         <v>59</v>
       </c>
@@ -3427,8 +3427,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="15" t="s">
         <v>112</v>
       </c>
@@ -3476,8 +3476,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="16" t="s">
         <v>60</v>
       </c>
@@ -3521,8 +3521,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="112" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="109" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3566,8 +3566,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="113"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="16" t="s">
         <v>62</v>
       </c>
@@ -3652,8 +3652,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="114"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="44" t="s">
         <v>63</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="103"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
@@ -3742,13 +3742,13 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="100"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="59" t="s">
         <v>28</v>
       </c>
@@ -3787,8 +3787,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="105"/>
-      <c r="B28" s="108" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3832,8 +3832,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="105"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="16" t="s">
         <v>66</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="105"/>
-      <c r="B30" s="97" t="s">
+      <c r="A30" s="135"/>
+      <c r="B30" s="127" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -3924,8 +3924,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>68</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="105"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="19" t="s">
         <v>19</v>
       </c>
@@ -4018,8 +4018,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="135"/>
+      <c r="B33" s="118" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -4063,8 +4063,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="16" t="s">
         <v>61</v>
       </c>
@@ -4106,8 +4106,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="16" t="s">
         <v>62</v>
       </c>
@@ -4149,8 +4149,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="109"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="16" t="s">
         <v>70</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="105"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="123" t="s">
         <v>71</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="105"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="125" t="s">
         <v>72</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="106"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="125" t="s">
         <v>73</v>
       </c>
@@ -12175,15 +12175,14 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12195,14 +12194,15 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -11,9 +16,9 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$41</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mi6DiWTCXz4A8VU66IOZAmpu+7wtg=="/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -46,10 +51,10 @@
     <t>담당자</t>
   </si>
   <si>
+    <t>일정계획</t>
+  </si>
+  <si>
     <t>진행상황</t>
-  </si>
-  <si>
-    <t>현재 이슈?</t>
   </si>
   <si>
     <t>우선순위</t>
@@ -506,18 +511,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>베스트 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나간 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가올 펀딩 미리 보기 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 프로젝트 등록 (-)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -624,10 +617,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리별 프로젝트 확인 (1+1+1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>화면코드(WEB)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -648,14 +637,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화)
-펀딩 한 프로젝트 관리 페이지
-관심 등록 프로젝트 관리 페이지
-회원 정보 변경 페이지 연결
-예치금 관리 페이지 (예치금 충전, 조회)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일 사업자 등록번호 입력, 관심 카테고리 등록, 계좌 정보
 소셜 로그인을 위한 회원 가입 창으로 연결</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -666,17 +647,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정
 관심프로젝트로 등록한 프로젝트에는 프로젝트 제목 옆에 별표 표시</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
-- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -704,10 +676,6 @@
 프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
 승인/보류/승인거절 버튼
 알림 보내기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1028,11 +996,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
-근소한 차이로 목표금액 달성하지 못한 프로젝트 노출</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>불량 프로젝트 신고 (제목과 신고 내용, 증거자료), 장난식으로 등록된 프로젝트 포함</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1168,15 +1131,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_sh_</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 설계 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1239,31 +1193,179 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ppt 화면설계완료</t>
+    <t>베스트 프로젝트 확인 (-)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ppt화면설계완료</t>
+    <t>지나간 프로젝트 확인 (-)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>일정계획</t>
+    <t>다가올 펀딩 미리 보기 (-)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_hj_make_reward</t>
+    <t>신고 프로젝트 관리(1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_hj_make_invest</t>
+    <t>현태</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>admin_w_hj_admit_project</t>
+    <t>화면 설계 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>admin_w_hj_edit_category</t>
+    <t>신고 접수 된 프로젝트의 신고내용 확인
+신고 처리를 위한 버튼 - 반려처리, 프로젝트 삭제, 프로젝트 제제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
+근소한 차이로 목표금액 달성하지 못한 프로젝트 노출
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세 메인 화면 (1+1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별로 프로젝트를 조회
+- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
+- 카테고리별 베스트 프로젝트, 진행중인 프로젝트, 지나간 프로젝트, 다가올 프로젝트
+프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
+- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 수정(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 중 현재 진행 중인 프로젝트, 다가올 프로젝트 내용 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>제작 프로젝트 관리 페이지 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트 등록 승인시 메이커 회원 자격 획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 자격 획득 전 카테고리 비활성화, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+펀딩 한 프로젝트 관리 페이지
+관심 등록 프로젝트 관리 페이지
+회원 정보 변경 페이지 연결
+예치금 관리 페이지 (예치금 충전, 조회)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_a_sh_main_1
+user_a_sh_main_2
+user_a_sh_main_3
+user_a_sh_main_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_login
+admin_w_sh_main</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_umain_silde
+admin_w_sh_umain_popup
+admin_w_sh_umain_recommend
+admin_w_sh_umain_security
+admin_w_sh_umain_reward
+admin_w_sh_usermain_new</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 이슈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_sh_main_1
+user_w_sh_main_2
+user_w_sh_main_3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1359,8 +1461,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1377,6 +1486,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1809,17 +1930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1962,11 +2072,26 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2040,64 +2165,299 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2106,247 +2466,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,15 +2490,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2373,6 +2507,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2589,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1002"/>
+  <dimension ref="A1:AG1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2648,22 +2788,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2685,20 +2825,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2824,45 +2964,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="G7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="105" t="s">
-        <v>76</v>
+      <c r="O7" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="108" t="s">
+        <v>72</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2883,24 +3023,26 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18">
+        <v>43868</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2919,33 +3061,43 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="131"/>
-      <c r="B9" s="116" t="s">
+    <row r="9" spans="1:33" ht="54" customHeight="1">
+      <c r="A9" s="134"/>
+      <c r="B9" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="58" t="s">
-        <v>77</v>
+      <c r="C9" s="116"/>
+      <c r="D9" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="4"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
       <c r="O9" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2965,29 +3117,29 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="135"/>
+      <c r="B10" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="58" t="s">
-        <v>78</v>
+      <c r="D10" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="33"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -3010,25 +3162,25 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>80</v>
+      <c r="D11" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="23"/>
       <c r="M11" s="10"/>
       <c r="N11" s="7"/>
@@ -3052,28 +3204,28 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+    <row r="12" spans="1:33" ht="72">
+      <c r="A12" s="135"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>79</v>
+      <c r="D12" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="7"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -3096,32 +3248,32 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>108</v>
+      <c r="D13" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3141,35 +3293,31 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="135"/>
+      <c r="B14" s="126" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="53" t="s">
-        <v>81</v>
+      <c r="D14" s="49" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="23" t="s">
-        <v>129</v>
-      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3190,33 +3338,29 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="49" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="23" t="s">
-        <v>129</v>
-      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3237,36 +3381,30 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>128</v>
+      <c r="A16" s="135"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>132</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3285,35 +3423,33 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>25</v>
+    <row r="17" spans="1:33" ht="60">
+      <c r="A17" s="135"/>
+      <c r="B17" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>129</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -3333,33 +3469,33 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>95</v>
+      <c r="A18" s="135"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>117</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="23"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3380,33 +3516,33 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>82</v>
+      <c r="A19" s="135"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="23"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3427,35 +3563,33 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="A20" s="135"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G20" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="23"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3476,32 +3610,34 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>105</v>
+      <c r="A21" s="135"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
+      <c r="O21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3521,32 +3657,36 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12" t="s">
-        <v>107</v>
+      <c r="A22" s="135"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="32"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="23"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="O22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3566,30 +3706,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="10"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="34"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3609,30 +3751,30 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="32"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3652,30 +3794,30 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>85</v>
+      <c r="A25" s="135"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3694,35 +3836,31 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
-      <c r="B26" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28" t="s">
-        <v>102</v>
+    <row r="26" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A26" s="135"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="P26" s="79"/>
+        <v>104</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3741,33 +3879,41 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="120"/>
+    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A27" s="136"/>
+      <c r="B27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" s="72">
+        <v>3</v>
+      </c>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3786,33 +3932,43 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
-        <v>103</v>
+    <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
+      <c r="A28" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="133"/>
+      <c r="D28" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
+        <v>93</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" s="34">
+        <v>1</v>
+      </c>
+      <c r="O28" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="119"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3832,30 +3988,32 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>103</v>
+      <c r="A29" s="138"/>
+      <c r="B29" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="35"/>
+        <v>104</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="121"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="120"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3874,37 +4032,31 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>88</v>
+    <row r="30" spans="1:33" ht="60">
+      <c r="A30" s="138"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>80</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="M30" s="35"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="P30" s="121"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="120"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3923,35 +4075,33 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+    <row r="31" spans="1:33" ht="48">
+      <c r="A31" s="138"/>
+      <c r="B31" s="129" t="s">
+        <v>18</v>
+      </c>
       <c r="C31" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="P31" s="121"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="120"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3971,34 +4121,30 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
-      <c r="B32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81" t="s">
-        <v>105</v>
+      <c r="A32" s="138"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="P32" s="121"/>
+        <v>123</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="120"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4018,32 +4164,30 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
-        <v>107</v>
+      <c r="A33" s="138"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="120"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4063,30 +4207,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C34" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
-        <v>107</v>
+        <v>66</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75" t="s">
+        <v>96</v>
       </c>
       <c r="G34" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="121"/>
+      <c r="P34" s="120"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4106,30 +4254,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>107</v>
+      <c r="A35" s="138"/>
+      <c r="B35" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="120"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4149,30 +4299,30 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="87" t="s">
-        <v>107</v>
+        <v>58</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="121"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="120"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4192,32 +4342,30 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
-      <c r="B37" s="123" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="87" t="s">
-        <v>105</v>
+      <c r="A37" s="138"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P37" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="120"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4237,30 +4385,30 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="135"/>
-      <c r="B38" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="87" t="s">
-        <v>102</v>
+      <c r="A38" s="138"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="81" t="s">
+        <v>98</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="120"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4280,30 +4428,32 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="136"/>
-      <c r="B39" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="87" t="s">
-        <v>102</v>
+      <c r="A39" s="138"/>
+      <c r="B39" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="123"/>
+      <c r="D39" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="122"/>
+        <v>104</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" s="120"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4322,17 +4472,39 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+    <row r="40" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A40" s="138"/>
+      <c r="B40" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="125"/>
+      <c r="D40" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N40" s="15">
+        <v>4</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="120"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4351,17 +4523,41 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+    <row r="41" spans="1:33" ht="83.25" customHeight="1">
+      <c r="A41" s="139"/>
+      <c r="B41" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="125"/>
+      <c r="D41" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41" s="15">
+        <v>3</v>
+      </c>
+      <c r="O41" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="P41" s="121"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4380,20 +4576,14 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="46"/>
-      <c r="M42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4415,27 +4605,14 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="24">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4457,22 +4634,19 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
+    <row r="44" spans="1:33" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="68"/>
-      <c r="L44" s="11"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="44"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4495,23 +4669,26 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    <row r="45" spans="1:33" ht="24">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
+      <c r="F45" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4539,20 +4716,17 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="I46" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
+      <c r="F46" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="63"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4580,16 +4754,16 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="68"/>
+      <c r="F47" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="63"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4619,11 +4793,18 @@
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="F48" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1"/>
@@ -4653,11 +4834,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="F49" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="63"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4692,9 +4878,8 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -4722,13 +4907,13 @@
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -4756,6 +4941,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4791,9 +4977,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4827,9 +5011,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -4864,7 +5046,7 @@
       <c r="D55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4898,10 +5080,9 @@
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -4935,10 +5116,9 @@
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -4974,7 +5154,9 @@
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -5009,7 +5191,9 @@
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -11407,8 +11591,76 @@
       <c r="AF241" s="1"/>
       <c r="AG241" s="1"/>
     </row>
-    <row r="242" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="242" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
     <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
@@ -12168,8 +12420,10 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P39">
+  <autoFilter ref="A7:P41">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
@@ -12178,22 +12432,22 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="P27:P39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="P28:P41"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -12229,79 +12483,79 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="89"/>
-      <c r="C2" s="65" t="s">
+    <row r="2" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="83"/>
+      <c r="C2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="91" t="s">
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="68"/>
-    </row>
-    <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B6" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="66" t="s">
+    <row r="7" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr\Desktop\EzenCrowdFunding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -2226,6 +2231,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,109 +2342,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2564,11 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:P39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2577,9 +2581,9 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="92.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
@@ -2624,22 +2628,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2661,20 +2665,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2800,44 +2804,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="105" t="s">
+      <c r="P7" s="110" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2858,13 +2862,13 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" hidden="1" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+    <row r="8" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2872,11 +2876,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2895,12 +2899,12 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="48" hidden="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="116" t="s">
+    <row r="9" spans="1:33" ht="48">
+      <c r="A9" s="101"/>
+      <c r="B9" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="58" t="s">
         <v>78</v>
       </c>
@@ -2940,9 +2944,9 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A10" s="102"/>
+      <c r="B10" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2985,9 +2989,9 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
@@ -3028,9 +3032,9 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="60" hidden="1">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+    <row r="12" spans="1:33" ht="60">
+      <c r="A12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
@@ -3071,9 +3075,9 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+    <row r="13" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A13" s="102"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
@@ -3116,9 +3120,9 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="48" hidden="1">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
+    <row r="14" spans="1:33" ht="48">
+      <c r="A14" s="102"/>
+      <c r="B14" s="115" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3161,9 +3165,9 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="48" hidden="1">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+    <row r="15" spans="1:33" ht="48">
+      <c r="A15" s="102"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
@@ -3205,8 +3209,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="115" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3254,8 +3258,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3301,8 +3305,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
@@ -3348,8 +3352,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
@@ -3395,8 +3399,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="15" t="s">
         <v>113</v>
       </c>
@@ -3444,8 +3448,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
@@ -3488,9 +3492,9 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
+    <row r="22" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A22" s="102"/>
+      <c r="B22" s="112" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3533,9 +3537,9 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+    <row r="23" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A23" s="102"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
@@ -3576,9 +3580,9 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
+    <row r="24" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A24" s="102"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
@@ -3619,9 +3623,9 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="111"/>
+    <row r="25" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A25" s="102"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="44" t="s">
         <v>64</v>
       </c>
@@ -3662,8 +3666,8 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
+    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A26" s="103"/>
       <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
@@ -3709,14 +3713,14 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" hidden="1" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
+    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
+      <c r="A27" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="130"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="59" t="s">
         <v>29</v>
       </c>
@@ -3754,9 +3758,9 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="60" hidden="1">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
+    <row r="28" spans="1:33" ht="60">
+      <c r="A28" s="105"/>
+      <c r="B28" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3799,9 +3803,9 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="60" hidden="1">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
+    <row r="29" spans="1:33" ht="60">
+      <c r="A29" s="105"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="16" t="s">
         <v>67</v>
       </c>
@@ -3842,9 +3846,9 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48" hidden="1">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
+    <row r="30" spans="1:33" ht="48">
+      <c r="A30" s="105"/>
+      <c r="B30" s="97" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -3887,9 +3891,9 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+    <row r="31" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A31" s="105"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
@@ -3931,7 +3935,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="19" t="s">
         <v>20</v>
       </c>
@@ -3977,9 +3981,9 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
+    <row r="33" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A33" s="105"/>
+      <c r="B33" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -4022,9 +4026,9 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+    <row r="34" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A34" s="105"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
@@ -4065,9 +4069,9 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
+    <row r="35" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A35" s="105"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="16" t="s">
         <v>63</v>
       </c>
@@ -4108,9 +4112,9 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A36" s="105"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="16" t="s">
         <v>71</v>
       </c>
@@ -4152,7 +4156,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="123" t="s">
         <v>72</v>
       </c>
@@ -4196,8 +4200,8 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A38" s="135"/>
+    <row r="38" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A38" s="105"/>
       <c r="B38" s="125" t="s">
         <v>73</v>
       </c>
@@ -4239,8 +4243,8 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="42.75" hidden="1" customHeight="1">
-      <c r="A39" s="136"/>
+    <row r="39" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A39" s="106"/>
       <c r="B39" s="125" t="s">
         <v>74</v>
       </c>
@@ -12130,24 +12134,20 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A7:P39">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="현태"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12159,15 +12159,14 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr\Desktop\EzenCrowdFunding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,9 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$41</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mi6DiWTCXz4A8VU66IOZAmpu+7wtg=="/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>진행상황</t>
-  </si>
-  <si>
-    <t>현재 이슈?</t>
   </si>
   <si>
     <t>우선순위</t>
@@ -514,18 +511,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>베스트 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나간 프로젝트 확인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가올 펀딩 미리 보기 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 프로젝트 등록 (-)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -632,10 +617,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리별 프로젝트 확인 (1+1+1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>화면코드(WEB)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -656,14 +637,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화)
-펀딩 한 프로젝트 관리 페이지
-관심 등록 프로젝트 관리 페이지
-회원 정보 변경 페이지 연결
-예치금 관리 페이지 (예치금 충전, 조회)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일 사업자 등록번호 입력, 관심 카테고리 등록, 계좌 정보
 소셜 로그인을 위한 회원 가입 창으로 연결</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -674,17 +647,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정
 관심프로젝트로 등록한 프로젝트에는 프로젝트 제목 옆에 별표 표시</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
-- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -712,10 +676,6 @@
 프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
 승인/보류/승인거절 버튼
 알림 보내기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1036,11 +996,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
-근소한 차이로 목표금액 달성하지 못한 프로젝트 노출</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>불량 프로젝트 신고 (제목과 신고 내용, 증거자료), 장난식으로 등록된 프로젝트 포함</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1176,15 +1131,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_sh_</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 설계 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1244,6 +1190,182 @@
     <t>카테고리별로 프로젝트를 조회
 - IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
 - 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트 프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나간 프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가올 펀딩 미리 보기 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 프로젝트 관리(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 접수 된 프로젝트의 신고내용 확인
+신고 처리를 위한 버튼 - 반려처리, 프로젝트 삭제, 프로젝트 제제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
+근소한 차이로 목표금액 달성하지 못한 프로젝트 노출
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세 메인 화면 (1+1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별로 프로젝트를 조회
+- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
+- 카테고리별 베스트 프로젝트, 진행중인 프로젝트, 지나간 프로젝트, 다가올 프로젝트
+프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
+- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 수정(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 중 현재 진행 중인 프로젝트, 다가올 프로젝트 내용 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>제작 프로젝트 관리 페이지 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트 등록 승인시 메이커 회원 자격 획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 자격 획득 전 카테고리 비활성화, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+펀딩 한 프로젝트 관리 페이지
+관심 등록 프로젝트 관리 페이지
+회원 정보 변경 페이지 연결
+예치금 관리 페이지 (예치금 충전, 조회)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_a_sh_main_1
+user_a_sh_main_2
+user_a_sh_main_3
+user_a_sh_main_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_login
+admin_w_sh_main</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_umain_silde
+admin_w_sh_umain_popup
+admin_w_sh_umain_recommend
+admin_w_sh_umain_security
+admin_w_sh_umain_reward
+admin_w_sh_usermain_new</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 이슈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_sh_main_1
+user_w_sh_main_2
+user_w_sh_main_3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1254,7 +1376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1339,8 +1461,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1357,6 +1486,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1789,17 +1930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1942,11 +2072,26 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2020,64 +2165,299 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,157 +2466,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2246,15 +2490,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2264,95 +2508,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2569,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1002"/>
+  <dimension ref="A1:AG1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2628,22 +2788,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2665,20 +2825,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="132"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2804,45 +2964,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="110" t="s">
-        <v>77</v>
+      <c r="O7" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="108" t="s">
+        <v>72</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2863,24 +3023,26 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="96"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18">
+        <v>43868</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2899,33 +3061,43 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="101"/>
-      <c r="B9" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="58" t="s">
-        <v>78</v>
+    <row r="9" spans="1:33" ht="54" customHeight="1">
+      <c r="A9" s="134"/>
+      <c r="B9" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="4"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
       <c r="O9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2945,29 +3117,29 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>79</v>
+      <c r="A10" s="135"/>
+      <c r="B10" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="33"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -2990,25 +3162,25 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="23"/>
       <c r="M11" s="10"/>
       <c r="N11" s="7"/>
@@ -3032,28 +3204,28 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="102"/>
-      <c r="B12" s="108"/>
+    <row r="12" spans="1:33" ht="72">
+      <c r="A12" s="135"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="7"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -3076,32 +3248,32 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3121,27 +3293,27 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="102"/>
-      <c r="B14" s="115" t="s">
-        <v>22</v>
+      <c r="A14" s="135"/>
+      <c r="B14" s="126" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="23"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -3166,25 +3338,25 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="102"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="23"/>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
@@ -3209,36 +3381,30 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>129</v>
+      <c r="A16" s="135"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>132</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3257,35 +3423,33 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>26</v>
+    <row r="17" spans="1:33" ht="60">
+      <c r="A17" s="135"/>
+      <c r="B17" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>129</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -3305,33 +3469,33 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>96</v>
+      <c r="A18" s="135"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>117</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="23"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3352,33 +3516,33 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>83</v>
+      <c r="A19" s="135"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="23"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3399,35 +3563,33 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>112</v>
-      </c>
+      <c r="A20" s="135"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="23"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3448,32 +3610,34 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="92" t="s">
+      <c r="A21" s="135"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
+      <c r="P21" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3493,32 +3657,36 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12" t="s">
-        <v>108</v>
+      <c r="A22" s="135"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="32"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="23"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="O22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3538,30 +3706,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="113"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12" t="s">
-        <v>108</v>
+        <v>57</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="10"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="34"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3581,30 +3751,30 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="32"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3624,30 +3794,30 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>86</v>
+      <c r="A25" s="135"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3666,35 +3836,31 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28" t="s">
-        <v>103</v>
+    <row r="26" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A26" s="135"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="79"/>
+        <v>104</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3713,33 +3879,41 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="120"/>
+    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A27" s="136"/>
+      <c r="B27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" s="72">
+        <v>3</v>
+      </c>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3758,33 +3932,43 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="105"/>
-      <c r="B28" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
+    <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
+      <c r="A28" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="133"/>
+      <c r="D28" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="121"/>
+      <c r="H28" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" s="34">
+        <v>1</v>
+      </c>
+      <c r="O28" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="119"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3804,30 +3988,32 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="105"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="A29" s="138"/>
+      <c r="B29" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="35"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="121"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="120"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3846,33 +4032,31 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="105"/>
-      <c r="B30" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>89</v>
+    <row r="30" spans="1:33" ht="60">
+      <c r="A30" s="138"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>80</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="35"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="121"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="120"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3891,31 +4075,33 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="98"/>
+    <row r="31" spans="1:33" ht="48">
+      <c r="A31" s="138"/>
+      <c r="B31" s="129" t="s">
+        <v>18</v>
+      </c>
       <c r="C31" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>93</v>
+        <v>64</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="121"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="120"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3935,34 +4121,30 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81" t="s">
-        <v>106</v>
+      <c r="A32" s="138"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P32" s="121"/>
+        <v>123</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="120"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3982,32 +4164,30 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
-        <v>108</v>
+      <c r="A33" s="138"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="120"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4027,30 +4207,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
-        <v>108</v>
+        <v>66</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75" t="s">
+        <v>96</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P34" s="120"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4070,30 +4254,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>108</v>
+      <c r="A35" s="138"/>
+      <c r="B35" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="120"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4113,30 +4299,30 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="109"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="87" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="121"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="120"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4156,32 +4342,30 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="87" t="s">
-        <v>106</v>
+      <c r="A37" s="138"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P37" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="120"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4201,30 +4385,30 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="87" t="s">
-        <v>103</v>
+      <c r="A38" s="138"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="81" t="s">
+        <v>98</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="120"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4244,30 +4428,32 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="87" t="s">
-        <v>103</v>
+      <c r="A39" s="138"/>
+      <c r="B39" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="123"/>
+      <c r="D39" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="G39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="122"/>
+      <c r="P39" s="120"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4286,17 +4472,39 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+    <row r="40" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A40" s="138"/>
+      <c r="B40" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="125"/>
+      <c r="D40" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N40" s="15">
+        <v>4</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="120"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4315,17 +4523,41 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+    <row r="41" spans="1:33" ht="83.25" customHeight="1">
+      <c r="A41" s="139"/>
+      <c r="B41" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="125"/>
+      <c r="D41" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41" s="15">
+        <v>3</v>
+      </c>
+      <c r="O41" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="P41" s="121"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4344,20 +4576,14 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="46"/>
-      <c r="M42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4379,27 +4605,14 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="24">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4421,22 +4634,19 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
+    <row r="44" spans="1:33" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="68"/>
-      <c r="L44" s="11"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="44"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4459,23 +4669,26 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    <row r="45" spans="1:33" ht="24">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
+      <c r="F45" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4503,20 +4716,17 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
+      <c r="F46" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="63"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4544,16 +4754,16 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" s="68"/>
+      <c r="F47" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="63"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4583,11 +4793,18 @@
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="F48" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1"/>
@@ -4617,11 +4834,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="F49" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="63"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4656,9 +4878,8 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -4686,13 +4907,13 @@
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -4720,6 +4941,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4755,9 +4977,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4791,9 +5011,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -4828,7 +5046,7 @@
       <c r="D55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4862,10 +5080,9 @@
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -4899,10 +5116,9 @@
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -4938,7 +5154,9 @@
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -4973,7 +5191,9 @@
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -11371,8 +11591,76 @@
       <c r="AF241" s="1"/>
       <c r="AG241" s="1"/>
     </row>
-    <row r="242" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="242" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
     <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
@@ -12132,13 +12420,34 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P39">
+  <autoFilter ref="A7:P41">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="P28:P41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -12148,25 +12457,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="P27:P39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12193,79 +12483,79 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="89"/>
-      <c r="C2" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="66" t="s">
+    <row r="2" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="83"/>
+      <c r="C2" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="66" t="s">
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="68"/>
-    </row>
-    <row r="5" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="D5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D6" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B6" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="68" t="s">
+    </row>
+    <row r="7" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" s="90" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="154">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1366,6 +1361,40 @@
     <t>user_w_sh_main_1
 user_w_sh_main_2
 user_w_sh_main_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_make_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_make_invest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_hj_make_invest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_hj_make_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_edit_invest
+user_w_hj_edit_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_hj_edit_invest
+user_m_hj_edit_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_hj_admit_project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_hj_edit_category</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2385,6 +2414,105 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2403,116 +2531,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2731,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2788,22 +2817,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="134"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2825,20 +2854,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2964,44 +2993,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="106" t="s">
+      <c r="N7" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="108" t="s">
+      <c r="O7" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="108" t="s">
+      <c r="P7" s="116" t="s">
         <v>72</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3023,12 +3052,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="105"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -3038,11 +3067,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3062,11 +3091,11 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="54" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="115" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="116"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="54" t="s">
         <v>73</v>
       </c>
@@ -3117,8 +3146,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="135"/>
-      <c r="B10" s="117" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -3162,7 +3191,7 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="135"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="114"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
@@ -3205,7 +3234,7 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="72">
-      <c r="A12" s="135"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="114"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
@@ -3248,8 +3277,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="135"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
@@ -3293,8 +3322,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="135"/>
-      <c r="B14" s="126" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="129" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3317,8 +3346,12 @@
       <c r="L14" s="23"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -3338,8 +3371,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="135"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="16" t="s">
         <v>55</v>
       </c>
@@ -3360,8 +3393,12 @@
       <c r="L15" s="23"/>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3381,8 +3418,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="135"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="91" t="s">
         <v>130</v>
       </c>
@@ -3403,8 +3440,12 @@
       <c r="L16" s="23"/>
       <c r="M16" s="10"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="O16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3424,8 +3465,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="60">
-      <c r="A17" s="135"/>
-      <c r="B17" s="126" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="129" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="91" t="s">
@@ -3469,8 +3510,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="135"/>
-      <c r="B18" s="127"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="91" t="s">
         <v>127</v>
       </c>
@@ -3516,8 +3557,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="127"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="93" t="s">
         <v>118</v>
       </c>
@@ -3563,8 +3604,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="135"/>
-      <c r="B20" s="127"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="93" t="s">
         <v>119</v>
       </c>
@@ -3610,8 +3651,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="135"/>
-      <c r="B21" s="127"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="93" t="s">
         <v>120</v>
       </c>
@@ -3657,8 +3698,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="135"/>
-      <c r="B22" s="127"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="15" t="s">
         <v>103</v>
       </c>
@@ -3706,8 +3747,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="135"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
@@ -3751,8 +3792,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="135"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="16" t="s">
         <v>58</v>
       </c>
@@ -3794,8 +3835,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="135"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="16" t="s">
         <v>59</v>
       </c>
@@ -3837,8 +3878,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A26" s="135"/>
-      <c r="B26" s="113"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="42" t="s">
         <v>60</v>
       </c>
@@ -3880,7 +3921,7 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A27" s="136"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="26" t="s">
         <v>16</v>
       </c>
@@ -3933,13 +3974,13 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="133"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="55" t="s">
         <v>28</v>
       </c>
@@ -3965,10 +4006,10 @@
       <c r="N28" s="34">
         <v>1</v>
       </c>
-      <c r="O28" s="140" t="s">
+      <c r="O28" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="P28" s="119"/>
+      <c r="P28" s="122"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3988,7 +4029,7 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="138"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="114" t="s">
         <v>17</v>
       </c>
@@ -4013,7 +4054,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="120"/>
+      <c r="P29" s="123"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -4033,7 +4074,7 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="60">
-      <c r="A30" s="138"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="114"/>
       <c r="C30" s="97" t="s">
         <v>63</v>
@@ -4056,7 +4097,7 @@
       <c r="M30" s="33"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="120"/>
+      <c r="P30" s="123"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4076,8 +4117,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="48">
-      <c r="A31" s="138"/>
-      <c r="B31" s="129" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="102" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -4100,8 +4141,10 @@
       <c r="L31" s="39"/>
       <c r="M31" s="33"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="120"/>
+      <c r="O31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P31" s="123"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4121,8 +4164,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="138"/>
-      <c r="B32" s="130"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="91" t="s">
         <v>121</v>
       </c>
@@ -4144,7 +4187,7 @@
       <c r="M32" s="33"/>
       <c r="N32" s="68"/>
       <c r="O32" s="69"/>
-      <c r="P32" s="120"/>
+      <c r="P32" s="123"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4164,8 +4207,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="138"/>
-      <c r="B33" s="131"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="16" t="s">
         <v>65</v>
       </c>
@@ -4186,8 +4229,10 @@
       <c r="L33" s="39"/>
       <c r="M33" s="33"/>
       <c r="N33" s="68"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="120"/>
+      <c r="O33" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" s="123"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4207,7 +4252,7 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="138"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="19" t="s">
         <v>19</v>
       </c>
@@ -4234,7 +4279,7 @@
       <c r="O34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P34" s="120"/>
+      <c r="P34" s="123"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4254,8 +4299,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="138"/>
-      <c r="B35" s="117" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="113" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -4279,7 +4324,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="70"/>
-      <c r="P35" s="120"/>
+      <c r="P35" s="123"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4299,7 +4344,7 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="138"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="114"/>
       <c r="C36" s="16" t="s">
         <v>58</v>
@@ -4322,7 +4367,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="70"/>
       <c r="O36" s="70"/>
-      <c r="P36" s="120"/>
+      <c r="P36" s="123"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4342,7 +4387,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="138"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="114"/>
       <c r="C37" s="16" t="s">
         <v>59</v>
@@ -4365,7 +4410,7 @@
       <c r="M37" s="57"/>
       <c r="N37" s="70"/>
       <c r="O37" s="70"/>
-      <c r="P37" s="120"/>
+      <c r="P37" s="123"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4385,8 +4430,8 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="138"/>
-      <c r="B38" s="118"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="16" t="s">
         <v>67</v>
       </c>
@@ -4408,7 +4453,7 @@
       <c r="M38" s="57"/>
       <c r="N38" s="70"/>
       <c r="O38" s="70"/>
-      <c r="P38" s="120"/>
+      <c r="P38" s="123"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4428,11 +4473,11 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="138"/>
-      <c r="B39" s="122" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="123"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="79" t="s">
         <v>85</v>
       </c>
@@ -4453,7 +4498,7 @@
       <c r="O39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P39" s="120"/>
+      <c r="P39" s="123"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4473,11 +4518,11 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="138"/>
-      <c r="B40" s="124" t="s">
+      <c r="A40" s="111"/>
+      <c r="B40" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="125"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="56" t="s">
         <v>33</v>
       </c>
@@ -4504,7 +4549,7 @@
         <v>4</v>
       </c>
       <c r="O40" s="71"/>
-      <c r="P40" s="120"/>
+      <c r="P40" s="123"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4524,11 +4569,11 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="83.25" customHeight="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="124" t="s">
+      <c r="A41" s="112"/>
+      <c r="B41" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="125"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="80" t="s">
         <v>86</v>
       </c>
@@ -4554,10 +4599,10 @@
       <c r="N41" s="15">
         <v>3</v>
       </c>
-      <c r="O41" s="141" t="s">
+      <c r="O41" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="P41" s="121"/>
+      <c r="P41" s="124"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -12429,14 +12474,15 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B29:B30"/>
@@ -12448,15 +12494,14 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1395,6 +1400,18 @@
   </si>
   <si>
     <t>admin_w_hj_edit_category</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_chat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_a_sh_chat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_sh_main_chat</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2330,9 +2347,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2420,9 +2434,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2456,92 +2557,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2760,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2776,7 +2793,7 @@
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" customWidth="1"/>
     <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2817,22 +2834,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="134"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2854,20 +2871,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2993,44 +3010,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="138" t="s">
+      <c r="N7" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="116" t="s">
+      <c r="O7" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="116" t="s">
+      <c r="P7" s="109" t="s">
         <v>72</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3052,12 +3069,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="101"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -3067,11 +3084,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3091,11 +3108,11 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="54" customHeight="1">
-      <c r="A9" s="107"/>
-      <c r="B9" s="120" t="s">
+      <c r="A9" s="135"/>
+      <c r="B9" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="121"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="54" t="s">
         <v>73</v>
       </c>
@@ -3146,8 +3163,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="118" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -3191,8 +3208,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="114"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
@@ -3234,8 +3251,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="72">
-      <c r="A12" s="108"/>
-      <c r="B12" s="114"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
@@ -3277,8 +3294,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
@@ -3301,8 +3318,8 @@
       <c r="L13" s="23"/>
       <c r="M13" s="32"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3322,8 +3339,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="108"/>
-      <c r="B14" s="129" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="127" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3371,8 +3388,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="108"/>
-      <c r="B15" s="130"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="16" t="s">
         <v>55</v>
       </c>
@@ -3418,12 +3435,12 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="108"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="91" t="s">
         <v>132</v>
       </c>
       <c r="E16" s="6"/>
@@ -3465,14 +3482,14 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="60">
-      <c r="A17" s="108"/>
-      <c r="B17" s="129" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="91" t="s">
         <v>129</v>
       </c>
       <c r="E17" s="6"/>
@@ -3510,12 +3527,12 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="108"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="91" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="91" t="s">
         <v>117</v>
       </c>
       <c r="E18" s="6"/>
@@ -3557,12 +3574,12 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="93" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="91" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="6"/>
@@ -3604,12 +3621,12 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="93" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="91" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="6"/>
@@ -3651,12 +3668,12 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="108"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="93" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="91" t="s">
         <v>126</v>
       </c>
       <c r="E21" s="6"/>
@@ -3698,15 +3715,15 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="108"/>
-      <c r="B22" s="130"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="86" t="s">
         <v>102</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3747,15 +3764,15 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="131"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="85" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="13" t="s">
@@ -3771,8 +3788,8 @@
       <c r="L23" s="23"/>
       <c r="M23" s="34"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3792,8 +3809,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="118"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="16" t="s">
         <v>58</v>
       </c>
@@ -3835,8 +3852,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="108"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="16" t="s">
         <v>59</v>
       </c>
@@ -3878,8 +3895,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A26" s="108"/>
-      <c r="B26" s="119"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="42" t="s">
         <v>60</v>
       </c>
@@ -3921,7 +3938,7 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A27" s="109"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="26" t="s">
         <v>16</v>
       </c>
@@ -3935,7 +3952,7 @@
       <c r="F27" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="89" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="28" t="s">
@@ -3950,11 +3967,15 @@
       <c r="M27" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="72">
+      <c r="N27" s="71">
         <v>3</v>
       </c>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="O27" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="P27" s="141" t="s">
+        <v>155</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3974,13 +3995,13 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="106"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="55" t="s">
         <v>28</v>
       </c>
@@ -4006,10 +4027,10 @@
       <c r="N28" s="34">
         <v>1</v>
       </c>
-      <c r="O28" s="99" t="s">
+      <c r="O28" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="P28" s="122"/>
+      <c r="P28" s="120"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4029,14 +4050,14 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="111"/>
-      <c r="B29" s="114" t="s">
+      <c r="A29" s="139"/>
+      <c r="B29" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="95" t="s">
         <v>79</v>
       </c>
       <c r="E29" s="25"/>
@@ -4054,7 +4075,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="123"/>
+      <c r="P29" s="121"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -4074,12 +4095,12 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="60">
-      <c r="A30" s="111"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="97" t="s">
+      <c r="A30" s="139"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="97" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="6"/>
@@ -4097,7 +4118,7 @@
       <c r="M30" s="33"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="123"/>
+      <c r="P30" s="121"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4117,8 +4138,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="48">
-      <c r="A31" s="111"/>
-      <c r="B31" s="102" t="s">
+      <c r="A31" s="139"/>
+      <c r="B31" s="130" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -4144,7 +4165,7 @@
       <c r="O31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="P31" s="123"/>
+      <c r="P31" s="121"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4164,12 +4185,12 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="111"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="91" t="s">
+      <c r="A32" s="139"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="93" t="s">
         <v>124</v>
       </c>
       <c r="E32" s="6"/>
@@ -4187,7 +4208,7 @@
       <c r="M32" s="33"/>
       <c r="N32" s="68"/>
       <c r="O32" s="69"/>
-      <c r="P32" s="123"/>
+      <c r="P32" s="121"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4207,8 +4228,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="111"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="16" t="s">
         <v>65</v>
       </c>
@@ -4232,7 +4253,7 @@
       <c r="O33" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="P33" s="123"/>
+      <c r="P33" s="121"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4252,34 +4273,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="111"/>
+      <c r="A34" s="139"/>
       <c r="B34" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75" t="s">
+      <c r="E34" s="74"/>
+      <c r="F34" s="74" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="77"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
       <c r="K34" s="30"/>
       <c r="L34" s="39"/>
-      <c r="M34" s="78"/>
+      <c r="M34" s="77"/>
       <c r="N34" s="16"/>
       <c r="O34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P34" s="123"/>
+      <c r="P34" s="121"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4299,8 +4320,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="113" t="s">
+      <c r="A35" s="139"/>
+      <c r="B35" s="118" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -4320,11 +4341,11 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
-      <c r="L35" s="82"/>
+      <c r="L35" s="81"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="70"/>
-      <c r="P35" s="123"/>
+      <c r="P35" s="121"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4344,8 +4365,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="111"/>
-      <c r="B36" s="114"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
@@ -4367,7 +4388,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="70"/>
       <c r="O36" s="70"/>
-      <c r="P36" s="123"/>
+      <c r="P36" s="121"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4387,8 +4408,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="111"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="16" t="s">
         <v>59</v>
       </c>
@@ -4410,7 +4431,7 @@
       <c r="M37" s="57"/>
       <c r="N37" s="70"/>
       <c r="O37" s="70"/>
-      <c r="P37" s="123"/>
+      <c r="P37" s="121"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4430,8 +4451,8 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="111"/>
-      <c r="B38" s="115"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="16" t="s">
         <v>67</v>
       </c>
@@ -4439,7 +4460,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="41"/>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="80" t="s">
         <v>98</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -4453,7 +4474,7 @@
       <c r="M38" s="57"/>
       <c r="N38" s="70"/>
       <c r="O38" s="70"/>
-      <c r="P38" s="123"/>
+      <c r="P38" s="121"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4473,16 +4494,16 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="111"/>
-      <c r="B39" s="125" t="s">
+      <c r="A39" s="139"/>
+      <c r="B39" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="124"/>
+      <c r="D39" s="78" t="s">
         <v>85</v>
       </c>
       <c r="E39" s="41"/>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="80" t="s">
         <v>96</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -4498,7 +4519,7 @@
       <c r="O39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P39" s="123"/>
+      <c r="P39" s="121"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4518,16 +4539,16 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="111"/>
-      <c r="B40" s="127" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="128"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="41"/>
-      <c r="F40" s="81" t="s">
+      <c r="F40" s="80" t="s">
         <v>93</v>
       </c>
       <c r="G40" s="14" t="s">
@@ -4548,8 +4569,10 @@
       <c r="N40" s="15">
         <v>4</v>
       </c>
-      <c r="O40" s="71"/>
-      <c r="P40" s="123"/>
+      <c r="O40" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P40" s="121"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4568,17 +4591,17 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="83.25" customHeight="1">
-      <c r="A41" s="112"/>
-      <c r="B41" s="127" t="s">
+    <row r="41" spans="1:33" ht="111" customHeight="1">
+      <c r="A41" s="140"/>
+      <c r="B41" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="D41" s="80" t="s">
+      <c r="C41" s="126"/>
+      <c r="D41" s="79" t="s">
         <v>86</v>
       </c>
       <c r="E41" s="41"/>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="80" t="s">
         <v>93</v>
       </c>
       <c r="G41" s="14" t="s">
@@ -4599,10 +4622,10 @@
       <c r="N41" s="15">
         <v>3</v>
       </c>
-      <c r="O41" s="100" t="s">
+      <c r="O41" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="P41" s="124"/>
+      <c r="P41" s="122"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -12474,15 +12497,14 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B29:B30"/>
@@ -12494,14 +12516,15 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12528,8 +12551,8 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="83"/>
+    <row r="2" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="82"/>
       <c r="C2" s="60" t="s">
         <v>41</v>
       </c>
@@ -12538,8 +12561,8 @@
       </c>
       <c r="E2" s="67"/>
     </row>
-    <row r="3" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="85" t="s">
+    <row r="3" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="84" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="61" t="s">
@@ -12552,8 +12575,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="85" t="s">
+    <row r="4" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="84" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="61" t="s">
@@ -12564,8 +12587,8 @@
       </c>
       <c r="E4" s="63"/>
     </row>
-    <row r="5" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="85" t="s">
+    <row r="5" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="84" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="61" t="s">
@@ -12576,7 +12599,7 @@
       </c>
       <c r="E5" s="63"/>
     </row>
-    <row r="6" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
+    <row r="6" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="66" t="s">
         <v>89</v>
       </c>
@@ -12590,8 +12613,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="84" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="84" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="61" t="s">

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="154">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1147,30 +1142,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user_w_ht_best_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_best_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_ht_previous_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_previous_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_ht_upcoming_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_upcoming_projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>user_w_ht_report</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1412,6 +1383,18 @@
   </si>
   <si>
     <t>user_w_sh_main_chat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_projects_list</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_projects_list</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_ht_report</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1547,7 +1530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2133,11 +2116,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2434,6 +2428,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2452,112 +2542,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2777,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2794,7 +2797,7 @@
     <col min="13" max="13" width="44" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="32.28515625" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
@@ -2834,22 +2837,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="134"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2871,20 +2874,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -3010,44 +3013,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" s="107" t="s">
+      <c r="M7" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="109" t="s">
+      <c r="O7" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="109" t="s">
+      <c r="P7" s="116" t="s">
         <v>72</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3069,12 +3072,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="106"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -3084,11 +3087,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3108,11 +3111,11 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="54" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="54" t="s">
         <v>73</v>
       </c>
@@ -3124,25 +3127,25 @@
         <v>104</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="20"/>
       <c r="K9" s="30"/>
       <c r="L9" s="22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -3163,8 +3166,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -3208,8 +3211,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
@@ -3251,13 +3254,13 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="72">
-      <c r="A12" s="136"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
@@ -3294,8 +3297,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
@@ -3339,8 +3342,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="136"/>
-      <c r="B14" s="127" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="129" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3364,10 +3367,10 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3388,8 +3391,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="136"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="16" t="s">
         <v>55</v>
       </c>
@@ -3411,10 +3414,10 @@
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
       <c r="O15" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3435,20 +3438,20 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="129"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="90" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3458,10 +3461,10 @@
       <c r="M16" s="10"/>
       <c r="N16" s="7"/>
       <c r="O16" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3482,19 +3485,19 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="60">
-      <c r="A17" s="136"/>
-      <c r="B17" s="127" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="129" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>104</v>
@@ -3527,13 +3530,13 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="90" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -3574,10 +3577,10 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="92" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D19" s="91" t="s">
         <v>25</v>
@@ -3596,11 +3599,11 @@
       <c r="L19" s="23"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>108</v>
+      <c r="O19" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="142" t="s">
+        <v>152</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3621,13 +3624,13 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="91" t="s">
         <v>119</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>125</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
@@ -3643,12 +3646,8 @@
       <c r="L20" s="23"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -3668,13 +3667,13 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="91" t="s">
         <v>120</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>126</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -3690,12 +3689,8 @@
       <c r="L21" s="23"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3715,8 +3710,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="15" t="s">
         <v>103</v>
       </c>
@@ -3740,10 +3735,10 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3764,8 +3759,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
@@ -3809,8 +3804,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="16" t="s">
         <v>58</v>
       </c>
@@ -3852,8 +3847,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="136"/>
-      <c r="B25" s="113"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="16" t="s">
         <v>59</v>
       </c>
@@ -3895,8 +3890,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A26" s="136"/>
-      <c r="B26" s="114"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="42" t="s">
         <v>60</v>
       </c>
@@ -3938,7 +3933,7 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A27" s="137"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="26" t="s">
         <v>16</v>
       </c>
@@ -3956,25 +3951,25 @@
         <v>104</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="29"/>
       <c r="K27" s="35"/>
       <c r="L27" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N27" s="71">
         <v>3</v>
       </c>
       <c r="O27" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="P27" s="141" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="P27" s="100" t="s">
+        <v>149</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3995,13 +3990,13 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="134"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="55" t="s">
         <v>28</v>
       </c>
@@ -4013,24 +4008,24 @@
         <v>104</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="47"/>
       <c r="K28" s="48"/>
       <c r="L28" s="38" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="N28" s="34">
         <v>1</v>
       </c>
       <c r="O28" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="P28" s="120"/>
+        <v>129</v>
+      </c>
+      <c r="P28" s="122"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4050,8 +4045,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="139"/>
-      <c r="B29" s="115" t="s">
+      <c r="A29" s="111"/>
+      <c r="B29" s="114" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="94" t="s">
@@ -4075,7 +4070,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="121"/>
+      <c r="P29" s="123"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -4095,8 +4090,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="60">
-      <c r="A30" s="139"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="96" t="s">
         <v>63</v>
       </c>
@@ -4118,7 +4113,7 @@
       <c r="M30" s="33"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="121"/>
+      <c r="P30" s="123"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4138,8 +4133,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="48">
-      <c r="A31" s="139"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="102" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -4163,9 +4158,9 @@
       <c r="M31" s="33"/>
       <c r="N31" s="7"/>
       <c r="O31" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="P31" s="121"/>
+        <v>146</v>
+      </c>
+      <c r="P31" s="123"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4185,20 +4180,20 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="139"/>
-      <c r="B32" s="131"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="90" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -4207,8 +4202,10 @@
       <c r="L32" s="39"/>
       <c r="M32" s="33"/>
       <c r="N32" s="68"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="121"/>
+      <c r="O32" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="123"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4228,8 +4225,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="139"/>
-      <c r="B33" s="132"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="16" t="s">
         <v>65</v>
       </c>
@@ -4251,9 +4248,9 @@
       <c r="M33" s="33"/>
       <c r="N33" s="68"/>
       <c r="O33" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="P33" s="121"/>
+        <v>147</v>
+      </c>
+      <c r="P33" s="123"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4273,7 +4270,7 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="139"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="19" t="s">
         <v>19</v>
       </c>
@@ -4298,9 +4295,9 @@
       <c r="M34" s="77"/>
       <c r="N34" s="16"/>
       <c r="O34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="P34" s="121"/>
+        <v>109</v>
+      </c>
+      <c r="P34" s="123"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4320,8 +4317,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="139"/>
-      <c r="B35" s="118" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="113" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -4345,7 +4342,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="70"/>
-      <c r="P35" s="121"/>
+      <c r="P35" s="123"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4365,8 +4362,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="139"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
@@ -4388,7 +4385,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="70"/>
       <c r="O36" s="70"/>
-      <c r="P36" s="121"/>
+      <c r="P36" s="123"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4408,8 +4405,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="139"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="16" t="s">
         <v>59</v>
       </c>
@@ -4431,7 +4428,7 @@
       <c r="M37" s="57"/>
       <c r="N37" s="70"/>
       <c r="O37" s="70"/>
-      <c r="P37" s="121"/>
+      <c r="P37" s="123"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4451,8 +4448,8 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="139"/>
-      <c r="B38" s="119"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="16" t="s">
         <v>67</v>
       </c>
@@ -4474,7 +4471,7 @@
       <c r="M38" s="57"/>
       <c r="N38" s="70"/>
       <c r="O38" s="70"/>
-      <c r="P38" s="121"/>
+      <c r="P38" s="123"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4494,11 +4491,11 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="139"/>
-      <c r="B39" s="123" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="124"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="78" t="s">
         <v>85</v>
       </c>
@@ -4517,9 +4514,9 @@
       <c r="M39" s="57"/>
       <c r="N39" s="70"/>
       <c r="O39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P39" s="121"/>
+        <v>110</v>
+      </c>
+      <c r="P39" s="123"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4539,11 +4536,11 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="139"/>
-      <c r="B40" s="125" t="s">
+      <c r="A40" s="111"/>
+      <c r="B40" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="126"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="56" t="s">
         <v>33</v>
       </c>
@@ -4555,24 +4552,24 @@
         <v>104</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
       <c r="L40" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N40" s="15">
         <v>4</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="P40" s="121"/>
+        <v>148</v>
+      </c>
+      <c r="P40" s="123"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4592,11 +4589,11 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="111" customHeight="1">
-      <c r="A41" s="140"/>
-      <c r="B41" s="125" t="s">
+      <c r="A41" s="112"/>
+      <c r="B41" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="126"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="79" t="s">
         <v>86</v>
       </c>
@@ -4608,24 +4605,24 @@
         <v>104</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
       <c r="L41" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N41" s="15">
         <v>3</v>
       </c>
       <c r="O41" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="P41" s="122"/>
+        <v>130</v>
+      </c>
+      <c r="P41" s="124"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -12496,15 +12493,16 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B35:B38"/>
+  <mergeCells count="30">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B29:B30"/>
@@ -12516,15 +12514,16 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -11,7 +11,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -576,14 +576,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 제작 회원 (메이커) (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 투자 회원 (서포터) (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>등록 신청 프로젝트 검토 및 승인 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -648,22 +640,6 @@
   </si>
   <si>
     <t>회사 메인 컨셉 소개 및 펀딩 방법 소개 (투자하는 방법, 펀딩 반는 방법, 회원 자격, 투자후 수익/리워드 프로세스)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 관리 - 기본 입력 사항 관리 (아이디, 연락처 등등)
-프로젝트 소개 페이지 연결
-입출금 관리
-사업자 번호 관리
-강제 탈퇴 - 탈퇴한 회원 회색 음영 표시</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 관리 - 기본 입력 사항 관리
-예치금 - 몰수, 부여, 사용제한
-투자 제한 - 간단한 사유 포함
-입출금 및 투자 관리
-강제 탈퇴 - 탈퇴한 회원 회색 음영 표시</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1232,55 +1208,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>제작 프로젝트 관리 페이지 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Dotum"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트 등록 승인시 메이커 회원 자격 획득</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Dotum"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, 자격 획득 전 카테고리 비활성화, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Dotum"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Dotum"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)
-펀딩 한 프로젝트 관리 페이지
-관심 등록 프로젝트 관리 페이지
-회원 정보 변경 페이지 연결
-예치금 관리 페이지 (예치금 충전, 조회)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>user_a_sh_main_1
 user_a_sh_main_2
 user_a_sh_main_3
@@ -1395,6 +1322,34 @@
   </si>
   <si>
     <t>admin_ht_report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 관리 - 기본 입력 사항 관리 (아이디, 연락처 등등)
+회원의 프로젝트 소개페이지 연결
+예치금 입출금 및 투자 관리
+예치금 - 몰수, 부여, 사용제한
+사업자 번호 관리
+불량 회원 투자 제한 - 간단한 사유 포함
+강제 탈퇴 - 탈퇴한 회원 회색 음영 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화, 프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기)
+펀딩 한 프로젝트 관리 페이지
+관심 등록 프로젝트 관리 페이지
+회원 정보 변경 페이지 연결
+예치금 관리 페이지 (예치금 충전, 조회)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 설계 완료
+웹 화면 구현 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 및 모바일 화면 설계 완료
+웹 화면 구현 시작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1405,7 +1360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1490,15 +1445,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,20 +1465,8 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2127,11 +2063,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2398,30 +2371,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2431,18 +2380,111 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2467,101 +2509,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2778,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1004"/>
+  <dimension ref="A1:AG1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2789,7 +2759,7 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.7109375" customWidth="1"/>
+    <col min="4" max="4" width="92.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="11" width="16.85546875" customWidth="1"/>
@@ -2837,22 +2807,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="134"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2874,20 +2844,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -3013,45 +2983,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101" t="s">
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" s="138" t="s">
+      <c r="M7" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="116" t="s">
-        <v>72</v>
+      <c r="O7" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -3072,26 +3042,26 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="101"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
       <c r="H8" s="18">
-        <v>43868</v>
+        <v>43870</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3111,41 +3081,41 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="54" customHeight="1">
-      <c r="A9" s="107"/>
-      <c r="B9" s="120" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="121"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="20"/>
       <c r="K9" s="30"/>
       <c r="L9" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -3166,24 +3136,26 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="131"/>
+      <c r="B10" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="20"/>
       <c r="K10" s="30"/>
@@ -3211,22 +3183,24 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="114"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="21"/>
       <c r="K11" s="30"/>
@@ -3254,22 +3228,24 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="72">
-      <c r="A12" s="108"/>
-      <c r="B12" s="114"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="21"/>
       <c r="K12" s="30"/>
@@ -3297,24 +3273,26 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="21"/>
       <c r="K13" s="30"/>
@@ -3342,24 +3320,26 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="108"/>
-      <c r="B14" s="129" t="s">
+      <c r="A14" s="131"/>
+      <c r="B14" s="120" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="21"/>
       <c r="K14" s="30"/>
@@ -3367,10 +3347,10 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3391,8 +3371,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="108"/>
-      <c r="B15" s="130"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="16" t="s">
         <v>55</v>
       </c>
@@ -3401,12 +3381,14 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="21"/>
       <c r="K15" s="30"/>
@@ -3414,10 +3396,10 @@
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
       <c r="O15" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3438,22 +3420,24 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="108"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="91" t="s">
-        <v>126</v>
+      <c r="A16" s="131"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="21"/>
       <c r="K16" s="30"/>
@@ -3461,10 +3445,10 @@
       <c r="M16" s="10"/>
       <c r="N16" s="7"/>
       <c r="O16" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3485,28 +3469,32 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="60">
-      <c r="A17" s="108"/>
-      <c r="B17" s="129" t="s">
+      <c r="A17" s="131"/>
+      <c r="B17" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>123</v>
+      <c r="C17" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>119</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="21"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="23"/>
+      <c r="L17" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="7"/>
       <c r="O17" s="4"/>
@@ -3530,33 +3518,37 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="108"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>111</v>
+      <c r="A18" s="131"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="137" t="s">
+        <v>107</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="21"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3577,33 +3569,37 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="91" t="s">
+      <c r="A19" s="131"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="137" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I19" s="41"/>
       <c r="J19" s="21"/>
       <c r="K19" s="30"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="P19" s="142" t="s">
-        <v>152</v>
+      <c r="O19" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="P19" s="123" t="s">
+        <v>147</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3624,30 +3620,34 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>119</v>
+      <c r="A20" s="131"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="137" t="s">
+        <v>115</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I20" s="41"/>
       <c r="J20" s="21"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -3667,30 +3667,34 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="108"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>120</v>
+      <c r="A21" s="131"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="137" t="s">
+        <v>116</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I21" s="41"/>
       <c r="J21" s="21"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3710,35 +3714,39 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="108"/>
-      <c r="B22" s="130"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3759,28 +3767,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="131"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="85" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="21"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="M23" s="34"/>
       <c r="N23" s="7"/>
       <c r="O23" s="87"/>
@@ -3804,8 +3816,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="118"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="16" t="s">
         <v>58</v>
       </c>
@@ -3814,12 +3826,14 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="21"/>
       <c r="K24" s="30"/>
@@ -3847,8 +3861,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="108"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="16" t="s">
         <v>59</v>
       </c>
@@ -3857,12 +3871,14 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="21"/>
       <c r="K25" s="30"/>
@@ -3890,22 +3906,24 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A26" s="108"/>
-      <c r="B26" s="119"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="42" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="21"/>
       <c r="K26" s="30"/>
@@ -3933,7 +3951,7 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A27" s="109"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="26" t="s">
         <v>16</v>
       </c>
@@ -3945,31 +3963,31 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="29"/>
       <c r="K27" s="35"/>
       <c r="L27" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N27" s="71">
         <v>3</v>
       </c>
       <c r="O27" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="P27" s="100" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="P27" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3990,42 +4008,42 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="106"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="55" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>132</v>
+        <v>100</v>
+      </c>
+      <c r="H28" s="143" t="s">
+        <v>127</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="47"/>
       <c r="K28" s="48"/>
       <c r="L28" s="38" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N28" s="34">
         <v>1</v>
       </c>
-      <c r="O28" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="P28" s="122"/>
+      <c r="O28" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="113"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4044,25 +4062,25 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="111"/>
-      <c r="B29" s="114" t="s">
+    <row r="29" spans="1:33" ht="93.75" customHeight="1">
+      <c r="A29" s="134"/>
+      <c r="B29" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="95" t="s">
-        <v>79</v>
+      <c r="C29" s="140"/>
+      <c r="D29" s="142" t="s">
+        <v>149</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I29" s="14"/>
       <c r="J29" s="20"/>
       <c r="K29" s="36"/>
@@ -4070,7 +4088,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="123"/>
+      <c r="P29" s="114"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -4089,31 +4107,37 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="60">
-      <c r="A30" s="111"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="97" t="s">
-        <v>80</v>
+    <row r="30" spans="1:33" ht="48">
+      <c r="A30" s="134"/>
+      <c r="B30" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="21"/>
       <c r="K30" s="30"/>
       <c r="L30" s="39"/>
       <c r="M30" s="33"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="123"/>
+      <c r="O30" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P30" s="114"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4132,35 +4156,35 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="48">
-      <c r="A31" s="111"/>
-      <c r="B31" s="102" t="s">
-        <v>18</v>
-      </c>
+    <row r="31" spans="1:33" ht="48" customHeight="1">
+      <c r="A31" s="134"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="21"/>
       <c r="K31" s="30"/>
       <c r="L31" s="39"/>
       <c r="M31" s="33"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="P31" s="123"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="114"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4180,32 +4204,36 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="111"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="93" t="s">
-        <v>118</v>
+      <c r="A32" s="134"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="141" t="s">
+        <v>114</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="21"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="39"/>
+      <c r="L32" s="39" t="s">
+        <v>151</v>
+      </c>
       <c r="M32" s="33"/>
       <c r="N32" s="68"/>
       <c r="O32" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="P32" s="123"/>
+        <v>148</v>
+      </c>
+      <c r="P32" s="114"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4225,32 +4253,38 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="111"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74" t="s">
+        <v>92</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="P33" s="123"/>
+      <c r="L33" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="M33" s="77"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" s="114"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4270,34 +4304,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74" t="s">
-        <v>96</v>
+      <c r="A34" s="134"/>
+      <c r="B34" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="30"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="77"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P34" s="123"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="114"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4317,32 +4351,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>82</v>
+      <c r="A35" s="134"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="s">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="70"/>
       <c r="O35" s="70"/>
-      <c r="P35" s="123"/>
+      <c r="P35" s="114"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4362,22 +4396,24 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="111"/>
-      <c r="B36" s="114"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
@@ -4385,7 +4421,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="70"/>
       <c r="O36" s="70"/>
-      <c r="P36" s="123"/>
+      <c r="P36" s="114"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4405,30 +4441,32 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="111"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16" t="s">
-        <v>98</v>
+        <v>32</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="80" t="s">
+        <v>94</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
       <c r="L37" s="16"/>
       <c r="M37" s="57"/>
       <c r="N37" s="70"/>
       <c r="O37" s="70"/>
-      <c r="P37" s="123"/>
+      <c r="P37" s="114"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4448,30 +4486,36 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="111"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>32</v>
+      <c r="A38" s="134"/>
+      <c r="B38" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="117"/>
+      <c r="D38" s="78" t="s">
+        <v>81</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="41"/>
+        <v>100</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>127</v>
+      </c>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="16"/>
+      <c r="L38" s="39" t="s">
+        <v>151</v>
+      </c>
       <c r="M38" s="57"/>
       <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="123"/>
+      <c r="O38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P38" s="114"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4491,32 +4535,40 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="111"/>
-      <c r="B39" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="78" t="s">
-        <v>85</v>
+      <c r="A39" s="134"/>
+      <c r="B39" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="80" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+        <v>100</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="15"/>
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P39" s="123"/>
+      <c r="L39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N39" s="15">
+        <v>4</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P39" s="114"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4535,41 +4587,41 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="111"/>
-      <c r="B40" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="56" t="s">
-        <v>33</v>
+    <row r="40" spans="1:33" ht="111" customHeight="1">
+      <c r="A40" s="135"/>
+      <c r="B40" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="119"/>
+      <c r="D40" s="79" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="80" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
       <c r="L40" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N40" s="15">
-        <v>4</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="P40" s="123"/>
+        <v>3</v>
+      </c>
+      <c r="O40" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" s="115"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4588,41 +4640,17 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="111" customHeight="1">
-      <c r="A41" s="112"/>
-      <c r="B41" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="128"/>
-      <c r="D41" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N41" s="15">
-        <v>3</v>
-      </c>
-      <c r="O41" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="P41" s="124"/>
+    <row r="41" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4670,14 +4698,20 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1">
+    <row r="43" spans="1:33" ht="12.75">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="M43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4699,19 +4733,26 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75">
+    <row r="44" spans="1:33" ht="24">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="44"/>
+      <c r="F44" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4734,26 +4775,22 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="24">
+    <row r="45" spans="1:33" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I45" s="63"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4782,16 +4819,17 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G46" s="61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H46" s="61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I46" s="63"/>
-      <c r="L46" s="11"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4819,16 +4857,18 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="64" t="s">
-        <v>92</v>
+      <c r="F47" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" s="63"/>
+        <v>93</v>
+      </c>
+      <c r="I47" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4858,18 +4898,16 @@
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="F48" s="43" t="s">
-        <v>89</v>
+      <c r="F48" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="G48" s="61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="63" t="s">
-        <v>47</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I48" s="63"/>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1"/>
@@ -4899,16 +4937,11 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="F49" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49" s="63"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4977,8 +5010,9 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5006,7 +5040,6 @@
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -5076,7 +5109,9 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -5111,7 +5146,7 @@
       <c r="D55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -5147,7 +5182,7 @@
       <c r="D56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -5181,9 +5216,10 @@
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5220,7 +5256,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -5256,9 +5292,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -11691,41 +11725,7 @@
       <c r="AF242" s="1"/>
       <c r="AG242" s="1"/>
     </row>
-    <row r="243" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A243" s="1"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
-      <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="V243" s="1"/>
-      <c r="W243" s="1"/>
-      <c r="X243" s="1"/>
-      <c r="Y243" s="1"/>
-      <c r="Z243" s="1"/>
-      <c r="AA243" s="1"/>
-      <c r="AB243" s="1"/>
-      <c r="AC243" s="1"/>
-      <c r="AD243" s="1"/>
-      <c r="AE243" s="1"/>
-      <c r="AF243" s="1"/>
-      <c r="AG243" s="1"/>
-    </row>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
@@ -12486,14 +12486,34 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P41">
+  <autoFilter ref="A7:P40">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="P28:P40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="O19:O21"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -12503,27 +12523,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="P28:P41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12562,7 +12561,7 @@
     </row>
     <row r="3" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="B3" s="84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>36</v>
@@ -12576,7 +12575,7 @@
     </row>
     <row r="4" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="B4" s="84" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>37</v>
@@ -12588,7 +12587,7 @@
     </row>
     <row r="5" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="B5" s="84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>38</v>
@@ -12600,13 +12599,13 @@
     </row>
     <row r="6" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>19</v>
@@ -12614,7 +12613,7 @@
     </row>
     <row r="7" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="B7" s="84" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>23</v>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -11,7 +11,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$10:$P$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -284,10 +284,6 @@
   <si>
     <t>관리자 로그인
 - 관리자 ID, 관리자 PASSWORD 입력</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>키워드, 카테고리별 조회수 및 투자 금액, 프로젝트별 조회수 및 투자 금액 등을 조회하여 향후 웹 운영에 필요한 정보 수집</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -518,60 +514,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>펀딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방법</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅 상담 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -580,19 +522,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리 관리 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 관리 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩하는 방법 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 관리 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -659,12 +589,6 @@
   </si>
   <si>
     <t>프로젝트 카테고리 등록, 수정 및 삭제, 금지어 설정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예치금 몰수, 부여 관리
-프로젝트 별 결제 현황, 결제 진행 현황 확인
-(펀딩성공-결제대기/펀딩성공-결제완료/펀딩실패-락업해제대기/펀딩실패-락업해제완료)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1130,10 +1054,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>admin_ht_payment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리별로 프로젝트를 조회
 - IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
 - 프로젝트 상세페이지로 연결</t>
@@ -1233,14 +1153,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>웹화면 구현완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹화면 구현 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>웹화면구현시작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1322,6 +1234,94 @@
   </si>
   <si>
     <t>admin_ht_report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화, 프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기)
+펀딩 한 프로젝트 관리 페이지
+관심 등록 프로젝트 관리 페이지
+회원 정보 변경 페이지 연결
+예치금 관리 페이지 (예치금 충전, 조회)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 설계 완료
+웹 화면 구현 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 및 모바일 화면 설계 완료
+웹 화면 구현 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펀딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; FAQ (1)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩하는 방법 &amp; FAQ (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 현황 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자율 확인, 프로젝트 별 결제 현황 확인, 유사시 프로젝트 중단 등의 기능</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1335,21 +1335,33 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화, 프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기)
-펀딩 한 프로젝트 관리 페이지
-관심 등록 프로젝트 관리 페이지
-회원 정보 변경 페이지 연결
-예치금 관리 페이지 (예치금 충전, 조회)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 화면 설계 완료
-웹 화면 구현 시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 및 모바일 화면 설계 완료
-웹 화면 구현 시작</t>
+    <t>키워드, 카테고리별 조회수 및 투자 금액
+프로젝트별 조회수 및 투자 금액 등을 조회하여 향후 웹 운영에 필요한 정보 수집</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스 설계 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 작업 일정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 화면
+LAYOUT 작업 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1446,7 +1458,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1465,8 +1477,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1766,19 +1784,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1873,19 +1878,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -2090,13 +2082,24 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="double">
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2104,7 +2107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2190,9 +2193,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2232,22 +2232,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2268,118 +2262,226 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2398,139 +2500,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2748,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1003"/>
+  <dimension ref="A1:AG1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2762,7 +2762,10 @@
     <col min="4" max="4" width="92.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="11" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
@@ -2807,22 +2810,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="95"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2844,20 +2847,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2919,8 +2922,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="140"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2954,8 +2959,12 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="141">
+        <v>43865</v>
+      </c>
+      <c r="H6" s="142" t="s">
+        <v>150</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2982,47 +2991,27 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="102" t="s">
-        <v>70</v>
-      </c>
+    <row r="7" spans="1:33" ht="19.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="141">
+        <v>43871</v>
+      </c>
+      <c r="H7" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -3041,27 +3030,27 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="18">
-        <v>43865</v>
-      </c>
-      <c r="H8" s="18">
-        <v>43870</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
+    <row r="8" spans="1:33" ht="19.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="141">
+        <v>43874</v>
+      </c>
+      <c r="H8" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3080,43 +3069,23 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="54" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>123</v>
-      </c>
+    <row r="9" spans="1:33" ht="19.5" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -3135,35 +3104,47 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="131"/>
-      <c r="B10" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+    <row r="10" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A10" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="132" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="109" t="s">
+        <v>65</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -3182,33 +3163,29 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="4"/>
+    <row r="11" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="18">
+        <v>43865</v>
+      </c>
+      <c r="H11" s="18">
+        <v>43871</v>
+      </c>
+      <c r="I11" s="18">
+        <v>43874</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3227,33 +3204,41 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="72">
-      <c r="A12" s="131"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>90</v>
+    <row r="12" spans="1:33" ht="54" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="H12" s="136"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -3273,34 +3258,32 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="131"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>90</v>
+      <c r="A13" s="99"/>
+      <c r="B13" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
+        <v>94</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3319,39 +3302,31 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="131"/>
-      <c r="B14" s="120" t="s">
-        <v>21</v>
-      </c>
+    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A14" s="99"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -3370,37 +3345,31 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="131"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>34</v>
+    <row r="15" spans="1:33" ht="72">
+      <c r="A15" s="99"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="10"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3420,36 +3389,32 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F16" s="6" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="30"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3468,37 +3433,37 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="60">
-      <c r="A17" s="131"/>
+    <row r="17" spans="1:33" ht="48">
+      <c r="A17" s="99"/>
       <c r="B17" s="120" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="136" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>119</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -3517,38 +3482,34 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="131"/>
+    <row r="18" spans="1:33" ht="48">
+      <c r="A18" s="99"/>
       <c r="B18" s="121"/>
-      <c r="C18" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="137" t="s">
-        <v>107</v>
+      <c r="C18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" s="7"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>102</v>
+      <c r="O18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3569,37 +3530,33 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="131"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="137" t="s">
-        <v>25</v>
+      <c r="A19" s="99"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>115</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="41"/>
+        <v>106</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="7"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="123" t="s">
-        <v>146</v>
-      </c>
-      <c r="P19" s="123" t="s">
-        <v>147</v>
+      <c r="O19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3619,35 +3576,39 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="131"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="137" t="s">
-        <v>115</v>
+    <row r="20" spans="1:33" ht="60">
+      <c r="A20" s="99"/>
+      <c r="B20" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>112</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="41"/>
+        <v>154</v>
+      </c>
+      <c r="I20" s="136" t="s">
+        <v>155</v>
+      </c>
       <c r="J20" s="21"/>
-      <c r="K20" s="30"/>
+      <c r="K20" s="29"/>
       <c r="L20" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="M20" s="10"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -3667,34 +3628,36 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="121"/>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="137" t="s">
-        <v>116</v>
+      <c r="D21" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="41"/>
+        <v>94</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
+      <c r="O21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3714,39 +3677,35 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="131"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="121"/>
-      <c r="C22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>98</v>
-      </c>
+      <c r="C22" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>104</v>
+      <c r="O22" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="123" t="s">
+        <v>138</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3767,36 +3726,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="131"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>92</v>
+      <c r="A23" s="99"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" s="34"/>
+        <v>142</v>
+      </c>
+      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3816,32 +3771,32 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="131"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12" t="s">
+      <c r="A24" s="99"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="10"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3861,32 +3816,42 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="131"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="H25" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="I25" s="136" t="s">
+        <v>155</v>
+      </c>
       <c r="J25" s="21"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="24"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="24" t="s">
+        <v>142</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="4"/>
+      <c r="O25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3906,32 +3871,34 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A26" s="131"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="12" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="3"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="10"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="33"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3950,45 +3917,31 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A27" s="132"/>
-      <c r="B27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="N27" s="71">
-        <v>3</v>
-      </c>
-      <c r="O27" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="P27" s="92" t="s">
-        <v>144</v>
-      </c>
+    <row r="27" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A27" s="99"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -4007,43 +3960,31 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A28" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
-        <v>89</v>
+    <row r="28" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A28" s="99"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="143" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="N28" s="34">
-        <v>1</v>
-      </c>
-      <c r="O28" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="P28" s="113"/>
+        <v>94</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4062,33 +4003,31 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="93.75" customHeight="1">
-      <c r="A29" s="134"/>
-      <c r="B29" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="142" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25" t="s">
-        <v>90</v>
+    <row r="29" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A29" s="99"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="114"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -4107,37 +4046,43 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="134"/>
-      <c r="B30" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="P30" s="114"/>
+    <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A30" s="100"/>
+      <c r="B30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="68">
+        <v>3</v>
+      </c>
+      <c r="O30" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" s="87" t="s">
+        <v>135</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4156,35 +4101,41 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="48" customHeight="1">
-      <c r="A31" s="134"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>91</v>
+    <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
+      <c r="A31" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="97"/>
+      <c r="D31" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="P31" s="114"/>
+        <v>94</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="33">
+        <v>1</v>
+      </c>
+      <c r="O31" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" s="115"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4203,37 +4154,31 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="134"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>112</v>
+    <row r="32" spans="1:33" ht="93.75" customHeight="1">
+      <c r="A32" s="102"/>
+      <c r="B32" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="33"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="P32" s="114"/>
+        <v>94</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="116"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4252,39 +4197,35 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="134"/>
-      <c r="B33" s="19" t="s">
-        <v>19</v>
+    <row r="33" spans="1:33" ht="48">
+      <c r="A33" s="102"/>
+      <c r="B33" s="94" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="M33" s="77"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="P33" s="114"/>
+        <v>94</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P33" s="116"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4303,35 +4244,35 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="134"/>
-      <c r="B34" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
+    <row r="34" spans="1:33" ht="48" customHeight="1">
+      <c r="A34" s="102"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="114"/>
+      <c r="H34" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="116"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4350,33 +4291,33 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="134"/>
-      <c r="B35" s="108"/>
+    <row r="35" spans="1:33" ht="48" customHeight="1">
+      <c r="A35" s="102"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="114"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="P35" s="116"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4396,32 +4337,38 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="134"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
-        <v>94</v>
+      <c r="A36" s="102"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="114"/>
+        <v>154</v>
+      </c>
+      <c r="I36" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M36" s="32"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" s="116"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4441,32 +4388,40 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="134"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C37" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="114"/>
+        <v>154</v>
+      </c>
+      <c r="I37" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" s="72"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="73"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="116"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4486,36 +4441,32 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="134"/>
-      <c r="B38" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="117"/>
-      <c r="D38" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="80" t="s">
-        <v>92</v>
+      <c r="A38" s="102"/>
+      <c r="B38" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="M38" s="57"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P38" s="114"/>
+        <v>94</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="116"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4535,40 +4486,30 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="134"/>
-      <c r="B39" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="80" t="s">
-        <v>89</v>
+      <c r="A39" s="102"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N39" s="15">
-        <v>4</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="P39" s="114"/>
+        <v>94</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="116"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4587,41 +4528,31 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="111" customHeight="1">
-      <c r="A40" s="135"/>
-      <c r="B40" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="80" t="s">
-        <v>89</v>
+    <row r="40" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A40" s="102"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N40" s="15">
-        <v>3</v>
-      </c>
-      <c r="O40" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="P40" s="115"/>
+        <v>94</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="116"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4640,17 +4571,31 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+    <row r="41" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A41" s="102"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="116"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4669,17 +4614,39 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+    <row r="42" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A42" s="102"/>
+      <c r="B42" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="119"/>
+      <c r="D42" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N42" s="15">
+        <v>4</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P42" s="116"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4698,23 +4665,39 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="44"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+    <row r="43" spans="1:33" ht="101.25" customHeight="1">
+      <c r="A43" s="103"/>
+      <c r="B43" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="119"/>
+      <c r="D43" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" s="15">
+        <v>3</v>
+      </c>
+      <c r="O43" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" s="117"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4733,27 +4716,14 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="24">
+    <row r="44" spans="1:33" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="F44" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="M44" s="2"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -4778,20 +4748,11 @@
     <row r="45" spans="1:33" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="F45" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="63"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4813,23 +4774,19 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1">
+    <row r="46" spans="1:33" ht="12.75">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" s="63"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="43"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4852,25 +4809,26 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1">
+    <row r="47" spans="1:33" ht="24">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" s="63" t="s">
+      <c r="F47" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -4898,18 +4856,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="F48" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="63"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="2"/>
+      <c r="F48" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="60"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4937,11 +4894,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="F49" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="60"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4971,11 +4933,18 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="F50" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="1"/>
@@ -5005,14 +4974,18 @@
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="1"/>
+      <c r="F51" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="60"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5040,13 +5013,13 @@
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -5074,13 +5047,13 @@
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="2"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -5108,10 +5081,9 @@
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -5145,9 +5117,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -5181,9 +5151,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -5216,10 +5184,9 @@
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5253,10 +5220,9 @@
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -5290,9 +5256,10 @@
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -5327,7 +5294,9 @@
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -5362,7 +5331,9 @@
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -11725,9 +11696,111 @@
       <c r="AF242" s="1"/>
       <c r="AG242" s="1"/>
     </row>
-    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
+    <row r="244" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="X244" s="1"/>
+      <c r="Y244" s="1"/>
+      <c r="Z244" s="1"/>
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
+      <c r="AD244" s="1"/>
+      <c r="AE244" s="1"/>
+      <c r="AF244" s="1"/>
+      <c r="AG244" s="1"/>
+    </row>
+    <row r="245" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+      <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
+      <c r="AD245" s="1"/>
+      <c r="AE245" s="1"/>
+      <c r="AF245" s="1"/>
+      <c r="AG245" s="1"/>
+    </row>
     <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="247" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="248" spans="1:33" ht="15.75" customHeight="1"/>
@@ -12486,43 +12559,46 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P40">
+  <autoFilter ref="A10:P43">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A40"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="P28:P40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="O19:O21"/>
     <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="P31:P43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12549,79 +12625,79 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="82"/>
-      <c r="C2" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="60" t="s">
+    <row r="2" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="77"/>
+      <c r="C2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="67"/>
-    </row>
-    <row r="3" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D4" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="84" t="s">
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="63"/>
-    </row>
-    <row r="5" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="6" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B6" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="83" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="61" t="s">
+    <row r="7" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -99,9 +99,545 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>게시판 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 가장 이슈가 되는 프로젝트 확인
+- 조회수순, 투자 금액순
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 이슈 및 회사 운영 관련 공지사항</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금한 사항을 질문하고 관리자로부터 답변을 받는 게시판
+- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인
+- 관리자 ID, 관리자 PASSWORD 입력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록, 수정 및 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 게시글 답변 등록, 수정 및 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 방법 등록, 수정 및 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">펀딩 받은 프로젝트에서 상품으로 돌려주는 프로젝트
+- 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 리워드 세부내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자와의 실시간 채팅을 통한 상담 (로그인 필수)
+- 모든 페이지 오른쪽 하단 플로팅 배너</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 및 실시간 채팅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 회원 프로젝트 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터 회원 프로젝트 펀딩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 관리
+메인화면 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 (5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치금 관리 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면) (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면) (1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트 등록 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 상담 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면코드(WEB)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면코드(MOBILE)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 연결, 회원 가입 연결, 펀딩 하는 방법 확인
+실시간 베스트 프로젝트(모금액 기준) 노출, 다가올 펀딩 미리보기 노출, 신규 펀딩
+프로젝트 홍보를 위한 스크롤링 배너
+프로젝트 검색</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 로그인 - 아이디 비밀번호 입력
+소셜 로그인 - 네이버, 카카오, 구글, 페이스북</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일 사업자 등록번호 입력, 관심 카테고리 등록, 계좌 정보
+소셜 로그인을 위한 회원 가입 창으로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">펀딩 받은 프로젝트에서 발생한 수익률 대비 수익금으로 돌려주는 프로젝트
+- 업체명, 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 카테고리, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정
+관심프로젝트로 등록한 프로젝트에는 프로젝트 제목 옆에 별표 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 메인 컨셉 소개 및 펀딩 방법 소개 (투자하는 방법, 펀딩 반는 방법, 회원 자격, 투자후 수익/리워드 프로세스)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청한 프로젝트를 검토한 후 승인 여부 지정
+프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
+승인/보류/승인거절 버튼
+알림 보내기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지어 설정, 이용제한 계정 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 카테고리 등록, 수정 및 삭제, 금지어 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 프로젝트 신고 (제목과 신고 내용, 증거자료), 장난식으로 등록된 프로젝트 포함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>용승</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>용승</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터 회원으로서 펀딩 하는데 사용될 금액 충전 및 입,출금 등 거래내역 조회</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 내에 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업창으로 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 신고 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_category_menu
+user_w_ht_category_main
+user_w_ht_projects_detail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_category_menu
+user_m_ht_category_main
+user_m_ht_projects_detail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_ht_statistics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별로 프로젝트를 조회
+- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 프로젝트 관리(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 접수 된 프로젝트의 신고내용 확인
+신고 처리를 위한 버튼 - 반려처리, 프로젝트 삭제, 프로젝트 제제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
+근소한 차이로 목표금액 달성하지 못한 프로젝트 노출
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별로 프로젝트를 조회
+- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
+- 카테고리별 베스트 프로젝트, 진행중인 프로젝트, 지나간 프로젝트, 다가올 프로젝트
+프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
+- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 중 현재 진행 중인 프로젝트, 다가올 프로젝트 내용 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_a_sh_main_1
+user_a_sh_main_2
+user_a_sh_main_3
+user_a_sh_main_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_login
+admin_w_sh_main</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_umain_silde
+admin_w_sh_umain_popup
+admin_w_sh_umain_recommend
+admin_w_sh_umain_security
+admin_w_sh_umain_reward
+admin_w_sh_usermain_new</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 이슈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면구현시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_sh_main_1
+user_w_sh_main_2
+user_w_sh_main_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_make_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_make_invest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_hj_make_invest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_hj_make_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_hj_edit_invest
+user_w_hj_edit_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_hj_edit_invest
+user_m_hj_edit_reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_hj_admit_project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_hj_edit_category</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_sh_chat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_a_sh_chat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_sh_main_chat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_projects_list</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_projects_list</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_ht_report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화, 프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기)
+펀딩 한 프로젝트 관리 페이지
+관심 등록 프로젝트 관리 페이지
+회원 정보 변경 페이지 연결
+예치금 관리 페이지 (예치금 충전, 조회)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 설계 완료
+웹 화면 구현 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 및 모바일 화면 설계 완료
+웹 화면 구현 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 현황 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자율 확인, 프로젝트 별 결제 현황 확인, 유사시 프로젝트 중단 등의 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 관리 - 기본 입력 사항 관리 (아이디, 연락처 등등)
+회원의 프로젝트 소개페이지 연결
+예치금 입출금 및 투자 관리
+예치금 - 몰수, 부여, 사용제한
+사업자 번호 관리
+불량 회원 투자 제한 - 간단한 사유 포함
+강제 탈퇴 - 탈퇴한 회원 회색 음영 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드, 카테고리별 조회수 및 투자 금액
+프로젝트별 조회수 및 투자 금액 등을 조회하여 향후 웹 운영에 필요한 정보 수집</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스 설계 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 작업 일정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 화면
+LAYOUT 작업 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관련
+자유 게시판 및
+토론 게시판 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -111,7 +647,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -120,7 +656,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -131,7 +667,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -140,7 +676,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -150,7 +686,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -159,7 +695,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -169,7 +705,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -181,7 +717,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -191,7 +727,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -200,7 +736,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -211,7 +747,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -220,7 +756,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -230,7 +766,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -239,7 +775,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -249,7 +785,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -259,49 +795,80 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 관련</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 가장 이슈가 되는 프로젝트 확인
-- 조회수순, 투자 금액순
-- 프로젝트 상세페이지로 연결</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근 이슈 및 회사 운영 관련 공지사항</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁금한 사항을 질문하고 관리자로부터 답변을 받는 게시판
-- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그인
-- 관리자 ID, 관리자 PASSWORD 입력</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 등록, 수정 및 삭제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A 게시글 답변 등록, 수정 및 삭제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩 방법 등록, 수정 및 삭제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능으로서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요
+웹페이지는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마이페이지에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -311,7 +878,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -320,7 +887,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -330,7 +897,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -339,7 +906,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -349,7 +916,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -358,7 +925,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -368,7 +935,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -377,7 +944,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -387,7 +954,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -396,7 +963,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -407,194 +974,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">펀딩 받은 프로젝트에서 상품으로 돌려주는 프로젝트
-- 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 리워드 세부내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자와의 실시간 채팅을 통한 상담 (로그인 필수)
-- 모든 페이지 오른쪽 하단 플로팅 배너</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 및 실시간 채팅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 관련</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이커 회원 프로젝트 등록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터 회원 프로젝트 펀딩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 관련</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 채팅 관리
-메인화면 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 (5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예치금 관리 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 (진입 화면) (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자 펀딩 프로젝트 등록 (3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>리워드 펀딩 프로젝트 등록 (3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 (진입 화면) (1+1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심 프로젝트 등록 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 상담 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 신청 프로젝트 검토 및 승인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계 관리 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 채팅 관리 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 관리 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면코드(WEB)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면코드(MOBILE)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지 연결, 회원 가입 연결, 펀딩 하는 방법 확인
-실시간 베스트 프로젝트(모금액 기준) 노출, 다가올 펀딩 미리보기 노출, 신규 펀딩
-프로젝트 홍보를 위한 스크롤링 배너
-프로젝트 검색</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 로그인 - 아이디 비밀번호 입력
-소셜 로그인 - 네이버, 카카오, 구글, 페이스북</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일 사업자 등록번호 입력, 관심 카테고리 등록, 계좌 정보
-소셜 로그인을 위한 회원 가입 창으로 연결</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">펀딩 받은 프로젝트에서 발생한 수익률 대비 수익금으로 돌려주는 프로젝트
-- 업체명, 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 카테고리, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정
-관심프로젝트로 등록한 프로젝트에는 프로젝트 제목 옆에 별표 표시</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 메인 컨셉 소개 및 펀딩 방법 소개 (투자하는 방법, 펀딩 반는 방법, 회원 자격, 투자후 수익/리워드 프로세스)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 신청한 프로젝트를 검토한 후 승인 여부 지정
-프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
-승인/보류/승인거절 버튼
-알림 보내기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>금지어 설정, 이용제한 계정 설정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 카테고리 등록, 수정 및 삭제, 금지어 설정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -604,7 +986,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -613,7 +995,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -623,7 +1005,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -632,7 +1014,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -642,7 +1024,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -651,7 +1033,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -661,7 +1043,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -670,7 +1052,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -680,7 +1062,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -689,7 +1071,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -699,7 +1081,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -708,7 +1090,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -718,7 +1100,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -727,7 +1109,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -737,7 +1119,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -746,7 +1128,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -756,7 +1138,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -765,7 +1147,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -775,7 +1157,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -784,7 +1166,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -795,7 +1177,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -804,7 +1186,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -814,7 +1196,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -823,7 +1205,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -833,7 +1215,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -842,7 +1224,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -852,7 +1234,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -861,7 +1243,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -871,7 +1253,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -880,7 +1262,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -891,373 +1273,54 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>불량 프로젝트 신고 (제목과 신고 내용, 증거자료), 장난식으로 등록된 프로젝트 포함</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>서희</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>현태</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>기범</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>용승</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>형준</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>서희</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>용승</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>형준</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>현태</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>기범</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터 회원으로서 펀딩 하는데 사용될 금액 충전 및 입,출금 등 거래내역 조회</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 내에 구현</t>
+    <t>리워드 펀딩 프로젝트
+등록 (3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 펀딩 프로젝트
+등록 (3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청 프로젝트
+검토 및 승인 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세
+메인 화면 (1+1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별
+프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트
+수정(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트 프로젝트
+확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나간 프로젝트
+확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가올 펀딩
+미리 보기 (-)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능으로서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필요
-웹페이지는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마이페이지에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업창으로 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 신고 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_ht_category_menu
-user_w_ht_category_main
-user_w_ht_projects_detail</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_category_menu
-user_m_ht_category_main
-user_m_ht_projects_detail</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_ht_report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_ht_statistics</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별로 프로젝트를 조회
-- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
-- 프로젝트 상세페이지로 연결</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스트 프로젝트 확인 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나간 프로젝트 확인 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가올 펀딩 미리 보기 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 프로젝트 관리(1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>현태</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 접수 된 프로젝트의 신고내용 확인
-신고 처리를 위한 버튼 - 반려처리, 프로젝트 삭제, 프로젝트 제제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거 프로젝트 조회 (목표 금액 도달 여보 무관하게 모든 프로젝트 검색 가능)
-근소한 차이로 목표금액 달성하지 못한 프로젝트 노출
-- 프로젝트 상세페이지로 연결</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)
-- 프로젝트 상세페이지로 연결</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 프로젝트 확인 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 상세 메인 화면 (1+1+1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별로 프로젝트를 조회
-- IT, 가전, 가구 패션, 뷰티, 푸드, 여행, 레저, 스포츠, 반려동물, 음악 저작권, 영화
-- 카테고리별 베스트 프로젝트, 진행중인 프로젝트, 지나간 프로젝트, 다가올 프로젝트
-프로젝트 관련하여 의견 등록 및 답글을 달 수 있는 게시판 형식 (투자자 직접 답변 가능)
-- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록한 프로젝트 수정(3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>형준</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록한 프로젝트 중 현재 진행 중인 프로젝트, 다가올 프로젝트 내용 수정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_a_sh_main_1
-user_a_sh_main_2
-user_a_sh_main_3
-user_a_sh_main_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_w_sh_login
-admin_w_sh_main</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_w_sh_umain_silde
-admin_w_sh_umain_popup
-admin_w_sh_umain_recommend
-admin_w_sh_umain_security
-admin_w_sh_umain_reward
-admin_w_sh_usermain_new</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 이슈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹화면구현시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹화면구현시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_sh_main_1
-user_w_sh_main_2
-user_w_sh_main_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_hj_make_reward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_hj_make_invest</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_hj_make_invest</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_hj_make_reward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_hj_edit_invest
-user_w_hj_edit_reward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_hj_edit_invest
-user_m_hj_edit_reward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_w_hj_admit_project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_w_hj_edit_category</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_w_sh_chat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_a_sh_chat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_sh_main_chat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_w_ht_projects_list</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_m_ht_projects_list</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_ht_report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작 프로젝트 관리 페이지 (프로젝트 등록 승인시 메이커 회원 자격 획득, 자격 획득 전 카테고리 비활성화, 프로젝트 조회 및 수정, 등록한 프로젝트에 등록된 의견에 답글 달기)
-펀딩 한 프로젝트 관리 페이지
-관심 등록 프로젝트 관리 페이지
-회원 정보 변경 페이지 연결
-예치금 관리 페이지 (예치금 충전, 조회)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 화면 설계 완료
-웹 화면 구현 시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 및 모바일 화면 설계 완료
-웹 화면 구현 시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1266,7 +1329,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1274,7 +1337,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1283,7 +1346,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1291,77 +1354,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>방법</t>
+      <t xml:space="preserve">방법
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="13"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> &amp; FAQ (1)</t>
+      <t>&amp; FAQ (1)</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>펀딩하는 방법 &amp; FAQ (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 현황 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 관리 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자율 확인, 프로젝트 별 결제 현황 확인, 유사시 프로젝트 중단 등의 기능</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 관리 - 기본 입력 사항 관리 (아이디, 연락처 등등)
-회원의 프로젝트 소개페이지 연결
-예치금 입출금 및 투자 관리
-예치금 - 몰수, 부여, 사용제한
-사업자 번호 관리
-불량 회원 투자 제한 - 간단한 사유 포함
-강제 탈퇴 - 탈퇴한 회원 회색 음영 표시</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>키워드, 카테고리별 조회수 및 투자 금액
-프로젝트별 조회수 및 투자 금액 등을 조회하여 향후 웹 운영에 필요한 정보 수집</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 베이스 설계 시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹화면 구현 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 작업 일정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 화면 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 화면
-LAYOUT 작업 완료</t>
+    <t>펀딩하는 방법
+&amp; FAQ (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1372,7 +1385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1422,40 +1435,69 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2107,7 +2149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2115,87 +2157,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2208,71 +2199,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,11 +2224,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2314,41 +2248,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2356,9 +2266,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2368,85 +2275,46 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2458,21 +2326,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2482,56 +2335,272 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2750,17 +2819,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="96.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -2810,22 +2879,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2847,20 +2916,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2922,10 +2991,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="140"/>
+      <c r="G5" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="56"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2959,11 +3028,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="141">
+      <c r="G6" s="43">
         <v>43865</v>
       </c>
-      <c r="H6" s="142" t="s">
-        <v>150</v>
+      <c r="H6" s="44" t="s">
+        <v>133</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2998,11 +3067,11 @@
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="141">
+      <c r="G7" s="43">
         <v>43871</v>
       </c>
-      <c r="H7" s="142" t="s">
-        <v>151</v>
+      <c r="H7" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3037,11 +3106,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="141">
+      <c r="G8" s="43">
         <v>43874</v>
       </c>
-      <c r="H8" s="142" t="s">
-        <v>152</v>
+      <c r="H8" s="44" t="s">
+        <v>135</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3104,46 +3173,46 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:33" ht="32.25" customHeight="1">
+      <c r="A10" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93" t="s">
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="N10" s="132" t="s">
+      <c r="M10" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="109" t="s">
-        <v>65</v>
+      <c r="O10" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="149" t="s">
+        <v>59</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3164,28 +3233,28 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="18">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="11">
         <v>43865</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="11">
         <v>43871</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="11">
         <v>43874</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3204,40 +3273,40 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="54" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="113" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="4">
+    <row r="12" spans="1:33" ht="66">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="69"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="3">
         <v>1</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>116</v>
+      <c r="O12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3258,32 +3327,32 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="104" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="C13" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3302,31 +3371,31 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="4"/>
+    <row r="14" spans="1:33" ht="49.5">
+      <c r="A14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -3345,31 +3414,31 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="72">
-      <c r="A15" s="99"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+    <row r="15" spans="1:33" ht="99">
+      <c r="A15" s="73"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3389,32 +3458,32 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3433,36 +3502,36 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="48">
-      <c r="A17" s="99"/>
-      <c r="B17" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+    <row r="17" spans="1:33" ht="82.5">
+      <c r="A17" s="73"/>
+      <c r="B17" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>128</v>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3482,34 +3551,34 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="48">
-      <c r="A18" s="99"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+    <row r="18" spans="1:33" ht="66">
+      <c r="A18" s="73"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>129</v>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3530,33 +3599,33 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="89" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>131</v>
+      <c r="P19" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3576,39 +3645,39 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="60">
-      <c r="A20" s="99"/>
-      <c r="B20" s="120" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+    <row r="20" spans="1:33" ht="82.5">
+      <c r="A20" s="73"/>
+      <c r="B20" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="80"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -3627,36 +3696,36 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+    <row r="21" spans="1:33" ht="49.5">
+      <c r="A21" s="73"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>96</v>
+      <c r="P21" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3676,36 +3745,36 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" s="123" t="s">
-        <v>138</v>
+    <row r="22" spans="1:33" ht="49.5">
+      <c r="A22" s="73"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3725,33 +3794,33 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
+    <row r="23" spans="1:33" ht="49.5">
+      <c r="A23" s="73"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3771,32 +3840,32 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3815,42 +3884,42 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>98</v>
+    <row r="25" spans="1:33" ht="49.5">
+      <c r="A25" s="73"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="80"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -3870,35 +3939,35 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="24" t="s">
+    <row r="26" spans="1:33" ht="51.75">
+      <c r="A26" s="73"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
+      <c r="F26" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3918,30 +3987,30 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3961,30 +4030,30 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="4"/>
+      <c r="P28" s="3"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4004,30 +4073,30 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -4048,40 +4117,40 @@
     </row>
     <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
       <c r="A30" s="100"/>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M30" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="N30" s="68">
+      <c r="C30" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="32">
         <v>3</v>
       </c>
-      <c r="O30" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="P30" s="87" t="s">
-        <v>135</v>
+      <c r="O30" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="42" t="s">
+        <v>120</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4102,40 +4171,40 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A31" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="N31" s="33">
+      <c r="A31" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="16">
         <v>1</v>
       </c>
-      <c r="O31" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="P31" s="115"/>
+      <c r="O31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" s="57"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4154,31 +4223,31 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="93.75" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="107" t="s">
+    <row r="32" spans="1:33" ht="115.5">
+      <c r="A32" s="116"/>
+      <c r="B32" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="116"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="121"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="58"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4197,35 +4266,35 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="48">
-      <c r="A33" s="102"/>
-      <c r="B33" s="94" t="s">
+    <row r="33" spans="1:33" ht="66">
+      <c r="A33" s="116"/>
+      <c r="B33" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="C33" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P33" s="116"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" s="58"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4245,34 +4314,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="48" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="I34" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="116"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="80"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4292,32 +4361,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="48" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="A35" s="116"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="P35" s="116"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P35" s="58"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4337,38 +4406,38 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I36" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="P36" s="116"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="80"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P36" s="58"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4388,40 +4457,40 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="116"/>
+      <c r="B37" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I37" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37" s="72"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="M37" s="73"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P37" s="116"/>
+      <c r="C37" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="133"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" s="34"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" s="58"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4440,33 +4509,33 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="104" t="s">
+    <row r="38" spans="1:33" ht="49.5">
+      <c r="A38" s="116"/>
+      <c r="B38" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="116"/>
+      <c r="C38" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="121"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="58"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4486,30 +4555,30 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="116"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="121"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="58"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4529,30 +4598,30 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="116"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="121"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="58"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4572,30 +4641,30 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="116"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="135" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="137"/>
+      <c r="F41" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="121"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="58"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4615,38 +4684,38 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A42" s="102"/>
-      <c r="B42" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N42" s="15">
+      <c r="A42" s="116"/>
+      <c r="B42" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="139"/>
+      <c r="D42" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="137"/>
+      <c r="F42" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="77"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N42" s="9">
         <v>4</v>
       </c>
-      <c r="O42" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P42" s="116"/>
+      <c r="O42" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" s="58"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4666,38 +4735,38 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="101.25" customHeight="1">
-      <c r="A43" s="103"/>
-      <c r="B43" s="118" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N43" s="15">
+      <c r="A43" s="141"/>
+      <c r="B43" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="139"/>
+      <c r="D43" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="137"/>
+      <c r="F43" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="77"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N43" s="9">
         <v>3</v>
       </c>
-      <c r="O43" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="P43" s="117"/>
+      <c r="O43" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" s="59"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4779,14 +4848,14 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="43"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="19"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4814,17 +4883,17 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="59" t="s">
-        <v>47</v>
+      <c r="F47" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -4856,17 +4925,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="F48" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="60"/>
-      <c r="L48" s="11"/>
+      <c r="F48" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="L48" s="8"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4894,16 +4963,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="F49" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="60"/>
+      <c r="F49" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="25"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4933,17 +5002,17 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="I50" s="60" t="s">
-        <v>46</v>
+      <c r="I50" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
@@ -4974,16 +5043,16 @@
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="F51" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="60"/>
+      <c r="F51" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="25"/>
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
       <c r="M51" s="1"/>
@@ -12569,16 +12638,15 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:C12"/>
@@ -12590,15 +12658,16 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="O22:O24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:A30"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12625,79 +12694,79 @@
     <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B2" s="77"/>
-      <c r="C2" s="57" t="s">
+    <row r="2" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B2" s="35"/>
+      <c r="C2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B3" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B4" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B5" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="60"/>
-    </row>
-    <row r="6" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B6" s="63" t="s">
+      <c r="D6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="78" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B7" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="58" t="s">
+    <row r="7" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B7" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -635,9 +635,59 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>리워드 펀딩 프로젝트
+등록 (3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 펀딩 프로젝트
+등록 (3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청 프로젝트
+검토 및 승인 (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세
+메인 화면 (1+1+1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별
+프로젝트 확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트
+수정(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트 프로젝트
+확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나간 프로젝트
+확인 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가올 펀딩
+미리 보기 (-)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩하는 방법
+&amp; FAQ (1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -647,7 +697,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -656,7 +706,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -667,7 +717,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -676,7 +726,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -686,7 +736,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -695,7 +745,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -705,7 +755,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -717,7 +767,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -727,7 +777,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -736,7 +786,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -747,7 +797,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -756,7 +806,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -766,7 +816,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -775,7 +825,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -785,7 +835,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -797,7 +847,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -807,7 +857,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -816,7 +866,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -827,7 +877,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -836,7 +886,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -846,7 +896,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -855,7 +905,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -868,7 +918,62 @@
   <si>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펀딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">방법
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp; FAQ (1)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -878,7 +983,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -887,7 +992,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -897,7 +1002,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -906,7 +1011,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -916,7 +1021,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -925,7 +1030,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -935,7 +1040,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -944,7 +1049,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -954,7 +1059,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -963,7 +1068,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -976,7 +1081,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -986,7 +1091,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -995,7 +1100,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1005,7 +1110,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1014,7 +1119,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1024,7 +1129,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1033,7 +1138,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1043,7 +1148,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1052,7 +1157,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1062,7 +1167,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1071,7 +1176,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1081,7 +1186,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1090,7 +1195,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1100,7 +1205,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1109,7 +1214,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1119,7 +1224,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1128,7 +1233,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1138,7 +1243,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1147,7 +1252,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1157,7 +1262,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1166,7 +1271,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1177,7 +1282,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1186,7 +1291,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1196,7 +1301,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1205,7 +1310,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1215,7 +1320,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1224,7 +1329,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1234,7 +1339,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1243,7 +1348,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1253,7 +1358,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1262,7 +1367,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
@@ -1270,111 +1375,6 @@
       </rPr>
       <t>등록</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>리워드 펀딩 프로젝트
-등록 (3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자 펀딩 프로젝트
-등록 (3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 신청 프로젝트
-검토 및 승인 (1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 상세
-메인 화면 (1+1+1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별
-프로젝트 확인 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록한 프로젝트
-수정(3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스트 프로젝트
-확인 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나간 프로젝트
-확인 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가올 펀딩
-미리 보기 (-)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>펀딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">방법
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp; FAQ (1)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩하는 방법
-&amp; FAQ (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1441,63 +1441,42 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2149,7 +2128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2281,6 +2260,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2299,43 +2308,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2344,263 +2335,236 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2819,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2879,22 +2843,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2916,20 +2880,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2991,10 +2955,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="56"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3174,44 +3138,44 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="146" t="s">
+      <c r="F10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="146" t="s">
+      <c r="G10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146" t="s">
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="146" t="s">
+      <c r="M10" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="148" t="s">
+      <c r="N10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="149" t="s">
+      <c r="O10" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="149" t="s">
+      <c r="P10" s="47" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="1"/>
@@ -3233,12 +3197,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="51"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="11">
         <v>43865</v>
       </c>
@@ -3250,11 +3214,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3273,27 +3237,27 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="66">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64" t="s">
+    <row r="12" spans="1:33" ht="48">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72" t="s">
+      <c r="H12" s="73"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76" t="s">
         <v>105</v>
       </c>
       <c r="M12" s="13" t="s">
@@ -3327,28 +3291,28 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67" t="s">
+      <c r="E13" s="71"/>
+      <c r="F13" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="13"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
@@ -3371,27 +3335,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="49.5">
-      <c r="A14" s="73"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77" t="s">
+    <row r="14" spans="1:33" ht="24">
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79" t="s">
+      <c r="E14" s="82"/>
+      <c r="F14" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="81"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="84"/>
       <c r="M14" s="7"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
@@ -3414,27 +3378,27 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="99">
-      <c r="A15" s="73"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77" t="s">
+    <row r="15" spans="1:33" ht="72">
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="81"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="84"/>
       <c r="M15" s="14"/>
       <c r="N15" s="5"/>
       <c r="O15" s="3"/>
@@ -3458,28 +3422,28 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="77" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="81"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="84"/>
       <c r="M16" s="14"/>
       <c r="N16" s="5"/>
       <c r="O16" s="39"/>
@@ -3502,29 +3466,29 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="82.5">
-      <c r="A17" s="73"/>
-      <c r="B17" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="78" t="s">
+    <row r="17" spans="1:33" ht="48">
+      <c r="A17" s="77"/>
+      <c r="B17" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79" t="s">
+      <c r="E17" s="82"/>
+      <c r="F17" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="81"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="84"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="3" t="s">
@@ -3551,27 +3515,27 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="66">
-      <c r="A18" s="73"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="143" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="78" t="s">
+    <row r="18" spans="1:33" ht="48">
+      <c r="A18" s="77"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79" t="s">
+      <c r="E18" s="82"/>
+      <c r="F18" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="81"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="84"/>
       <c r="M18" s="7"/>
       <c r="N18" s="5"/>
       <c r="O18" s="3" t="s">
@@ -3599,26 +3563,26 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="88" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79" t="s">
+      <c r="E19" s="82"/>
+      <c r="F19" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="81"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="84"/>
       <c r="M19" s="7"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
@@ -3645,33 +3609,33 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="82.5">
-      <c r="A20" s="73"/>
-      <c r="B20" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="88" t="s">
+    <row r="20" spans="1:33" ht="106.5" customHeight="1">
+      <c r="A20" s="77"/>
+      <c r="B20" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79" t="s">
+      <c r="E20" s="82"/>
+      <c r="F20" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="89" t="s">
+      <c r="J20" s="83"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="92" t="s">
         <v>127</v>
       </c>
       <c r="M20" s="7"/>
@@ -3696,27 +3660,27 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="49.5">
-      <c r="A21" s="73"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="145" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="88" t="s">
+    <row r="21" spans="1:33" ht="36">
+      <c r="A21" s="77"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="E21" s="82"/>
+      <c r="F21" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="89" t="s">
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="92" t="s">
         <v>127</v>
       </c>
       <c r="M21" s="5"/>
@@ -3745,35 +3709,35 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="49.5">
-      <c r="A22" s="73"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="88" t="s">
+    <row r="22" spans="1:33" ht="36">
+      <c r="A22" s="77"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79" t="s">
+      <c r="E22" s="82"/>
+      <c r="F22" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="89" t="s">
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="92" t="s">
         <v>127</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="60" t="s">
+      <c r="O22" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="60" t="s">
+      <c r="P22" s="52" t="s">
         <v>123</v>
       </c>
       <c r="Q22" s="1"/>
@@ -3794,33 +3758,33 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="49.5">
-      <c r="A23" s="73"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="150" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="88" t="s">
+    <row r="23" spans="1:33" ht="36">
+      <c r="A23" s="77"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79" t="s">
+      <c r="E23" s="82"/>
+      <c r="F23" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="89" t="s">
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="92" t="s">
         <v>127</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3840,32 +3804,32 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="150" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="88" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79" t="s">
+      <c r="E24" s="82"/>
+      <c r="F24" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="89" t="s">
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="92" t="s">
         <v>127</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3884,33 +3848,33 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="49.5">
-      <c r="A25" s="73"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="77" t="s">
+    <row r="25" spans="1:33" ht="24">
+      <c r="A25" s="77"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J25" s="80"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="89" t="s">
+      <c r="J25" s="83"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="92" t="s">
         <v>127</v>
       </c>
       <c r="M25" s="5"/>
@@ -3939,29 +3903,29 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="51.75">
-      <c r="A26" s="73"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="85" t="s">
+    <row r="26" spans="1:33" ht="37.5">
+      <c r="A26" s="77"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="94" t="s">
+      <c r="E26" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="89" t="s">
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="92" t="s">
         <v>127</v>
       </c>
       <c r="M26" s="16"/>
@@ -3987,26 +3951,26 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="85" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97" t="s">
+      <c r="E27" s="100"/>
+      <c r="F27" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="89"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="92"/>
       <c r="M27" s="7"/>
       <c r="N27" s="5"/>
       <c r="O27" s="4"/>
@@ -4030,26 +3994,26 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="85" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97" t="s">
+      <c r="E28" s="100"/>
+      <c r="F28" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="89"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="92"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="2"/>
@@ -4073,26 +4037,26 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="151" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="78" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="E29" s="100"/>
+      <c r="F29" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="89"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="92"/>
       <c r="M29" s="7"/>
       <c r="N29" s="5"/>
       <c r="O29" s="4"/>
@@ -4116,28 +4080,28 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103" t="s">
+      <c r="E30" s="108"/>
+      <c r="F30" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="107" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="12" t="s">
         <v>108</v>
       </c>
       <c r="M30" s="12" t="s">
@@ -4171,28 +4135,28 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111" t="s">
+      <c r="C31" s="114"/>
+      <c r="D31" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112" t="s">
+      <c r="E31" s="116"/>
+      <c r="F31" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="115" t="s">
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="17" t="s">
         <v>106</v>
       </c>
       <c r="M31" s="13" t="s">
@@ -4204,7 +4168,7 @@
       <c r="O31" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="P31" s="57"/>
+      <c r="P31" s="49"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4223,31 +4187,31 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="115.5">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117" t="s">
+    <row r="32" spans="1:33" ht="84">
+      <c r="A32" s="119"/>
+      <c r="B32" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119" t="s">
+      <c r="C32" s="121"/>
+      <c r="D32" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120" t="s">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="123"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="126"/>
       <c r="M32" s="17"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="58"/>
+      <c r="P32" s="50"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4266,35 +4230,35 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="66">
-      <c r="A33" s="116"/>
-      <c r="B33" s="124" t="s">
+    <row r="33" spans="1:33" ht="48">
+      <c r="A33" s="119"/>
+      <c r="B33" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="143" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="98" t="s">
+      <c r="C33" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79" t="s">
+      <c r="E33" s="82"/>
+      <c r="F33" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="125"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="128"/>
       <c r="M33" s="15"/>
       <c r="N33" s="5"/>
       <c r="O33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P33" s="58"/>
+      <c r="P33" s="50"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4314,34 +4278,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="48" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="85" t="s">
+      <c r="A34" s="119"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="98" t="s">
+      <c r="D34" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="127" t="s">
+      <c r="E34" s="82"/>
+      <c r="F34" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="128" t="s">
+      <c r="H34" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="69" t="s">
+      <c r="I34" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J34" s="80"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="125"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="128"/>
       <c r="M34" s="15"/>
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="58"/>
+      <c r="P34" s="50"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4361,32 +4325,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="48" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="85" t="s">
+      <c r="A35" s="119"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="90" t="s">
+      <c r="D35" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79" t="s">
+      <c r="E35" s="82"/>
+      <c r="F35" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H35" s="121"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="125"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="128"/>
       <c r="M35" s="15"/>
       <c r="N35" s="29"/>
       <c r="O35" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="P35" s="58"/>
+      <c r="P35" s="50"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4406,30 +4370,30 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="87" t="s">
+      <c r="A36" s="119"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="129" t="s">
+      <c r="D36" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79" t="s">
+      <c r="E36" s="82"/>
+      <c r="F36" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="121" t="s">
+      <c r="H36" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="69" t="s">
+      <c r="I36" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J36" s="80"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="125" t="s">
+      <c r="J36" s="83"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="128" t="s">
         <v>126</v>
       </c>
       <c r="M36" s="15"/>
@@ -4437,7 +4401,7 @@
       <c r="O36" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="P36" s="58"/>
+      <c r="P36" s="50"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4457,32 +4421,32 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130" t="s">
+      <c r="A37" s="119"/>
+      <c r="B37" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="131" t="s">
+      <c r="D37" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132" t="s">
+      <c r="E37" s="136"/>
+      <c r="F37" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="121" t="s">
+      <c r="H37" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="133"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="125" t="s">
+      <c r="J37" s="137"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="128" t="s">
         <v>126</v>
       </c>
       <c r="M37" s="34"/>
@@ -4490,7 +4454,7 @@
       <c r="O37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="58"/>
+      <c r="P37" s="50"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4509,33 +4473,33 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="49.5">
-      <c r="A38" s="116"/>
-      <c r="B38" s="74" t="s">
+    <row r="38" spans="1:33" ht="36">
+      <c r="A38" s="119"/>
+      <c r="B38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="135" t="s">
+      <c r="D38" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="121"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="136"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="140"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="58"/>
+      <c r="P38" s="50"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4555,30 +4519,30 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="85" t="s">
+      <c r="A39" s="119"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="121"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="20"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="58"/>
+      <c r="P39" s="50"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4598,30 +4562,30 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="85" t="s">
+      <c r="A40" s="119"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="135" t="s">
+      <c r="D40" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="G40" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="121"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="20"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="58"/>
+      <c r="P40" s="50"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4641,30 +4605,30 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="135" t="s">
+      <c r="A41" s="119"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="127" t="s">
+      <c r="E41" s="141"/>
+      <c r="F41" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="68" t="s">
+      <c r="G41" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="121"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="85"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="20"/>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="58"/>
+      <c r="P41" s="50"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4684,26 +4648,26 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A42" s="116"/>
-      <c r="B42" s="138" t="s">
+      <c r="A42" s="119"/>
+      <c r="B42" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="139"/>
-      <c r="D42" s="140" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="127" t="s">
+      <c r="C42" s="143"/>
+      <c r="D42" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="141"/>
+      <c r="F42" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G42" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="77"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="77" t="s">
+      <c r="H42" s="9"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="9" t="s">
         <v>107</v>
       </c>
       <c r="M42" s="9" t="s">
@@ -4715,7 +4679,7 @@
       <c r="O42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="P42" s="58"/>
+      <c r="P42" s="50"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4735,26 +4699,26 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="101.25" customHeight="1">
-      <c r="A43" s="141"/>
-      <c r="B43" s="138" t="s">
+      <c r="A43" s="145"/>
+      <c r="B43" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="139"/>
-      <c r="D43" s="142" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="137"/>
-      <c r="F43" s="127" t="s">
+      <c r="C43" s="143"/>
+      <c r="D43" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="141"/>
+      <c r="F43" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="68" t="s">
+      <c r="G43" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="77"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="77" t="s">
+      <c r="H43" s="9"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="9" t="s">
         <v>107</v>
       </c>
       <c r="M43" s="9" t="s">
@@ -4766,7 +4730,7 @@
       <c r="O43" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="P43" s="59"/>
+      <c r="P43" s="51"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -12638,15 +12602,16 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:A30"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:C12"/>
@@ -12658,16 +12623,15 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="O22:O24"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr\Desktop\EzenCrowdFunding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1375,6 +1380,10 @@
       </rPr>
       <t>등록</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2260,18 +2269,243 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2281,6 +2515,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2290,281 +2539,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2783,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2843,22 +2852,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="103"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2880,20 +2889,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="106"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2955,10 +2964,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3138,44 +3147,44 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45" t="s">
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="47" t="s">
+      <c r="P10" s="111" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="1"/>
@@ -3197,12 +3206,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="46"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="11">
         <v>43865</v>
       </c>
@@ -3214,11 +3223,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3238,26 +3247,26 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="48">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="139"/>
+      <c r="B12" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="120"/>
+      <c r="D12" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51" t="s">
         <v>105</v>
       </c>
       <c r="M12" s="13" t="s">
@@ -3291,28 +3300,30 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="140"/>
+      <c r="B13" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
+      <c r="H13" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="13"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
@@ -3336,26 +3347,28 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="24">
-      <c r="A14" s="77"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82" t="s">
+      <c r="E14" s="54"/>
+      <c r="F14" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="84"/>
+      <c r="H14" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="7"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
@@ -3379,26 +3392,26 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="72">
-      <c r="A15" s="77"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="84"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="14"/>
       <c r="N15" s="5"/>
       <c r="O15" s="3"/>
@@ -3422,28 +3435,28 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="84"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="14"/>
       <c r="N16" s="5"/>
       <c r="O16" s="39"/>
@@ -3467,28 +3480,28 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="48">
-      <c r="A17" s="77"/>
-      <c r="B17" s="86" t="s">
+      <c r="A17" s="140"/>
+      <c r="B17" s="129" t="s">
         <v>150</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="84"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="3" t="s">
@@ -3516,26 +3529,26 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="48">
-      <c r="A18" s="77"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88" t="s">
+      <c r="A18" s="140"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="84"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="7"/>
       <c r="N18" s="5"/>
       <c r="O18" s="3" t="s">
@@ -3563,26 +3576,26 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90" t="s">
+      <c r="A19" s="140"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="84"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="7"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
@@ -3610,32 +3623,32 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="106.5" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="86" t="s">
+      <c r="A20" s="140"/>
+      <c r="B20" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="92" t="s">
+      <c r="J20" s="55"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="60" t="s">
         <v>127</v>
       </c>
       <c r="M20" s="7"/>
@@ -3661,26 +3674,26 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="36">
-      <c r="A21" s="77"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="90" t="s">
+      <c r="A21" s="140"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82" t="s">
+      <c r="E21" s="54"/>
+      <c r="F21" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="92" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="60" t="s">
         <v>127</v>
       </c>
       <c r="M21" s="5"/>
@@ -3710,34 +3723,34 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="36">
-      <c r="A22" s="77"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="93" t="s">
+      <c r="A22" s="140"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82" t="s">
+      <c r="E22" s="54"/>
+      <c r="F22" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="92" t="s">
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="60" t="s">
         <v>127</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="52" t="s">
+      <c r="O22" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="52" t="s">
+      <c r="P22" s="132" t="s">
         <v>123</v>
       </c>
       <c r="Q22" s="1"/>
@@ -3759,32 +3772,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="36">
-      <c r="A23" s="77"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="93" t="s">
+      <c r="A23" s="140"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="92" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="60" t="s">
         <v>127</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3804,32 +3817,32 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="93" t="s">
+      <c r="A24" s="140"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="92" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="60" t="s">
         <v>127</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3849,32 +3862,32 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="24">
-      <c r="A25" s="77"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="95" t="s">
+      <c r="E25" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J25" s="83"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="92" t="s">
+      <c r="J25" s="55"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="60" t="s">
         <v>127</v>
       </c>
       <c r="M25" s="5"/>
@@ -3904,28 +3917,28 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="37.5">
-      <c r="A26" s="77"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="98" t="s">
+      <c r="F26" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="92" t="s">
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="60" t="s">
         <v>127</v>
       </c>
       <c r="M26" s="16"/>
@@ -3951,26 +3964,26 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101" t="s">
+      <c r="E27" s="67"/>
+      <c r="F27" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="92"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="7"/>
       <c r="N27" s="5"/>
       <c r="O27" s="4"/>
@@ -3994,26 +4007,26 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101" t="s">
+      <c r="E28" s="67"/>
+      <c r="F28" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="92"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="60"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="2"/>
@@ -4037,26 +4050,26 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="104" t="s">
+      <c r="A29" s="140"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101" t="s">
+      <c r="E29" s="67"/>
+      <c r="F29" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="92"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="60"/>
       <c r="M29" s="7"/>
       <c r="N29" s="5"/>
       <c r="O29" s="4"/>
@@ -4080,27 +4093,27 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="106" t="s">
+      <c r="A30" s="141"/>
+      <c r="B30" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108" t="s">
+      <c r="E30" s="73"/>
+      <c r="F30" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="109" t="s">
+      <c r="G30" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="12" t="s">
         <v>108</v>
       </c>
@@ -4135,27 +4148,27 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="115" t="s">
+      <c r="C31" s="138"/>
+      <c r="D31" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116" t="s">
+      <c r="E31" s="78"/>
+      <c r="F31" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="118"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
       <c r="L31" s="17" t="s">
         <v>106</v>
       </c>
@@ -4168,7 +4181,7 @@
       <c r="O31" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="P31" s="49"/>
+      <c r="P31" s="124"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4188,30 +4201,30 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="84">
-      <c r="A32" s="119"/>
-      <c r="B32" s="120" t="s">
+      <c r="A32" s="143"/>
+      <c r="B32" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122" t="s">
+      <c r="C32" s="146"/>
+      <c r="D32" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123" t="s">
+      <c r="E32" s="82"/>
+      <c r="F32" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="126"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="85"/>
       <c r="M32" s="17"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="50"/>
+      <c r="P32" s="125"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4231,34 +4244,34 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="48">
-      <c r="A33" s="119"/>
-      <c r="B33" s="127" t="s">
+      <c r="A33" s="143"/>
+      <c r="B33" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82" t="s">
+      <c r="E33" s="54"/>
+      <c r="F33" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="128"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="86"/>
       <c r="M33" s="15"/>
       <c r="N33" s="5"/>
       <c r="O33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P33" s="50"/>
+      <c r="P33" s="125"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4278,34 +4291,34 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="48" customHeight="1">
-      <c r="A34" s="119"/>
-      <c r="B34" s="129"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="130" t="s">
+      <c r="E34" s="54"/>
+      <c r="F34" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="131" t="s">
+      <c r="H34" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="73" t="s">
+      <c r="I34" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J34" s="83"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="128"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="86"/>
       <c r="M34" s="15"/>
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="50"/>
+      <c r="P34" s="125"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4325,32 +4338,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="48" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="129"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82" t="s">
+      <c r="E35" s="54"/>
+      <c r="F35" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H35" s="124"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="128"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="86"/>
       <c r="M35" s="15"/>
       <c r="N35" s="29"/>
       <c r="O35" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="P35" s="50"/>
+      <c r="P35" s="125"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4370,30 +4383,30 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="132" t="s">
+      <c r="A36" s="143"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="133" t="s">
+      <c r="D36" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82" t="s">
+      <c r="E36" s="54"/>
+      <c r="F36" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="124" t="s">
+      <c r="H36" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="73" t="s">
+      <c r="I36" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J36" s="83"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="128" t="s">
+      <c r="J36" s="55"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="86" t="s">
         <v>126</v>
       </c>
       <c r="M36" s="15"/>
@@ -4401,7 +4414,7 @@
       <c r="O36" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="P36" s="50"/>
+      <c r="P36" s="125"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4421,32 +4434,32 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="134" t="s">
+      <c r="A37" s="143"/>
+      <c r="B37" s="91" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="135" t="s">
+      <c r="D37" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136" t="s">
+      <c r="E37" s="93"/>
+      <c r="F37" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="124" t="s">
+      <c r="H37" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="I37" s="73" t="s">
+      <c r="I37" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="137"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="128" t="s">
+      <c r="J37" s="94"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="86" t="s">
         <v>126</v>
       </c>
       <c r="M37" s="34"/>
@@ -4454,7 +4467,7 @@
       <c r="O37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="50"/>
+      <c r="P37" s="125"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4474,32 +4487,32 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="36">
-      <c r="A38" s="119"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="143"/>
+      <c r="B38" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="139" t="s">
+      <c r="D38" s="96" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="124"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="140"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="97"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="50"/>
+      <c r="P38" s="125"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4519,30 +4532,30 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="119"/>
-      <c r="B39" s="80"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="139" t="s">
+      <c r="D39" s="96" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="124"/>
-      <c r="I39" s="72"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="20"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="50"/>
+      <c r="P39" s="125"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4562,30 +4575,30 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="119"/>
-      <c r="B40" s="80"/>
+      <c r="A40" s="143"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="139" t="s">
+      <c r="D40" s="96" t="s">
         <v>28</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="124"/>
-      <c r="I40" s="72"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="20"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="50"/>
+      <c r="P40" s="125"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4605,30 +4618,30 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="119"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="88" t="s">
+      <c r="A41" s="143"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="139" t="s">
+      <c r="D41" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="141"/>
-      <c r="F41" s="130" t="s">
+      <c r="E41" s="98"/>
+      <c r="F41" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="141"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
       <c r="L41" s="10"/>
       <c r="M41" s="20"/>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="50"/>
+      <c r="P41" s="125"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4648,25 +4661,25 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A42" s="119"/>
-      <c r="B42" s="142" t="s">
+      <c r="A42" s="143"/>
+      <c r="B42" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="144" t="s">
+      <c r="C42" s="128"/>
+      <c r="D42" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="141"/>
-      <c r="F42" s="130" t="s">
+      <c r="E42" s="98"/>
+      <c r="F42" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="47" t="s">
         <v>85</v>
       </c>
       <c r="H42" s="9"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
       <c r="L42" s="9" t="s">
         <v>107</v>
       </c>
@@ -4679,7 +4692,7 @@
       <c r="O42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="P42" s="50"/>
+      <c r="P42" s="125"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4699,25 +4712,25 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="101.25" customHeight="1">
-      <c r="A43" s="145"/>
-      <c r="B43" s="142" t="s">
+      <c r="A43" s="144"/>
+      <c r="B43" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="146" t="s">
+      <c r="C43" s="128"/>
+      <c r="D43" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="141"/>
-      <c r="F43" s="130" t="s">
+      <c r="E43" s="98"/>
+      <c r="F43" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="47" t="s">
         <v>85</v>
       </c>
       <c r="H43" s="9"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
       <c r="L43" s="9" t="s">
         <v>107</v>
       </c>
@@ -4730,7 +4743,7 @@
       <c r="O43" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="P43" s="51"/>
+      <c r="P43" s="126"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -12602,16 +12615,15 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:C12"/>
@@ -12623,15 +12635,16 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="O22:O24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:A30"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr\Desktop\EzenCrowdFunding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1380,6 +1380,10 @@
       </rPr>
       <t>등록</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2437,6 +2441,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2455,24 +2561,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2483,96 +2577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2792,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2852,22 +2856,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="103"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="137"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2889,20 +2893,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2964,10 +2968,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="116"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3147,44 +3151,44 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="109" t="s">
+      <c r="N10" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="111" t="s">
+      <c r="O10" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="111" t="s">
+      <c r="P10" s="118" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="1"/>
@@ -3206,12 +3210,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="108"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="11">
         <v>43865</v>
       </c>
@@ -3223,11 +3227,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3247,11 +3251,11 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="48">
-      <c r="A12" s="139"/>
-      <c r="B12" s="119" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="120"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="45" t="s">
         <v>60</v>
       </c>
@@ -3300,8 +3304,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -3347,8 +3351,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="24">
-      <c r="A14" s="140"/>
-      <c r="B14" s="122"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="9" t="s">
         <v>46</v>
       </c>
@@ -3392,8 +3396,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="72">
-      <c r="A15" s="140"/>
-      <c r="B15" s="122"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
@@ -3435,8 +3439,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="140"/>
-      <c r="B16" s="123"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
@@ -3480,7 +3484,7 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="48">
-      <c r="A17" s="140"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="129" t="s">
         <v>150</v>
       </c>
@@ -3529,7 +3533,7 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="48">
-      <c r="A18" s="140"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="130"/>
       <c r="C18" s="57" t="s">
         <v>140</v>
@@ -3576,7 +3580,7 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="140"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="131"/>
       <c r="C19" s="58" t="s">
         <v>145</v>
@@ -3623,7 +3627,7 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="106.5" customHeight="1">
-      <c r="A20" s="140"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="129" t="s">
         <v>151</v>
       </c>
@@ -3674,7 +3678,7 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="36">
-      <c r="A21" s="140"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="130"/>
       <c r="C21" s="58" t="s">
         <v>144</v>
@@ -3723,7 +3727,7 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="36">
-      <c r="A22" s="140"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="130"/>
       <c r="C22" s="61" t="s">
         <v>146</v>
@@ -3772,7 +3776,7 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="36">
-      <c r="A23" s="140"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="130"/>
       <c r="C23" s="61" t="s">
         <v>147</v>
@@ -3817,7 +3821,7 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="140"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="130"/>
       <c r="C24" s="61" t="s">
         <v>148</v>
@@ -3862,7 +3866,7 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="24">
-      <c r="A25" s="140"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="130"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
@@ -3917,7 +3921,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="37.5">
-      <c r="A26" s="140"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="131"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
@@ -3964,8 +3968,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
@@ -4007,8 +4011,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
@@ -4050,8 +4054,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="70" t="s">
         <v>153</v>
       </c>
@@ -4093,7 +4097,7 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A30" s="141"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="71" t="s">
         <v>16</v>
       </c>
@@ -4148,13 +4152,13 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="138"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="77" t="s">
         <v>26</v>
       </c>
@@ -4165,7 +4169,9 @@
       <c r="G31" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="47" t="s">
+        <v>157</v>
+      </c>
       <c r="I31" s="47"/>
       <c r="J31" s="79"/>
       <c r="K31" s="80"/>
@@ -4201,11 +4207,11 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="84">
-      <c r="A32" s="143"/>
-      <c r="B32" s="145" t="s">
+      <c r="A32" s="111"/>
+      <c r="B32" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="146"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="81" t="s">
         <v>131</v>
       </c>
@@ -4244,8 +4250,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="48">
-      <c r="A33" s="143"/>
-      <c r="B33" s="135" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="103" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="57" t="s">
@@ -4291,8 +4297,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="48" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="136"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="10" t="s">
         <v>128</v>
       </c>
@@ -4338,8 +4344,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="48" customHeight="1">
-      <c r="A35" s="143"/>
-      <c r="B35" s="136"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="10" t="s">
         <v>129</v>
       </c>
@@ -4383,8 +4389,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="143"/>
-      <c r="B36" s="136"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="89" t="s">
         <v>92</v>
       </c>
@@ -4434,7 +4440,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="143"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="91" t="s">
         <v>19</v>
       </c>
@@ -4487,8 +4493,8 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="36">
-      <c r="A38" s="143"/>
-      <c r="B38" s="121" t="s">
+      <c r="A38" s="111"/>
+      <c r="B38" s="113" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -4532,8 +4538,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="143"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="10" t="s">
         <v>52</v>
       </c>
@@ -4575,8 +4581,8 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="143"/>
-      <c r="B40" s="122"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="10" t="s">
         <v>53</v>
       </c>
@@ -4618,8 +4624,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="143"/>
-      <c r="B41" s="123"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="57" t="s">
         <v>149</v>
       </c>
@@ -4661,7 +4667,7 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A42" s="143"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="127" t="s">
         <v>56</v>
       </c>
@@ -4712,7 +4718,7 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="101.25" customHeight="1">
-      <c r="A43" s="144"/>
+      <c r="A43" s="112"/>
       <c r="B43" s="127" t="s">
         <v>57</v>
       </c>
@@ -12615,15 +12621,16 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:A30"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:C12"/>
@@ -12635,16 +12642,15 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="O22:O24"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\EzenCrowdFunding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EzenCrowdFunding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$10:$P$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$10:$P$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -302,10 +302,6 @@
 프로젝트 리스트 - 프로젝트 내용 보기, 메이커 회원명, 연락처
 승인/보류/승인거절 버튼
 알림 보내기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>금지어 설정, 이용제한 계정 설정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -631,12 +627,6 @@
   <si>
     <t>모바일 화면
 LAYOUT 작업 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관련
-자유 게시판 및
-토론 게시판 (1)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1388,6 +1378,37 @@
   </si>
   <si>
     <t>화면 구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_w_kb_NocticeBoard
+admin_w_kb_RegistNoctice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_kb_NocticeBoard
+user_w_kb_NocticeContent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_kb_NocticeBoard
+user_m_kb_NocticeContent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현 중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2141,7 +2162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2423,15 +2444,9 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2441,12 +2456,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2477,106 +2588,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2794,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1006"/>
+  <dimension ref="A1:AG1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2856,22 +2871,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2893,20 +2908,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2968,10 +2983,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="146" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="146"/>
+      <c r="G5" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="114"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3009,7 +3024,7 @@
         <v>43865</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3048,7 +3063,7 @@
         <v>43871</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3087,7 +3102,7 @@
         <v>43874</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3151,44 +3166,44 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="101" t="s">
+      <c r="G10" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101" t="s">
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="141" t="s">
+      <c r="M10" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="118" t="s">
+      <c r="O10" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="118" t="s">
+      <c r="P10" s="109" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="1"/>
@@ -3210,12 +3225,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="102"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="11">
         <v>43865</v>
       </c>
@@ -3227,11 +3242,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3251,39 +3266,39 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="48">
-      <c r="A12" s="107"/>
-      <c r="B12" s="122" t="s">
+      <c r="A12" s="137"/>
+      <c r="B12" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="123"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="48"/>
       <c r="I12" s="47"/>
       <c r="J12" s="49"/>
       <c r="K12" s="50"/>
       <c r="L12" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3304,8 +3319,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="113" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="119" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -3316,13 +3331,13 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="49"/>
@@ -3351,8 +3366,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="24">
-      <c r="A14" s="108"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="9" t="s">
         <v>46</v>
       </c>
@@ -3361,13 +3376,13 @@
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="55"/>
@@ -3396,20 +3411,20 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="72">
-      <c r="A15" s="108"/>
-      <c r="B15" s="114"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -3439,22 +3454,22 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="108"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="54" t="s">
-        <v>82</v>
-      </c>
       <c r="F16" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -3484,22 +3499,22 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="48">
-      <c r="A17" s="108"/>
-      <c r="B17" s="129" t="s">
-        <v>150</v>
+      <c r="A17" s="138"/>
+      <c r="B17" s="127" t="s">
+        <v>148</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -3509,10 +3524,10 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3533,20 +3548,20 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="48">
-      <c r="A18" s="108"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -3556,10 +3571,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="5"/>
       <c r="O18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3580,20 +3595,20 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="131"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -3603,10 +3618,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3627,33 +3642,33 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="106.5" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="129" t="s">
-        <v>151</v>
+      <c r="A20" s="138"/>
+      <c r="B20" s="127" t="s">
+        <v>149</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="50"/>
       <c r="L20" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="5"/>
@@ -3678,35 +3693,35 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="36">
-      <c r="A21" s="108"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="55"/>
       <c r="K21" s="50"/>
       <c r="L21" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3727,35 +3742,35 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="36">
-      <c r="A22" s="108"/>
-      <c r="B22" s="130"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
       <c r="J22" s="55"/>
       <c r="K22" s="50"/>
       <c r="L22" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="132" t="s">
+      <c r="O22" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="130" t="s">
         <v>122</v>
-      </c>
-      <c r="P22" s="132" t="s">
-        <v>123</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3776,32 +3791,32 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="36">
-      <c r="A23" s="108"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="J23" s="55"/>
       <c r="K23" s="50"/>
       <c r="L23" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="133"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3821,32 +3836,32 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="130"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
       <c r="J24" s="55"/>
       <c r="K24" s="50"/>
       <c r="L24" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3866,41 +3881,41 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="24">
-      <c r="A25" s="108"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>85</v>
-      </c>
       <c r="H25" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="J25" s="55"/>
       <c r="K25" s="50"/>
       <c r="L25" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -3921,8 +3936,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="37.5">
-      <c r="A26" s="108"/>
-      <c r="B26" s="131"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
@@ -3930,20 +3945,20 @@
         <v>64</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="55"/>
       <c r="K26" s="50"/>
       <c r="L26" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M26" s="16"/>
       <c r="N26" s="5"/>
@@ -3968,8 +3983,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A27" s="108"/>
-      <c r="B27" s="120"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
@@ -3978,20 +3993,28 @@
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="47"/>
+        <v>84</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>161</v>
+      </c>
       <c r="I27" s="47"/>
       <c r="J27" s="55"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="60"/>
+      <c r="L27" s="60" t="s">
+        <v>162</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -4011,8 +4034,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A28" s="108"/>
-      <c r="B28" s="120"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
@@ -4021,10 +4044,10 @@
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -4054,20 +4077,20 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A29" s="108"/>
-      <c r="B29" s="121"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
@@ -4097,7 +4120,7 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A30" s="109"/>
+      <c r="A30" s="139"/>
       <c r="B30" s="71" t="s">
         <v>16</v>
       </c>
@@ -4109,29 +4132,29 @@
       </c>
       <c r="E30" s="73"/>
       <c r="F30" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
       <c r="J30" s="75"/>
       <c r="K30" s="76"/>
       <c r="L30" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N30" s="32">
         <v>3</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P30" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4152,42 +4175,42 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="106"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="77" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="78"/>
       <c r="F31" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I31" s="47"/>
       <c r="J31" s="79"/>
       <c r="K31" s="80"/>
       <c r="L31" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" s="16">
         <v>1</v>
       </c>
       <c r="O31" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="124"/>
+        <v>101</v>
+      </c>
+      <c r="P31" s="122"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4207,20 +4230,20 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="84">
-      <c r="A32" s="111"/>
-      <c r="B32" s="116" t="s">
+      <c r="A32" s="141"/>
+      <c r="B32" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="117"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="82"/>
       <c r="F32" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="83"/>
       <c r="I32" s="47"/>
@@ -4230,7 +4253,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="125"/>
+      <c r="P32" s="123"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4250,22 +4273,22 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="48">
-      <c r="A33" s="111"/>
-      <c r="B33" s="103" t="s">
+      <c r="A33" s="141"/>
+      <c r="B33" s="133" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D33" s="69" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="83"/>
       <c r="I33" s="47"/>
@@ -4275,9 +4298,9 @@
       <c r="M33" s="15"/>
       <c r="N33" s="5"/>
       <c r="O33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P33" s="125"/>
+        <v>116</v>
+      </c>
+      <c r="P33" s="123"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4297,26 +4320,26 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="48" customHeight="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="104"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="50"/>
@@ -4324,7 +4347,7 @@
       <c r="M34" s="15"/>
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="125"/>
+      <c r="P34" s="123"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4344,20 +4367,20 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="48" customHeight="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="104"/>
+      <c r="A35" s="141"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="83"/>
       <c r="I35" s="47"/>
@@ -4367,9 +4390,9 @@
       <c r="M35" s="15"/>
       <c r="N35" s="29"/>
       <c r="O35" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="P35" s="125"/>
+        <v>117</v>
+      </c>
+      <c r="P35" s="123"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4389,38 +4412,38 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="111"/>
-      <c r="B36" s="104"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="47" t="s">
-        <v>94</v>
-      </c>
       <c r="H36" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="J36" s="55"/>
       <c r="K36" s="50"/>
       <c r="L36" s="86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="29"/>
       <c r="O36" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="P36" s="125"/>
+        <v>123</v>
+      </c>
+      <c r="P36" s="123"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4440,7 +4463,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="111"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="91" t="s">
         <v>19</v>
       </c>
@@ -4448,32 +4471,32 @@
         <v>55</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="J37" s="94"/>
       <c r="K37" s="50"/>
       <c r="L37" s="86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M37" s="34"/>
       <c r="N37" s="10"/>
       <c r="O37" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P37" s="125"/>
+        <v>89</v>
+      </c>
+      <c r="P37" s="123"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4492,33 +4515,39 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="36">
-      <c r="A38" s="111"/>
-      <c r="B38" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>80</v>
+    <row r="38" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A38" s="141"/>
+      <c r="B38" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="83"/>
+        <v>84</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>157</v>
+      </c>
       <c r="I38" s="47"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="125"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" s="123"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4538,20 +4567,20 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="111"/>
-      <c r="B39" s="114"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="96" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="D39" s="95" t="s">
+        <v>28</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="83"/>
       <c r="I39" s="47"/>
@@ -4561,7 +4590,7 @@
       <c r="M39" s="20"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="125"/>
+      <c r="P39" s="123"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4581,30 +4610,30 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="111"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10" t="s">
-        <v>80</v>
+      <c r="A40" s="141"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="96"/>
+      <c r="F40" s="87" t="s">
+        <v>79</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" s="83"/>
       <c r="I40" s="47"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
       <c r="L40" s="10"/>
       <c r="M40" s="20"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="125"/>
+      <c r="P40" s="123"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4624,30 +4653,38 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="111"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="98"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="126"/>
+      <c r="D41" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="96"/>
       <c r="F41" s="87" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="83"/>
+        <v>84</v>
+      </c>
+      <c r="H41" s="9"/>
       <c r="I41" s="47"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="125"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" s="9">
+        <v>4</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" s="123"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4666,39 +4703,39 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A42" s="111"/>
-      <c r="B42" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="98"/>
+    <row r="42" spans="1:33" ht="101.25" customHeight="1">
+      <c r="A42" s="142"/>
+      <c r="B42" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="126"/>
+      <c r="D42" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="96"/>
       <c r="F42" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="47"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
       <c r="L42" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N42" s="9">
-        <v>4</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="P42" s="125"/>
+        <v>3</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="P42" s="124"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4717,39 +4754,17 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="101.25" customHeight="1">
-      <c r="A43" s="112"/>
-      <c r="B43" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="128"/>
-      <c r="D43" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="98"/>
-      <c r="F43" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N43" s="9">
-        <v>3</v>
-      </c>
-      <c r="O43" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="P43" s="126"/>
+    <row r="43" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4797,14 +4812,20 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    <row r="45" spans="1:33" ht="12.75">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="M45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4826,19 +4847,26 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="12.75">
+    <row r="46" spans="1:33" ht="24">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="19"/>
+      <c r="F46" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4861,26 +4889,22 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="24">
+    <row r="47" spans="1:33" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="L47" s="8"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -4912,13 +4936,14 @@
         <v>73</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I48" s="25"/>
-      <c r="L48" s="8"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4946,16 +4971,18 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="F49" s="26" t="s">
-        <v>74</v>
+      <c r="F49" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
@@ -4985,18 +5012,16 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="26" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I50" s="25"/>
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="1"/>
@@ -5026,16 +5051,11 @@
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="F51" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="25"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
       <c r="M51" s="1"/>
@@ -5104,8 +5124,9 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -5133,7 +5154,6 @@
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -5203,7 +5223,9 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -5238,7 +5260,7 @@
       <c r="D57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5274,7 +5296,7 @@
       <c r="D58" s="1"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -5308,9 +5330,10 @@
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -5347,7 +5370,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -5383,9 +5406,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -11818,41 +11839,7 @@
       <c r="AF244" s="1"/>
       <c r="AG244" s="1"/>
     </row>
-    <row r="245" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A245" s="1"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
-      <c r="S245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="U245" s="1"/>
-      <c r="V245" s="1"/>
-      <c r="W245" s="1"/>
-      <c r="X245" s="1"/>
-      <c r="Y245" s="1"/>
-      <c r="Z245" s="1"/>
-      <c r="AA245" s="1"/>
-      <c r="AB245" s="1"/>
-      <c r="AC245" s="1"/>
-      <c r="AD245" s="1"/>
-      <c r="AE245" s="1"/>
-      <c r="AF245" s="1"/>
-      <c r="AG245" s="1"/>
-    </row>
+    <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="247" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="248" spans="1:33" ht="15.75" customHeight="1"/>
@@ -12613,14 +12600,33 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A10:P43">
+  <autoFilter ref="A10:P42">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="P31:P42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="O22:O24"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="M10:M11"/>
@@ -12631,26 +12637,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="P31:P43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:A30"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12689,7 +12675,7 @@
     </row>
     <row r="3" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B3" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
@@ -12703,7 +12689,7 @@
     </row>
     <row r="4" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B4" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>33</v>
@@ -12715,7 +12701,7 @@
     </row>
     <row r="5" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B5" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>34</v>
@@ -12727,13 +12713,13 @@
     </row>
     <row r="6" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>19</v>
@@ -12741,7 +12727,7 @@
     </row>
     <row r="7" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B7" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>21</v>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EzenCrowdFunding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\EzenCrowdFunding2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="164">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1405,6 +1405,10 @@
   </si>
   <si>
     <t>웹 화면 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현 중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2456,6 +2460,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2474,24 +2580,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,96 +2596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2811,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2871,22 +2875,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="135"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2908,20 +2912,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="138"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2983,10 +2987,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3166,44 +3170,44 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="105" t="s">
+      <c r="M10" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="N10" s="107" t="s">
+      <c r="N10" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="109" t="s">
+      <c r="O10" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="109" t="s">
+      <c r="P10" s="115" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="1"/>
@@ -3225,12 +3229,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="106"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="11">
         <v>43865</v>
       </c>
@@ -3242,11 +3246,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3266,11 +3270,11 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="48">
-      <c r="A12" s="137"/>
-      <c r="B12" s="117" t="s">
+      <c r="A12" s="105"/>
+      <c r="B12" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="118"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="45" t="s">
         <v>60</v>
       </c>
@@ -3319,8 +3323,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="138"/>
-      <c r="B13" s="119" t="s">
+      <c r="A13" s="106"/>
+      <c r="B13" s="121" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -3366,8 +3370,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="24">
-      <c r="A14" s="138"/>
-      <c r="B14" s="120"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="9" t="s">
         <v>46</v>
       </c>
@@ -3411,8 +3415,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="72">
-      <c r="A15" s="138"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
@@ -3454,8 +3458,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
@@ -3499,7 +3503,7 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="48">
-      <c r="A17" s="138"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="127" t="s">
         <v>148</v>
       </c>
@@ -3516,7 +3520,9 @@
       <c r="G17" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="47"/>
+      <c r="H17" s="47" t="s">
+        <v>163</v>
+      </c>
       <c r="I17" s="47"/>
       <c r="J17" s="55"/>
       <c r="K17" s="50"/>
@@ -3548,7 +3554,7 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="48">
-      <c r="A18" s="138"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="128"/>
       <c r="C18" s="57" t="s">
         <v>138</v>
@@ -3595,7 +3601,7 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="138"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="129"/>
       <c r="C19" s="58" t="s">
         <v>143</v>
@@ -3642,7 +3648,7 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="106.5" customHeight="1">
-      <c r="A20" s="138"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="127" t="s">
         <v>149</v>
       </c>
@@ -3693,7 +3699,7 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="36">
-      <c r="A21" s="138"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="128"/>
       <c r="C21" s="58" t="s">
         <v>142</v>
@@ -3742,7 +3748,7 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="36">
-      <c r="A22" s="138"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="128"/>
       <c r="C22" s="61" t="s">
         <v>144</v>
@@ -3791,7 +3797,7 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="36">
-      <c r="A23" s="138"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="128"/>
       <c r="C23" s="61" t="s">
         <v>145</v>
@@ -3836,7 +3842,7 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="138"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="128"/>
       <c r="C24" s="61" t="s">
         <v>146</v>
@@ -3881,7 +3887,7 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="24">
-      <c r="A25" s="138"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="128"/>
       <c r="C25" s="9" t="s">
         <v>83</v>
@@ -3936,7 +3942,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="37.5">
-      <c r="A26" s="138"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="129"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
@@ -3983,8 +3989,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A27" s="138"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
@@ -4034,8 +4040,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A28" s="138"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
@@ -4077,8 +4083,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A29" s="138"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="70" t="s">
         <v>151</v>
       </c>
@@ -4120,7 +4126,7 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A30" s="139"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="71" t="s">
         <v>16</v>
       </c>
@@ -4175,13 +4181,13 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="136"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="77" t="s">
         <v>26</v>
       </c>
@@ -4230,11 +4236,11 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="84">
-      <c r="A32" s="141"/>
-      <c r="B32" s="143" t="s">
+      <c r="A32" s="109"/>
+      <c r="B32" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="144"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="81" t="s">
         <v>130</v>
       </c>
@@ -4273,8 +4279,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="48">
-      <c r="A33" s="141"/>
-      <c r="B33" s="133" t="s">
+      <c r="A33" s="109"/>
+      <c r="B33" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="57" t="s">
@@ -4320,8 +4326,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="48" customHeight="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="134"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="10" t="s">
         <v>127</v>
       </c>
@@ -4367,8 +4373,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="48" customHeight="1">
-      <c r="A35" s="141"/>
-      <c r="B35" s="134"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="10" t="s">
         <v>128</v>
       </c>
@@ -4412,8 +4418,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="141"/>
-      <c r="B36" s="134"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="89" t="s">
         <v>91</v>
       </c>
@@ -4463,7 +4469,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="141"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="91" t="s">
         <v>19</v>
       </c>
@@ -4516,8 +4522,8 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="141"/>
-      <c r="B38" s="120" t="s">
+      <c r="A38" s="109"/>
+      <c r="B38" s="113" t="s">
         <v>156</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4567,8 +4573,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="141"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="10" t="s">
         <v>53</v>
       </c>
@@ -4610,8 +4616,8 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="141"/>
-      <c r="B40" s="121"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="57" t="s">
         <v>147</v>
       </c>
@@ -4653,7 +4659,7 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="141"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="125" t="s">
         <v>56</v>
       </c>
@@ -4704,7 +4710,7 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="101.25" customHeight="1">
-      <c r="A42" s="142"/>
+      <c r="A42" s="110"/>
       <c r="B42" s="125" t="s">
         <v>57</v>
       </c>
@@ -12607,15 +12613,16 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:C12"/>
@@ -12627,16 +12634,15 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="O22:O24"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\EzenCrowdFunding2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="168">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -52,9 +47,6 @@
   </si>
   <si>
     <t>일정계획</t>
-  </si>
-  <si>
-    <t>진행상황</t>
   </si>
   <si>
     <t>우선순위</t>
@@ -476,14 +468,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>웹화면구현시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹화면구현시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>N/A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -565,16 +549,6 @@
 관심 등록 프로젝트 관리 페이지
 회원 정보 변경 페이지 연결
 예치금 관리 페이지 (예치금 충전, 조회)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 화면 설계 완료
-웹 화면 구현 시작</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 및 모바일 화면 설계 완료
-웹 화면 구현 시작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -622,11 +596,6 @@
   </si>
   <si>
     <t>웹 화면 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 화면
-LAYOUT 작업 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1413,6 +1382,47 @@
   </si>
   <si>
     <t>웹 화면 구현 중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹화면 구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT 작업 완료</t>
+  </si>
+  <si>
+    <t>웹 화면 구현 중</t>
+  </si>
+  <si>
+    <t>웹 화면 구현 중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 화면
+구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 화면
+구현 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행상황</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현 중
+데이터 베이스 설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩 pagination 적용 X</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2166,7 +2176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2460,12 +2470,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,101 +2608,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2815,8 +2828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2824,15 +2837,15 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="96.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="86" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="44" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="32.28515625" customWidth="1"/>
     <col min="16" max="16" width="30.85546875" customWidth="1"/>
@@ -2875,22 +2888,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2912,20 +2925,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="138"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2987,10 +3000,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="144" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="144"/>
+      <c r="G5" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="114"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3028,7 +3041,7 @@
         <v>43865</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3067,7 +3080,7 @@
         <v>43871</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3106,7 +3119,7 @@
         <v>43874</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3170,45 +3183,45 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="141" t="s">
+      <c r="D10" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99" t="s">
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="109" t="s">
         <v>58</v>
-      </c>
-      <c r="P10" s="115" t="s">
-        <v>59</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3229,12 +3242,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="100"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="11">
         <v>43865</v>
       </c>
@@ -3244,13 +3257,17 @@
       <c r="I11" s="11">
         <v>43874</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
+      <c r="J11" s="11">
+        <v>43878</v>
+      </c>
+      <c r="K11" s="11">
+        <v>43881</v>
+      </c>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3269,40 +3286,40 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="48">
-      <c r="A12" s="105"/>
-      <c r="B12" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="120"/>
+    <row r="12" spans="1:33" ht="60">
+      <c r="A12" s="137"/>
+      <c r="B12" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="118"/>
       <c r="D12" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="48"/>
       <c r="I12" s="47"/>
       <c r="J12" s="49"/>
       <c r="K12" s="50"/>
       <c r="L12" s="51" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3323,30 +3340,32 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="121" t="s">
-        <v>15</v>
+      <c r="A13" s="138"/>
+      <c r="B13" s="119" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="49"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
+      <c r="L13" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="M13" s="13"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
@@ -3369,29 +3388,31 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="24">
-      <c r="A14" s="106"/>
-      <c r="B14" s="113"/>
+    <row r="14" spans="1:33" ht="36">
+      <c r="A14" s="138"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="55"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="56"/>
+      <c r="L14" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
@@ -3414,27 +3435,29 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="72">
-      <c r="A15" s="106"/>
-      <c r="B15" s="113"/>
+    <row r="15" spans="1:33" ht="84">
+      <c r="A15" s="138"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
       <c r="J15" s="55"/>
       <c r="K15" s="50"/>
-      <c r="L15" s="56"/>
+      <c r="L15" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="M15" s="14"/>
       <c r="N15" s="5"/>
       <c r="O15" s="3"/>
@@ -3458,28 +3481,30 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="114"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="54" t="s">
-        <v>81</v>
-      </c>
       <c r="F16" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
       <c r="J16" s="55"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="56"/>
+      <c r="L16" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="M16" s="14"/>
       <c r="N16" s="5"/>
       <c r="O16" s="39"/>
@@ -3502,38 +3527,40 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="48">
-      <c r="A17" s="106"/>
+    <row r="17" spans="1:33" ht="72">
+      <c r="A17" s="138"/>
       <c r="B17" s="127" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I17" s="47"/>
       <c r="J17" s="55"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="56"/>
+      <c r="L17" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3553,34 +3580,36 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="48">
-      <c r="A18" s="106"/>
+    <row r="18" spans="1:33" ht="60">
+      <c r="A18" s="138"/>
       <c r="B18" s="128"/>
       <c r="C18" s="57" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="55"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="56"/>
+      <c r="L18" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="5"/>
       <c r="O18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3601,33 +3630,35 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="106"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="129"/>
       <c r="C19" s="58" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="55"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="56"/>
+      <c r="L19" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3648,33 +3679,35 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="106.5" customHeight="1">
-      <c r="A20" s="106"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="127" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="50"/>
+        <v>131</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="145" t="s">
+        <v>163</v>
+      </c>
       <c r="L20" s="60" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="5"/>
@@ -3698,36 +3731,36 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="36">
-      <c r="A21" s="106"/>
+    <row r="21" spans="1:33" ht="48">
+      <c r="A21" s="138"/>
       <c r="B21" s="128"/>
       <c r="C21" s="58" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="55"/>
       <c r="K21" s="50"/>
       <c r="L21" s="60" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3748,35 +3781,35 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="36">
-      <c r="A22" s="106"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="128"/>
       <c r="C22" s="61" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
       <c r="J22" s="55"/>
       <c r="K22" s="50"/>
       <c r="L22" s="60" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="130" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P22" s="130" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3796,28 +3829,28 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="36">
-      <c r="A23" s="106"/>
+    <row r="23" spans="1:33" ht="48">
+      <c r="A23" s="138"/>
       <c r="B23" s="128"/>
       <c r="C23" s="61" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="J23" s="55"/>
       <c r="K23" s="50"/>
       <c r="L23" s="60" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3842,27 +3875,27 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="106"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="128"/>
       <c r="C24" s="61" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
       <c r="J24" s="55"/>
       <c r="K24" s="50"/>
       <c r="L24" s="60" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3887,41 +3920,43 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="24">
-      <c r="A25" s="106"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="128"/>
       <c r="C25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>84</v>
-      </c>
       <c r="H25" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="50"/>
+        <v>131</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="L25" s="60" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -3942,29 +3977,29 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="37.5">
-      <c r="A26" s="106"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="129"/>
       <c r="C26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F26" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="55"/>
       <c r="K26" s="50"/>
       <c r="L26" s="60" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M26" s="16"/>
       <c r="N26" s="5"/>
@@ -3989,37 +4024,41 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A27" s="106"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="115" t="s">
+        <v>166</v>
+      </c>
       <c r="C27" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I27" s="47"/>
       <c r="J27" s="55"/>
       <c r="K27" s="50"/>
       <c r="L27" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="M27" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -4040,27 +4079,31 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A28" s="106"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
       <c r="J28" s="55"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="5"/>
+      <c r="L28" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3"/>
@@ -4083,26 +4126,28 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A29" s="106"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="70" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="55"/>
       <c r="K29" s="50"/>
-      <c r="L29" s="60"/>
+      <c r="L29" s="60" t="s">
+        <v>160</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="5"/>
       <c r="O29" s="4"/>
@@ -4126,41 +4171,41 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A30" s="107"/>
+      <c r="A30" s="139"/>
       <c r="B30" s="71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="73"/>
       <c r="F30" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
       <c r="J30" s="75"/>
       <c r="K30" s="76"/>
       <c r="L30" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N30" s="32">
         <v>3</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P30" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4181,40 +4226,40 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A31" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="104"/>
+      <c r="A31" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="136"/>
       <c r="D31" s="77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="78"/>
       <c r="F31" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I31" s="47"/>
       <c r="J31" s="79"/>
       <c r="K31" s="80"/>
       <c r="L31" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="N31" s="16">
         <v>1</v>
       </c>
       <c r="O31" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P31" s="122"/>
       <c r="Q31" s="1"/>
@@ -4236,26 +4281,28 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="84">
-      <c r="A32" s="109"/>
-      <c r="B32" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="112"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="144"/>
       <c r="D32" s="81" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E32" s="82"/>
       <c r="F32" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="83"/>
       <c r="I32" s="47"/>
       <c r="J32" s="49"/>
       <c r="K32" s="84"/>
-      <c r="L32" s="85"/>
+      <c r="L32" s="85" t="s">
+        <v>160</v>
+      </c>
       <c r="M32" s="17"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
@@ -4279,32 +4326,34 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="48">
-      <c r="A33" s="109"/>
-      <c r="B33" s="101" t="s">
-        <v>18</v>
+      <c r="A33" s="141"/>
+      <c r="B33" s="133" t="s">
+        <v>17</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="83"/>
       <c r="I33" s="47"/>
       <c r="J33" s="55"/>
       <c r="K33" s="50"/>
-      <c r="L33" s="86"/>
+      <c r="L33" s="86" t="s">
+        <v>160</v>
+      </c>
       <c r="M33" s="15"/>
       <c r="N33" s="5"/>
       <c r="O33" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P33" s="123"/>
       <c r="Q33" s="1"/>
@@ -4326,30 +4375,32 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="48" customHeight="1">
-      <c r="A34" s="109"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="86"/>
+        <v>131</v>
+      </c>
+      <c r="I34" s="48"/>
+      <c r="J34" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="48"/>
+      <c r="L34" s="86" t="s">
+        <v>160</v>
+      </c>
       <c r="M34" s="15"/>
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
@@ -4373,30 +4424,32 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="48" customHeight="1">
-      <c r="A35" s="109"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="141"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H35" s="83"/>
       <c r="I35" s="47"/>
       <c r="J35" s="55"/>
       <c r="K35" s="50"/>
-      <c r="L35" s="86"/>
+      <c r="L35" s="86" t="s">
+        <v>160</v>
+      </c>
       <c r="M35" s="15"/>
       <c r="N35" s="29"/>
       <c r="O35" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P35" s="123"/>
       <c r="Q35" s="1"/>
@@ -4418,36 +4471,36 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="109"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="47" t="s">
-        <v>93</v>
-      </c>
       <c r="H36" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="55"/>
-      <c r="K36" s="50"/>
+        <v>131</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="48"/>
       <c r="L36" s="86" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="29"/>
       <c r="O36" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P36" s="123"/>
       <c r="Q36" s="1"/>
@@ -4469,38 +4522,38 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="109"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="50"/>
+        <v>131</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="145"/>
       <c r="L37" s="86" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="M37" s="34"/>
       <c r="N37" s="10"/>
       <c r="O37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P37" s="123"/>
       <c r="Q37" s="1"/>
@@ -4522,36 +4575,40 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="109"/>
-      <c r="B38" s="113" t="s">
-        <v>156</v>
+      <c r="A38" s="141"/>
+      <c r="B38" s="120" t="s">
+        <v>150</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="I38" s="47"/>
+        <v>151</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>159</v>
+      </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="M38" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="N38" s="31"/>
       <c r="O38" s="57" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P38" s="123"/>
       <c r="Q38" s="1"/>
@@ -4573,27 +4630,31 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" s="83"/>
       <c r="I39" s="47"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="20"/>
+      <c r="L39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
       <c r="P39" s="123"/>
@@ -4616,26 +4677,28 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A40" s="109"/>
-      <c r="B40" s="114"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="121"/>
       <c r="C40" s="57" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D40" s="95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="96"/>
       <c r="F40" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="83"/>
       <c r="I40" s="47"/>
       <c r="J40" s="96"/>
       <c r="K40" s="96"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="M40" s="20"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
@@ -4659,36 +4722,36 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A41" s="109"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="126"/>
       <c r="D41" s="97" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E41" s="96"/>
       <c r="F41" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="47"/>
       <c r="J41" s="96"/>
       <c r="K41" s="96"/>
       <c r="L41" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N41" s="9">
         <v>4</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P41" s="123"/>
       <c r="Q41" s="1"/>
@@ -4710,36 +4773,36 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="101.25" customHeight="1">
-      <c r="A42" s="110"/>
+      <c r="A42" s="142"/>
       <c r="B42" s="125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="126"/>
       <c r="D42" s="98" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E42" s="96"/>
       <c r="F42" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="47"/>
       <c r="J42" s="96"/>
       <c r="K42" s="96"/>
       <c r="L42" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N42" s="9">
         <v>3</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P42" s="124"/>
       <c r="Q42" s="1"/>
@@ -4825,10 +4888,10 @@
       <c r="D45" s="1"/>
       <c r="F45" s="21"/>
       <c r="G45" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="I45" s="19"/>
       <c r="M45" s="1"/>
@@ -4859,16 +4922,16 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -4901,13 +4964,13 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I47" s="25"/>
       <c r="L47" s="8"/>
@@ -4939,13 +5002,13 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I48" s="25"/>
       <c r="K48" s="1"/>
@@ -4978,16 +5041,16 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
@@ -5019,13 +5082,13 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50" s="25"/>
       <c r="K50" s="1"/>
@@ -5230,7 +5293,7 @@
       <c r="D56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -5266,7 +5329,7 @@
       <c r="D57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5302,7 +5365,7 @@
       <c r="D58" s="1"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -5339,7 +5402,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -5376,7 +5439,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -12613,16 +12676,15 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:A30"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:C12"/>
@@ -12634,15 +12696,16 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="O22:O24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12672,74 +12735,74 @@
     <row r="2" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B2" s="35"/>
       <c r="C2" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B3" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B4" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B5" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B6" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="36" customFormat="1" ht="38.25" customHeight="1">
       <c r="B7" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="25"/>
     </row>

--- a/project03 - 요구사항 정의서.xlsx
+++ b/project03 - 요구사항 정의서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이형준\Desktop\EzenCrowdFunding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026134EB-BA3E-480F-8289-6029AF7F78C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="-75" windowWidth="17625" windowHeight="15840"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="167">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1381,10 +1387,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>웹 화면 구현 중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>웹화면 구현 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1429,7 +1431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -2470,6 +2472,111 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="c